--- a/40. SENAVBAH 2021 BAH(K_1) NAV(K_2)/UKURAN.xlsx
+++ b/40. SENAVBAH 2021 BAH(K_1) NAV(K_2)/UKURAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\40. SENAVBAH 2021 BAH(K_1) NAV(K_2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0890A-C733-4822-9E1A-F8D7238CAE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AD4D36-5AF1-4C66-B393-4D865651455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="1020" windowWidth="15600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKURAN" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="889">
   <si>
     <t>NO</t>
   </si>
@@ -2691,6 +2691,18 @@
   </si>
   <si>
     <t>IKA HUSNA</t>
+  </si>
+  <si>
+    <t>V36</t>
+  </si>
+  <si>
+    <t>ADIF PAMA</t>
+  </si>
+  <si>
+    <t>V37</t>
+  </si>
+  <si>
+    <t>IQBAL F</t>
   </si>
 </sst>
 </file>
@@ -3581,7 +3593,7 @@
   <dimension ref="A1:AMJ415"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C63"/>
+      <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3596,7 +3608,9 @@
     <col min="9" max="11" width="4.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.75" style="3" customWidth="1"/>
     <col min="13" max="17" width="4.625" style="3" customWidth="1"/>
-    <col min="18" max="24" width="4.75" style="3" customWidth="1"/>
+    <col min="18" max="18" width="4.75" style="3" customWidth="1"/>
+    <col min="19" max="19" width="5.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="4.75" style="3" customWidth="1"/>
     <col min="25" max="1024" width="10.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8265,56 +8279,144 @@
       </c>
     </row>
     <row r="64" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
+      <c r="A64" s="7" t="s">
+        <v>885</v>
+      </c>
       <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="C64" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
+      <c r="G64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" s="6">
+        <v>45</v>
+      </c>
+      <c r="J64" s="6">
+        <v>56</v>
+      </c>
+      <c r="K64" s="6">
+        <v>17</v>
+      </c>
+      <c r="L64" s="6">
+        <v>16</v>
+      </c>
+      <c r="M64" s="6">
+        <v>27</v>
+      </c>
+      <c r="N64" s="6">
+        <v>24</v>
+      </c>
+      <c r="O64" s="6">
+        <v>27</v>
+      </c>
+      <c r="P64" s="6">
+        <v>70</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>36</v>
+      </c>
+      <c r="R64" s="6">
+        <v>75</v>
+      </c>
+      <c r="S64" s="6">
+        <v>103</v>
+      </c>
+      <c r="T64" s="6">
+        <v>69</v>
+      </c>
+      <c r="U64" s="6">
+        <v>32</v>
+      </c>
+      <c r="V64" s="6">
+        <v>25</v>
+      </c>
+      <c r="W64" s="6">
+        <v>21</v>
+      </c>
+      <c r="X64" s="6">
+        <v>102</v>
+      </c>
     </row>
     <row r="65" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
+      <c r="A65" s="7" t="s">
+        <v>887</v>
+      </c>
       <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="C65" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
+      <c r="G65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I65" s="6">
+        <v>46</v>
+      </c>
+      <c r="J65" s="6">
+        <v>59</v>
+      </c>
+      <c r="K65" s="6">
+        <v>17</v>
+      </c>
+      <c r="L65" s="6">
+        <v>16</v>
+      </c>
+      <c r="M65" s="6">
+        <v>26</v>
+      </c>
+      <c r="N65" s="6">
+        <v>23</v>
+      </c>
+      <c r="O65" s="6">
+        <v>26</v>
+      </c>
+      <c r="P65" s="6">
+        <v>69</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>36</v>
+      </c>
+      <c r="R65" s="6">
+        <v>71</v>
+      </c>
+      <c r="S65" s="6">
+        <v>101</v>
+      </c>
+      <c r="T65" s="6">
+        <v>68</v>
+      </c>
+      <c r="U65" s="6">
+        <v>33</v>
+      </c>
+      <c r="V65" s="6">
+        <v>25</v>
+      </c>
+      <c r="W65" s="6">
+        <v>21</v>
+      </c>
+      <c r="X65" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="66" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>

--- a/40. SENAVBAH 2021 BAH(K_1) NAV(K_2)/UKURAN.xlsx
+++ b/40. SENAVBAH 2021 BAH(K_1) NAV(K_2)/UKURAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\40. SENAVBAH 2021 BAH(K_1) NAV(K_2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AD4D36-5AF1-4C66-B393-4D865651455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF530763-3750-4380-BDC0-5DA0D0325CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKURAN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">'PESAN NAMA'!$A$2:$C$301</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">UKURAN!$A$1:$X$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">UKURAN!$A$1:$X$311</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="905">
   <si>
     <t>NO</t>
   </si>
@@ -2703,6 +2703,54 @@
   </si>
   <si>
     <t>IQBAL F</t>
+  </si>
+  <si>
+    <t>MAHMUD</t>
+  </si>
+  <si>
+    <t>BAGUS R.J.</t>
+  </si>
+  <si>
+    <t>REIYNOLD</t>
+  </si>
+  <si>
+    <t>BAGAS N.A.</t>
+  </si>
+  <si>
+    <t>YUDHA MADA</t>
+  </si>
+  <si>
+    <t>28 DES</t>
+  </si>
+  <si>
+    <t>V38</t>
+  </si>
+  <si>
+    <t>V39</t>
+  </si>
+  <si>
+    <t>V40</t>
+  </si>
+  <si>
+    <t>V41</t>
+  </si>
+  <si>
+    <t>V42</t>
+  </si>
+  <si>
+    <t>BLM CETAK NAMA</t>
+  </si>
+  <si>
+    <t>ATHALLAH EKA P.</t>
+  </si>
+  <si>
+    <t>NANU AL AYUBI</t>
+  </si>
+  <si>
+    <t>U28</t>
+  </si>
+  <si>
+    <t>U29</t>
   </si>
 </sst>
 </file>
@@ -2713,7 +2761,7 @@
     <numFmt numFmtId="164" formatCode="#&quot; Orang&quot;"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; &quot;&quot;- &quot;;&quot; &quot;@&quot; &quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2862,6 +2910,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2989,7 +3042,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3019,9 +3072,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3040,9 +3090,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3152,7 +3199,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>191201</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="0" cy="0"/>
@@ -3251,7 +3298,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:X309" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:X311" totalsRowShown="0">
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAMA"/>
@@ -3590,15 +3637,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ415"/>
+  <dimension ref="A1:AMJ417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="S65" sqref="S65"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="34.25" style="3" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="37.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
@@ -4799,7 +4846,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
@@ -4873,7 +4920,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -4947,7 +4994,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
@@ -5021,7 +5068,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>66</v>
       </c>
@@ -5095,7 +5142,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>68</v>
       </c>
@@ -5169,7 +5216,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>70</v>
       </c>
@@ -5243,7 +5290,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
@@ -5317,7 +5364,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>74</v>
       </c>
@@ -5391,7 +5438,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
@@ -5465,7 +5512,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>78</v>
       </c>
@@ -5539,7 +5586,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>80</v>
       </c>
@@ -5613,7 +5660,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>82</v>
       </c>
@@ -5687,39 +5734,35 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>903</v>
+      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>85</v>
+        <v>901</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="4">
-        <v>133465</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I29" s="6">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J29" s="6">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K29" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L29" s="6">
         <v>17</v>
@@ -5728,7 +5771,7 @@
         <v>28</v>
       </c>
       <c r="N29" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O29" s="6">
         <v>28</v>
@@ -5740,110 +5783,118 @@
         <v>38</v>
       </c>
       <c r="R29" s="6">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="S29" s="6">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="T29" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U29" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V29" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W29" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X29" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>89</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>858</v>
+        <v>902</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="4">
-        <v>133455</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I30" s="6">
+        <v>47</v>
+      </c>
+      <c r="J30" s="6">
+        <v>59</v>
+      </c>
+      <c r="K30" s="6">
+        <v>19</v>
+      </c>
+      <c r="L30" s="6">
+        <v>17</v>
+      </c>
+      <c r="M30" s="6">
+        <v>28</v>
+      </c>
+      <c r="N30" s="6">
+        <v>25</v>
+      </c>
+      <c r="O30" s="6">
+        <v>28</v>
+      </c>
+      <c r="P30" s="6">
+        <v>70</v>
+      </c>
+      <c r="Q30" s="6">
         <v>42</v>
       </c>
-      <c r="J30" s="6">
-        <v>58</v>
-      </c>
-      <c r="K30" s="6">
-        <v>17</v>
-      </c>
-      <c r="L30" s="6">
-        <v>16</v>
-      </c>
-      <c r="M30" s="6">
-        <v>27</v>
-      </c>
-      <c r="N30" s="6">
-        <v>24</v>
-      </c>
-      <c r="O30" s="6">
-        <v>27</v>
-      </c>
-      <c r="P30" s="6">
-        <v>69</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>37</v>
-      </c>
       <c r="R30" s="6">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="S30" s="6">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="T30" s="6">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U30" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V30" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W30" s="6">
         <v>21</v>
       </c>
       <c r="X30" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>859</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>27</v>
@@ -5852,7 +5903,7 @@
         <v>86</v>
       </c>
       <c r="F31" s="4">
-        <v>133458</v>
+        <v>133465</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>29</v>
@@ -5861,63 +5912,63 @@
         <v>87</v>
       </c>
       <c r="I31" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J31" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31" s="6">
+        <v>18</v>
+      </c>
+      <c r="L31" s="6">
         <v>17</v>
       </c>
-      <c r="L31" s="6">
-        <v>16</v>
-      </c>
       <c r="M31" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N31" s="6">
         <v>25</v>
       </c>
       <c r="O31" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P31" s="6">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="6">
         <v>38</v>
       </c>
       <c r="R31" s="6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S31" s="6">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="T31" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U31" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V31" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W31" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X31" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>338</v>
+        <v>858</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>27</v>
@@ -5926,7 +5977,7 @@
         <v>86</v>
       </c>
       <c r="F32" s="4">
-        <v>133457</v>
+        <v>133455</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>29</v>
@@ -5935,10 +5986,10 @@
         <v>87</v>
       </c>
       <c r="I32" s="6">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J32" s="6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K32" s="6">
         <v>17</v>
@@ -5947,51 +5998,51 @@
         <v>16</v>
       </c>
       <c r="M32" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N32" s="6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O32" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P32" s="6">
         <v>69</v>
       </c>
       <c r="Q32" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R32" s="6">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S32" s="6">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T32" s="6">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U32" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V32" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W32" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X32" s="6">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>27</v>
@@ -6000,7 +6051,7 @@
         <v>86</v>
       </c>
       <c r="F33" s="4">
-        <v>133463</v>
+        <v>133458</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>29</v>
@@ -6009,10 +6060,10 @@
         <v>87</v>
       </c>
       <c r="I33" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J33" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K33" s="6">
         <v>17</v>
@@ -6030,19 +6081,19 @@
         <v>27</v>
       </c>
       <c r="P33" s="6">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q33" s="6">
         <v>38</v>
       </c>
       <c r="R33" s="6">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S33" s="6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T33" s="6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U33" s="6">
         <v>32</v>
@@ -6051,21 +6102,21 @@
         <v>26</v>
       </c>
       <c r="W33" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X33" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>861</v>
+        <v>338</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>27</v>
@@ -6074,19 +6125,19 @@
         <v>86</v>
       </c>
       <c r="F34" s="4">
-        <v>133467</v>
-      </c>
-      <c r="G34" s="7" t="s">
+        <v>133457</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I34" s="6">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J34" s="6">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K34" s="6">
         <v>17</v>
@@ -6095,51 +6146,51 @@
         <v>16</v>
       </c>
       <c r="M34" s="6">
+        <v>28</v>
+      </c>
+      <c r="N34" s="6">
         <v>26</v>
       </c>
-      <c r="N34" s="6">
-        <v>24</v>
-      </c>
       <c r="O34" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P34" s="6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="6">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R34" s="6">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="S34" s="6">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="T34" s="6">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="U34" s="6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V34" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W34" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X34" s="6">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>27</v>
@@ -6148,61 +6199,61 @@
         <v>86</v>
       </c>
       <c r="F35" s="4">
-        <v>133472</v>
-      </c>
-      <c r="G35" s="7" t="s">
+        <v>133463</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I35" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35" s="6">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K35" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L35" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N35" s="6">
+        <v>25</v>
+      </c>
+      <c r="O35" s="6">
         <v>27</v>
       </c>
-      <c r="O35" s="6">
-        <v>28</v>
-      </c>
       <c r="P35" s="6">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="Q35" s="6">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R35" s="6">
         <v>78</v>
       </c>
       <c r="S35" s="6">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T35" s="6">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="U35" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V35" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W35" s="6">
         <v>22</v>
       </c>
       <c r="X35" s="6">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="Y35" s="3">
         <v>1</v>
@@ -6210,13 +6261,13 @@
     </row>
     <row r="36" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>27</v>
@@ -6225,55 +6276,55 @@
         <v>86</v>
       </c>
       <c r="F36" s="4">
-        <v>134098</v>
+        <v>133467</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I36" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J36" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K36" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L36" s="6">
         <v>16</v>
       </c>
       <c r="M36" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N36" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O36" s="6">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="P36" s="6">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q36" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R36" s="6">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="S36" s="6">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T36" s="6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U36" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V36" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="W36" s="6">
         <v>21</v>
@@ -6284,13 +6335,13 @@
     </row>
     <row r="37" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>27</v>
@@ -6299,7 +6350,7 @@
         <v>86</v>
       </c>
       <c r="F37" s="4">
-        <v>133451</v>
+        <v>133472</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>29</v>
@@ -6308,10 +6359,10 @@
         <v>87</v>
       </c>
       <c r="I37" s="6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J37" s="6">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K37" s="6">
         <v>18</v>
@@ -6320,51 +6371,51 @@
         <v>17</v>
       </c>
       <c r="M37" s="6">
+        <v>28</v>
+      </c>
+      <c r="N37" s="6">
         <v>27</v>
       </c>
-      <c r="N37" s="6">
-        <v>24</v>
-      </c>
       <c r="O37" s="6">
+        <v>28</v>
+      </c>
+      <c r="P37" s="6">
+        <v>76</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>41</v>
+      </c>
+      <c r="R37" s="6">
+        <v>78</v>
+      </c>
+      <c r="S37" s="6">
+        <v>102</v>
+      </c>
+      <c r="T37" s="6">
+        <v>73</v>
+      </c>
+      <c r="U37" s="6">
+        <v>33</v>
+      </c>
+      <c r="V37" s="6">
         <v>27</v>
       </c>
-      <c r="P37" s="6">
-        <v>71</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>38</v>
-      </c>
-      <c r="R37" s="6">
-        <v>73</v>
-      </c>
-      <c r="S37" s="6">
-        <v>95</v>
-      </c>
-      <c r="T37" s="6">
-        <v>66</v>
-      </c>
-      <c r="U37" s="6">
-        <v>32</v>
-      </c>
-      <c r="V37" s="6">
-        <v>26</v>
-      </c>
       <c r="W37" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X37" s="6">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>27</v>
@@ -6373,72 +6424,72 @@
         <v>86</v>
       </c>
       <c r="F38" s="4">
-        <v>133439</v>
+        <v>134098</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I38" s="6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J38" s="6">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K38" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L38" s="6">
         <v>16</v>
       </c>
       <c r="M38" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N38" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O38" s="6">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="P38" s="6">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R38" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S38" s="6">
         <v>97</v>
       </c>
       <c r="T38" s="6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U38" s="6">
         <v>32</v>
       </c>
       <c r="V38" s="6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W38" s="6">
         <v>21</v>
       </c>
       <c r="X38" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>27</v>
@@ -6447,7 +6498,7 @@
         <v>86</v>
       </c>
       <c r="F39" s="4">
-        <v>133447</v>
+        <v>133451</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>29</v>
@@ -6456,16 +6507,16 @@
         <v>87</v>
       </c>
       <c r="I39" s="6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J39" s="6">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K39" s="6">
+        <v>18</v>
+      </c>
+      <c r="L39" s="6">
         <v>17</v>
-      </c>
-      <c r="L39" s="6">
-        <v>16</v>
       </c>
       <c r="M39" s="6">
         <v>27</v>
@@ -6477,22 +6528,22 @@
         <v>27</v>
       </c>
       <c r="P39" s="6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q39" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R39" s="6">
         <v>73</v>
       </c>
       <c r="S39" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T39" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U39" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V39" s="6">
         <v>26</v>
@@ -6501,18 +6552,18 @@
         <v>21</v>
       </c>
       <c r="X39" s="6">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>27</v>
@@ -6521,7 +6572,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="4">
-        <v>133462</v>
+        <v>133439</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>29</v>
@@ -6530,10 +6581,10 @@
         <v>87</v>
       </c>
       <c r="I40" s="6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J40" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K40" s="6">
         <v>17</v>
@@ -6551,42 +6602,42 @@
         <v>27</v>
       </c>
       <c r="P40" s="6">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q40" s="6">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="R40" s="6">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S40" s="6">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T40" s="6">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U40" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V40" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W40" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X40" s="6">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>27</v>
@@ -6595,7 +6646,7 @@
         <v>86</v>
       </c>
       <c r="F41" s="4">
-        <v>133445</v>
+        <v>133447</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>29</v>
@@ -6604,63 +6655,63 @@
         <v>87</v>
       </c>
       <c r="I41" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J41" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K41" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L41" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M41" s="6">
         <v>27</v>
       </c>
       <c r="N41" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O41" s="6">
         <v>27</v>
       </c>
       <c r="P41" s="6">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q41" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R41" s="6">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="S41" s="6">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T41" s="6">
         <v>67</v>
       </c>
       <c r="U41" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V41" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W41" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X41" s="6">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>113</v>
+        <v>867</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>27</v>
@@ -6669,7 +6720,7 @@
         <v>86</v>
       </c>
       <c r="F42" s="4">
-        <v>133449</v>
+        <v>133462</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>29</v>
@@ -6678,7 +6729,7 @@
         <v>87</v>
       </c>
       <c r="I42" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J42" s="6">
         <v>57</v>
@@ -6699,42 +6750,42 @@
         <v>27</v>
       </c>
       <c r="P42" s="6">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q42" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R42" s="6">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S42" s="6">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T42" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U42" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V42" s="6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W42" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X42" s="6">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>27</v>
@@ -6743,7 +6794,7 @@
         <v>86</v>
       </c>
       <c r="F43" s="4">
-        <v>133454</v>
+        <v>133445</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>29</v>
@@ -6752,49 +6803,49 @@
         <v>87</v>
       </c>
       <c r="I43" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J43" s="6">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K43" s="6">
+        <v>18</v>
+      </c>
+      <c r="L43" s="6">
         <v>17</v>
       </c>
-      <c r="L43" s="6">
-        <v>16</v>
-      </c>
       <c r="M43" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N43" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O43" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P43" s="6">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q43" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R43" s="6">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="S43" s="6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T43" s="6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U43" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V43" s="6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W43" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X43" s="6">
         <v>99</v>
@@ -6802,13 +6853,13 @@
     </row>
     <row r="44" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>870</v>
+        <v>113</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>27</v>
@@ -6817,58 +6868,58 @@
         <v>86</v>
       </c>
       <c r="F44" s="4">
-        <v>133466</v>
+        <v>133449</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="I44" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L44" s="6">
         <v>16</v>
       </c>
       <c r="M44" s="6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N44" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O44" s="6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P44" s="6">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q44" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R44" s="6">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="S44" s="6">
         <v>98</v>
       </c>
       <c r="T44" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U44" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V44" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W44" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X44" s="6">
         <v>97</v>
@@ -6876,13 +6927,13 @@
     </row>
     <row r="45" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>681</v>
+        <v>869</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>27</v>
@@ -6890,8 +6941,8 @@
       <c r="E45" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="3">
-        <v>133456</v>
+      <c r="F45" s="4">
+        <v>133454</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>29</v>
@@ -6900,63 +6951,63 @@
         <v>87</v>
       </c>
       <c r="I45" s="6">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J45" s="6">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K45" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L45" s="6">
         <v>16</v>
       </c>
       <c r="M45" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N45" s="6">
         <v>24</v>
       </c>
       <c r="O45" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P45" s="6">
+        <v>68</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>37</v>
+      </c>
+      <c r="R45" s="6">
+        <v>73</v>
+      </c>
+      <c r="S45" s="6">
+        <v>96</v>
+      </c>
+      <c r="T45" s="6">
         <v>69</v>
       </c>
-      <c r="Q45" s="6">
-        <v>39</v>
-      </c>
-      <c r="R45" s="6">
-        <v>79</v>
-      </c>
-      <c r="S45" s="6">
-        <v>100</v>
-      </c>
-      <c r="T45" s="6">
-        <v>68</v>
-      </c>
       <c r="U45" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V45" s="6">
         <v>25</v>
       </c>
       <c r="W45" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X45" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>27</v>
@@ -6965,52 +7016,52 @@
         <v>86</v>
       </c>
       <c r="F46" s="4">
-        <v>133496</v>
+        <v>133466</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="I46" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J46" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K46" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L46" s="6">
         <v>16</v>
       </c>
       <c r="M46" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N46" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O46" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P46" s="6">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q46" s="6">
         <v>38</v>
       </c>
       <c r="R46" s="6">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="S46" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T46" s="6">
         <v>68</v>
       </c>
       <c r="U46" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V46" s="6">
         <v>24</v>
@@ -7019,18 +7070,18 @@
         <v>20</v>
       </c>
       <c r="X46" s="6">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>124</v>
+        <v>681</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>27</v>
@@ -7038,8 +7089,8 @@
       <c r="E47" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="4">
-        <v>133469</v>
+      <c r="F47" s="3">
+        <v>133456</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>29</v>
@@ -7048,10 +7099,10 @@
         <v>87</v>
       </c>
       <c r="I47" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J47" s="6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K47" s="6">
         <v>18</v>
@@ -7072,10 +7123,10 @@
         <v>69</v>
       </c>
       <c r="Q47" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R47" s="6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S47" s="6">
         <v>100</v>
@@ -7090,21 +7141,21 @@
         <v>25</v>
       </c>
       <c r="W47" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X47" s="6">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>27</v>
@@ -7112,8 +7163,8 @@
       <c r="E48" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="7">
-        <v>133444</v>
+      <c r="F48" s="4">
+        <v>133496</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>29</v>
@@ -7125,60 +7176,60 @@
         <v>45</v>
       </c>
       <c r="J48" s="6">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K48" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L48" s="6">
         <v>16</v>
       </c>
       <c r="M48" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N48" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O48" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P48" s="6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q48" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R48" s="6">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="S48" s="6">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T48" s="6">
         <v>68</v>
       </c>
       <c r="U48" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V48" s="6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W48" s="6">
         <v>20</v>
       </c>
       <c r="X48" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>873</v>
+        <v>124</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>27</v>
@@ -7186,73 +7237,73 @@
       <c r="E49" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="7">
-        <v>134101</v>
+      <c r="F49" s="4">
+        <v>133469</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I49" s="6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J49" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49" s="6">
+        <v>18</v>
+      </c>
+      <c r="L49" s="6">
         <v>16</v>
       </c>
-      <c r="L49" s="6">
-        <v>15</v>
-      </c>
       <c r="M49" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N49" s="6">
         <v>24</v>
       </c>
       <c r="O49" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P49" s="6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q49" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R49" s="6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S49" s="6">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="T49" s="6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U49" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V49" s="6">
         <v>25</v>
       </c>
       <c r="W49" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X49" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>27</v>
@@ -7261,7 +7312,7 @@
         <v>86</v>
       </c>
       <c r="F50" s="7">
-        <v>133452</v>
+        <v>133444</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>29</v>
@@ -7273,7 +7324,7 @@
         <v>45</v>
       </c>
       <c r="J50" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K50" s="6">
         <v>18</v>
@@ -7285,7 +7336,7 @@
         <v>27</v>
       </c>
       <c r="N50" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O50" s="6">
         <v>27</v>
@@ -7297,36 +7348,36 @@
         <v>39</v>
       </c>
       <c r="R50" s="6">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S50" s="6">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T50" s="6">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U50" s="6">
         <v>32</v>
       </c>
       <c r="V50" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W50" s="6">
         <v>20</v>
       </c>
       <c r="X50" s="6">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>27</v>
@@ -7335,25 +7386,25 @@
         <v>86</v>
       </c>
       <c r="F51" s="7">
-        <v>133464</v>
+        <v>134101</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I51" s="6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J51" s="6">
         <v>58</v>
       </c>
       <c r="K51" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L51" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M51" s="6">
         <v>26</v>
@@ -7362,13 +7413,13 @@
         <v>24</v>
       </c>
       <c r="O51" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P51" s="6">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q51" s="6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R51" s="6">
         <v>78</v>
@@ -7377,30 +7428,30 @@
         <v>107</v>
       </c>
       <c r="T51" s="6">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U51" s="6">
         <v>33</v>
       </c>
       <c r="V51" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W51" s="6">
         <v>21</v>
       </c>
       <c r="X51" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>27</v>
@@ -7409,7 +7460,7 @@
         <v>86</v>
       </c>
       <c r="F52" s="7">
-        <v>133438</v>
+        <v>133452</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>29</v>
@@ -7421,7 +7472,7 @@
         <v>45</v>
       </c>
       <c r="J52" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K52" s="6">
         <v>18</v>
@@ -7430,49 +7481,51 @@
         <v>16</v>
       </c>
       <c r="M52" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N52" s="6">
         <v>24</v>
       </c>
       <c r="O52" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P52" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q52" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R52" s="6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S52" s="6">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="T52" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U52" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V52" s="6">
         <v>25</v>
       </c>
       <c r="W52" s="6">
-        <v>100</v>
-      </c>
-      <c r="X52" s="6"/>
-    </row>
-    <row r="53" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>135</v>
+        <v>20</v>
+      </c>
+      <c r="X52" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>27</v>
@@ -7481,7 +7534,7 @@
         <v>86</v>
       </c>
       <c r="F53" s="7">
-        <v>133450</v>
+        <v>133464</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>29</v>
@@ -7490,10 +7543,10 @@
         <v>87</v>
       </c>
       <c r="I53" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J53" s="6">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K53" s="6">
         <v>18</v>
@@ -7502,51 +7555,51 @@
         <v>16</v>
       </c>
       <c r="M53" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N53" s="6">
         <v>24</v>
       </c>
       <c r="O53" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P53" s="6">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Q53" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R53" s="6">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S53" s="6">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="T53" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U53" s="6">
         <v>33</v>
       </c>
       <c r="V53" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W53" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X53" s="6">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>386</v>
+        <v>876</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>27</v>
@@ -7555,7 +7608,7 @@
         <v>86</v>
       </c>
       <c r="F54" s="7">
-        <v>133443</v>
+        <v>133438</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>29</v>
@@ -7567,60 +7620,58 @@
         <v>45</v>
       </c>
       <c r="J54" s="6">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K54" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L54" s="6">
         <v>16</v>
       </c>
       <c r="M54" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N54" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O54" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P54" s="6">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q54" s="6">
         <v>38</v>
       </c>
       <c r="R54" s="6">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="S54" s="6">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="T54" s="6">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U54" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V54" s="6">
         <v>25</v>
       </c>
       <c r="W54" s="6">
-        <v>20</v>
-      </c>
-      <c r="X54" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X54" s="6"/>
+    </row>
+    <row r="55" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>27</v>
@@ -7629,7 +7680,7 @@
         <v>86</v>
       </c>
       <c r="F55" s="7">
-        <v>133448</v>
+        <v>133450</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>29</v>
@@ -7638,43 +7689,43 @@
         <v>87</v>
       </c>
       <c r="I55" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J55" s="6">
         <v>61</v>
       </c>
       <c r="K55" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L55" s="6">
         <v>16</v>
       </c>
       <c r="M55" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N55" s="6">
         <v>24</v>
       </c>
       <c r="O55" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P55" s="6">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q55" s="6">
         <v>39</v>
       </c>
       <c r="R55" s="6">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="S55" s="6">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T55" s="6">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U55" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V55" s="6">
         <v>25</v>
@@ -7683,18 +7734,18 @@
         <v>20</v>
       </c>
       <c r="X55" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>831</v>
+        <v>386</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>27</v>
@@ -7703,7 +7754,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="7">
-        <v>133440</v>
+        <v>133443</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>29</v>
@@ -7712,43 +7763,43 @@
         <v>87</v>
       </c>
       <c r="I56" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J56" s="6">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K56" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L56" s="6">
         <v>16</v>
       </c>
       <c r="M56" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N56" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O56" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P56" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q56" s="6">
         <v>38</v>
       </c>
       <c r="R56" s="6">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="S56" s="6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T56" s="6">
         <v>68</v>
       </c>
       <c r="U56" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V56" s="6">
         <v>25</v>
@@ -7757,18 +7808,18 @@
         <v>20</v>
       </c>
       <c r="X56" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>27</v>
@@ -7777,49 +7828,49 @@
         <v>86</v>
       </c>
       <c r="F57" s="7">
-        <v>134099</v>
+        <v>133448</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I57" s="6">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J57" s="6">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K57" s="6">
+        <v>17</v>
+      </c>
+      <c r="L57" s="6">
         <v>16</v>
       </c>
-      <c r="L57" s="6">
-        <v>15</v>
-      </c>
       <c r="M57" s="6">
+        <v>26</v>
+      </c>
+      <c r="N57" s="6">
         <v>24</v>
-      </c>
-      <c r="N57" s="6">
-        <v>22</v>
       </c>
       <c r="O57" s="6">
         <v>26</v>
       </c>
       <c r="P57" s="6">
+        <v>65</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>39</v>
+      </c>
+      <c r="R57" s="6">
+        <v>72</v>
+      </c>
+      <c r="S57" s="6">
+        <v>97</v>
+      </c>
+      <c r="T57" s="6">
         <v>64</v>
-      </c>
-      <c r="Q57" s="6">
-        <v>35</v>
-      </c>
-      <c r="R57" s="6">
-        <v>69</v>
-      </c>
-      <c r="S57" s="6">
-        <v>102</v>
-      </c>
-      <c r="T57" s="6">
-        <v>66</v>
       </c>
       <c r="U57" s="6">
         <v>32</v>
@@ -7831,18 +7882,18 @@
         <v>20</v>
       </c>
       <c r="X57" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>880</v>
+        <v>831</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>27</v>
@@ -7851,7 +7902,7 @@
         <v>86</v>
       </c>
       <c r="F58" s="7">
-        <v>133471</v>
+        <v>133440</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>29</v>
@@ -7860,10 +7911,10 @@
         <v>87</v>
       </c>
       <c r="I58" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J58" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K58" s="6">
         <v>18</v>
@@ -7872,25 +7923,25 @@
         <v>16</v>
       </c>
       <c r="M58" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N58" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O58" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P58" s="6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q58" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R58" s="6">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="S58" s="6">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T58" s="6">
         <v>68</v>
@@ -7905,18 +7956,18 @@
         <v>20</v>
       </c>
       <c r="X58" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>27</v>
@@ -7925,7 +7976,7 @@
         <v>86</v>
       </c>
       <c r="F59" s="7">
-        <v>134103</v>
+        <v>134099</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>45</v>
@@ -7934,10 +7985,10 @@
         <v>87</v>
       </c>
       <c r="I59" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J59" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K59" s="6">
         <v>16</v>
@@ -7946,13 +7997,13 @@
         <v>15</v>
       </c>
       <c r="M59" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N59" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O59" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P59" s="6">
         <v>64</v>
@@ -7961,36 +8012,36 @@
         <v>35</v>
       </c>
       <c r="R59" s="6">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="S59" s="6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T59" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U59" s="6">
         <v>32</v>
       </c>
       <c r="V59" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W59" s="6">
         <v>20</v>
       </c>
       <c r="X59" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>847</v>
+        <v>880</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>27</v>
@@ -7999,72 +8050,72 @@
         <v>86</v>
       </c>
       <c r="F60" s="7">
-        <v>134100</v>
+        <v>133471</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I60" s="6">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J60" s="6">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K60" s="6">
+        <v>18</v>
+      </c>
+      <c r="L60" s="6">
         <v>16</v>
       </c>
-      <c r="L60" s="6">
-        <v>15</v>
-      </c>
       <c r="M60" s="6">
+        <v>27</v>
+      </c>
+      <c r="N60" s="6">
         <v>24</v>
       </c>
-      <c r="N60" s="6">
-        <v>22</v>
-      </c>
       <c r="O60" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P60" s="6">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q60" s="6">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="R60" s="6">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="S60" s="6">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="T60" s="6">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U60" s="6">
         <v>32</v>
       </c>
       <c r="V60" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W60" s="6">
         <v>20</v>
       </c>
       <c r="X60" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>27</v>
@@ -8073,72 +8124,72 @@
         <v>86</v>
       </c>
       <c r="F61" s="7">
-        <v>133470</v>
+        <v>134103</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I61" s="6">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J61" s="6">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K61" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L61" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M61" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N61" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O61" s="6">
         <v>27</v>
       </c>
       <c r="P61" s="6">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q61" s="6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R61" s="6">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="S61" s="6">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T61" s="6">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U61" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V61" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W61" s="6">
         <v>20</v>
       </c>
       <c r="X61" s="6">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>883</v>
+        <v>847</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>27</v>
@@ -8147,7 +8198,7 @@
         <v>86</v>
       </c>
       <c r="F62" s="7">
-        <v>134097</v>
+        <v>134100</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>45</v>
@@ -8156,43 +8207,43 @@
         <v>87</v>
       </c>
       <c r="I62" s="6">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J62" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K62" s="6">
         <v>16</v>
       </c>
       <c r="L62" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M62" s="6">
+        <v>24</v>
+      </c>
+      <c r="N62" s="6">
+        <v>22</v>
+      </c>
+      <c r="O62" s="6">
         <v>26</v>
       </c>
-      <c r="N62" s="6">
-        <v>23</v>
-      </c>
-      <c r="O62" s="6">
-        <v>27</v>
-      </c>
       <c r="P62" s="6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q62" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R62" s="6">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="S62" s="6">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T62" s="6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U62" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V62" s="6">
         <v>24</v>
@@ -8201,18 +8252,18 @@
         <v>20</v>
       </c>
       <c r="X62" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>27</v>
@@ -8221,28 +8272,28 @@
         <v>86</v>
       </c>
       <c r="F63" s="7">
-        <v>134102</v>
+        <v>133470</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I63" s="6">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J63" s="6">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K63" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L63" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M63" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N63" s="6">
         <v>24</v>
@@ -8251,19 +8302,19 @@
         <v>27</v>
       </c>
       <c r="P63" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q63" s="6">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R63" s="6">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S63" s="6">
         <v>106</v>
       </c>
       <c r="T63" s="6">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U63" s="6">
         <v>33</v>
@@ -8272,19 +8323,21 @@
         <v>25</v>
       </c>
       <c r="W63" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X63" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="B64" s="8"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="C64" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>27</v>
@@ -8292,69 +8345,76 @@
       <c r="E64" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="7">
+        <v>134097</v>
+      </c>
       <c r="G64" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I64" s="6">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J64" s="6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K64" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L64" s="6">
         <v>16</v>
       </c>
       <c r="M64" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N64" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O64" s="6">
         <v>27</v>
       </c>
       <c r="P64" s="6">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q64" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R64" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S64" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T64" s="6">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U64" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V64" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W64" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X64" s="6">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>887</v>
-      </c>
-      <c r="B65" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="Z64" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="C65" s="8" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>27</v>
@@ -8362,21 +8422,23 @@
       <c r="E65" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="7"/>
+      <c r="F65" s="7">
+        <v>134102</v>
+      </c>
       <c r="G65" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I65" s="6">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J65" s="6">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K65" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L65" s="6">
         <v>16</v>
@@ -8385,25 +8447,25 @@
         <v>26</v>
       </c>
       <c r="N65" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O65" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P65" s="6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q65" s="6">
         <v>36</v>
       </c>
       <c r="R65" s="6">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="S65" s="6">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T65" s="6">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="U65" s="6">
         <v>33</v>
@@ -8415,192 +8477,545 @@
         <v>21</v>
       </c>
       <c r="X65" s="6">
+        <v>98</v>
+      </c>
+      <c r="Z65" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I66" s="6">
+        <v>45</v>
+      </c>
+      <c r="J66" s="6">
+        <v>56</v>
+      </c>
+      <c r="K66" s="6">
+        <v>17</v>
+      </c>
+      <c r="L66" s="6">
+        <v>16</v>
+      </c>
+      <c r="M66" s="6">
+        <v>27</v>
+      </c>
+      <c r="N66" s="6">
+        <v>24</v>
+      </c>
+      <c r="O66" s="6">
+        <v>27</v>
+      </c>
+      <c r="P66" s="6">
+        <v>70</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>36</v>
+      </c>
+      <c r="R66" s="6">
+        <v>75</v>
+      </c>
+      <c r="S66" s="6">
+        <v>103</v>
+      </c>
+      <c r="T66" s="6">
+        <v>69</v>
+      </c>
+      <c r="U66" s="6">
+        <v>32</v>
+      </c>
+      <c r="V66" s="6">
+        <v>25</v>
+      </c>
+      <c r="W66" s="6">
+        <v>21</v>
+      </c>
+      <c r="X66" s="6">
+        <v>102</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" s="6">
+        <v>46</v>
+      </c>
+      <c r="J67" s="6">
+        <v>59</v>
+      </c>
+      <c r="K67" s="6">
+        <v>17</v>
+      </c>
+      <c r="L67" s="6">
+        <v>16</v>
+      </c>
+      <c r="M67" s="6">
+        <v>26</v>
+      </c>
+      <c r="N67" s="6">
+        <v>23</v>
+      </c>
+      <c r="O67" s="6">
+        <v>26</v>
+      </c>
+      <c r="P67" s="6">
+        <v>69</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>36</v>
+      </c>
+      <c r="R67" s="6">
+        <v>71</v>
+      </c>
+      <c r="S67" s="6">
+        <v>101</v>
+      </c>
+      <c r="T67" s="6">
+        <v>68</v>
+      </c>
+      <c r="U67" s="6">
+        <v>33</v>
+      </c>
+      <c r="V67" s="6">
+        <v>25</v>
+      </c>
+      <c r="W67" s="6">
+        <v>21</v>
+      </c>
+      <c r="X67" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-    </row>
-    <row r="67" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-    </row>
-    <row r="68" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
+      <c r="Y67" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z67" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>895</v>
+      </c>
       <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="C68" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-    </row>
-    <row r="69" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68" s="6">
+        <v>46</v>
+      </c>
+      <c r="J68" s="6">
+        <v>58</v>
+      </c>
+      <c r="K68" s="6">
+        <v>19</v>
+      </c>
+      <c r="L68" s="6">
+        <v>17</v>
+      </c>
+      <c r="M68" s="6">
+        <v>28</v>
+      </c>
+      <c r="N68" s="6">
+        <v>25</v>
+      </c>
+      <c r="O68" s="6">
+        <v>28</v>
+      </c>
+      <c r="P68" s="6">
+        <v>68</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>38</v>
+      </c>
+      <c r="R68" s="6">
+        <v>79</v>
+      </c>
+      <c r="S68" s="6">
+        <v>96</v>
+      </c>
+      <c r="T68" s="6">
+        <v>68</v>
+      </c>
+      <c r="U68" s="6">
+        <v>31</v>
+      </c>
+      <c r="V68" s="6">
+        <v>25</v>
+      </c>
+      <c r="W68" s="6">
+        <v>20</v>
+      </c>
+      <c r="X68" s="6">
+        <v>98</v>
+      </c>
+      <c r="Y68" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z68" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>896</v>
+      </c>
       <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="C69" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-    </row>
-    <row r="70" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
+      <c r="G69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I69" s="6">
+        <v>47</v>
+      </c>
+      <c r="J69" s="6">
+        <v>63</v>
+      </c>
+      <c r="K69" s="6">
+        <v>19</v>
+      </c>
+      <c r="L69" s="6">
+        <v>17</v>
+      </c>
+      <c r="M69" s="6">
+        <v>28</v>
+      </c>
+      <c r="N69" s="6">
+        <v>25</v>
+      </c>
+      <c r="O69" s="6">
+        <v>27</v>
+      </c>
+      <c r="P69" s="6">
+        <v>67</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>38</v>
+      </c>
+      <c r="R69" s="6">
+        <v>73</v>
+      </c>
+      <c r="S69" s="6">
+        <v>99</v>
+      </c>
+      <c r="T69" s="6">
+        <v>67</v>
+      </c>
+      <c r="U69" s="6">
+        <v>30</v>
+      </c>
+      <c r="V69" s="6">
+        <v>25</v>
+      </c>
+      <c r="W69" s="6">
+        <v>20</v>
+      </c>
+      <c r="X69" s="6">
+        <v>101</v>
+      </c>
+      <c r="Y69" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z69" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>897</v>
+      </c>
       <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+      <c r="C70" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-    </row>
-    <row r="71" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
+      <c r="G70" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" s="6">
+        <v>49</v>
+      </c>
+      <c r="J70" s="6">
+        <v>63</v>
+      </c>
+      <c r="K70" s="6">
+        <v>19</v>
+      </c>
+      <c r="L70" s="6">
+        <v>17</v>
+      </c>
+      <c r="M70" s="6">
+        <v>29</v>
+      </c>
+      <c r="N70" s="6">
+        <v>25</v>
+      </c>
+      <c r="O70" s="6">
+        <v>28</v>
+      </c>
+      <c r="P70" s="6">
+        <v>67</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>38</v>
+      </c>
+      <c r="R70" s="6">
+        <v>82</v>
+      </c>
+      <c r="S70" s="6">
+        <v>100</v>
+      </c>
+      <c r="T70" s="6">
+        <v>69</v>
+      </c>
+      <c r="U70" s="6">
+        <v>32</v>
+      </c>
+      <c r="V70" s="6">
+        <v>25</v>
+      </c>
+      <c r="W70" s="6">
+        <v>21</v>
+      </c>
+      <c r="X70" s="6">
+        <v>104</v>
+      </c>
+      <c r="Y70" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z70" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>898</v>
+      </c>
       <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
+      <c r="C71" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-    </row>
-    <row r="72" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
+      <c r="G71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I71" s="6">
+        <v>48</v>
+      </c>
+      <c r="J71" s="6">
+        <v>67</v>
+      </c>
+      <c r="K71" s="6">
+        <v>19</v>
+      </c>
+      <c r="L71" s="6">
+        <v>17</v>
+      </c>
+      <c r="M71" s="6">
+        <v>28</v>
+      </c>
+      <c r="N71" s="6">
+        <v>25</v>
+      </c>
+      <c r="O71" s="6">
+        <v>28</v>
+      </c>
+      <c r="P71" s="6">
+        <v>73</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>40</v>
+      </c>
+      <c r="R71" s="6">
+        <v>76</v>
+      </c>
+      <c r="S71" s="6">
+        <v>100</v>
+      </c>
+      <c r="T71" s="6">
+        <v>68</v>
+      </c>
+      <c r="U71" s="6">
+        <v>31</v>
+      </c>
+      <c r="V71" s="6">
+        <v>25</v>
+      </c>
+      <c r="W71" s="6">
+        <v>20</v>
+      </c>
+      <c r="X71" s="6">
+        <v>102</v>
+      </c>
+      <c r="Y71" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z71" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>899</v>
+      </c>
       <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="C72" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-    </row>
-    <row r="73" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G72" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I72" s="6">
+        <v>46</v>
+      </c>
+      <c r="J72" s="6">
+        <v>59</v>
+      </c>
+      <c r="K72" s="6">
+        <v>19</v>
+      </c>
+      <c r="L72" s="6">
+        <v>17</v>
+      </c>
+      <c r="M72" s="6">
+        <v>27</v>
+      </c>
+      <c r="N72" s="6">
+        <v>24</v>
+      </c>
+      <c r="O72" s="6">
+        <v>27</v>
+      </c>
+      <c r="P72" s="6">
+        <v>68</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>37</v>
+      </c>
+      <c r="R72" s="6">
+        <v>78</v>
+      </c>
+      <c r="S72" s="6">
+        <v>100</v>
+      </c>
+      <c r="T72" s="6">
+        <v>68</v>
+      </c>
+      <c r="U72" s="6">
+        <v>33</v>
+      </c>
+      <c r="V72" s="6">
+        <v>24</v>
+      </c>
+      <c r="W72" s="6">
+        <v>20</v>
+      </c>
+      <c r="X72" s="6">
+        <v>102</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -8626,7 +9041,7 @@
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
     </row>
-    <row r="74" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -8652,7 +9067,7 @@
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
     </row>
-    <row r="75" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -8678,7 +9093,7 @@
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
     </row>
-    <row r="76" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -8704,7 +9119,7 @@
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
     </row>
-    <row r="77" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -8730,7 +9145,7 @@
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
     </row>
-    <row r="78" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -8756,7 +9171,7 @@
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
     </row>
-    <row r="79" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -8782,15 +9197,15 @@
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
     </row>
-    <row r="80" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
-      <c r="B80" s="9"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="8"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -8836,13 +9251,13 @@
     </row>
     <row r="82" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="8"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
@@ -9043,14 +9458,14 @@
       <c r="X89" s="6"/>
     </row>
     <row r="90" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="10"/>
-      <c r="B90" s="11"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="11"/>
+      <c r="H90" s="8"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
@@ -9096,13 +9511,13 @@
     </row>
     <row r="92" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="8"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="8"/>
+      <c r="H92" s="10"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
@@ -11049,13 +11464,13 @@
     </row>
     <row r="167" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
-      <c r="B167" s="9"/>
+      <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
-      <c r="H167" s="9"/>
+      <c r="H167" s="8"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
@@ -11075,13 +11490,13 @@
     </row>
     <row r="168" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
-      <c r="B168" s="9"/>
+      <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
-      <c r="H168" s="9"/>
+      <c r="H168" s="8"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
@@ -11342,22 +11757,22 @@
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="9"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="12"/>
-      <c r="K178" s="12"/>
-      <c r="L178" s="12"/>
-      <c r="M178" s="12"/>
-      <c r="N178" s="12"/>
-      <c r="O178" s="12"/>
-      <c r="P178" s="12"/>
-      <c r="Q178" s="12"/>
-      <c r="R178" s="12"/>
-      <c r="S178" s="12"/>
-      <c r="T178" s="12"/>
-      <c r="U178" s="12"/>
-      <c r="V178" s="12"/>
-      <c r="W178" s="12"/>
-      <c r="X178" s="12"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="6"/>
+      <c r="T178" s="6"/>
+      <c r="U178" s="6"/>
+      <c r="V178" s="6"/>
+      <c r="W178" s="6"/>
+      <c r="X178" s="6"/>
       <c r="Y178" s="3">
         <v>1</v>
       </c>
@@ -11397,22 +11812,22 @@
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="9"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
-      <c r="K180" s="6"/>
-      <c r="L180" s="6"/>
-      <c r="M180" s="6"/>
-      <c r="N180" s="6"/>
-      <c r="O180" s="6"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-      <c r="R180" s="6"/>
-      <c r="S180" s="6"/>
-      <c r="T180" s="6"/>
-      <c r="U180" s="6"/>
-      <c r="V180" s="6"/>
-      <c r="W180" s="6"/>
-      <c r="X180" s="6"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="11"/>
+      <c r="O180" s="11"/>
+      <c r="P180" s="11"/>
+      <c r="Q180" s="11"/>
+      <c r="R180" s="11"/>
+      <c r="S180" s="11"/>
+      <c r="T180" s="11"/>
+      <c r="U180" s="11"/>
+      <c r="V180" s="11"/>
+      <c r="W180" s="11"/>
+      <c r="X180" s="11"/>
     </row>
     <row r="181" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
@@ -12324,343 +12739,343 @@
       <c r="W215" s="6"/>
       <c r="X215" s="6"/>
     </row>
-    <row r="216" spans="1:24" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="13"/>
-      <c r="B216" s="14"/>
+    <row r="216" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="7"/>
+      <c r="B216" s="9"/>
       <c r="C216" s="8"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
-      <c r="F216" s="13"/>
-      <c r="G216" s="13"/>
-      <c r="H216" s="14"/>
-      <c r="I216" s="12"/>
-      <c r="J216" s="12"/>
-      <c r="K216" s="12"/>
-      <c r="L216" s="12"/>
-      <c r="M216" s="12"/>
-      <c r="N216" s="12"/>
-      <c r="O216" s="12"/>
-      <c r="P216" s="12"/>
-      <c r="Q216" s="12"/>
-      <c r="R216" s="12"/>
-      <c r="S216" s="12"/>
-      <c r="T216" s="12"/>
-      <c r="U216" s="12"/>
-      <c r="V216" s="12"/>
-      <c r="W216" s="12"/>
-      <c r="X216" s="12"/>
-    </row>
-    <row r="217" spans="1:24" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="13"/>
-      <c r="B217" s="14"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
+      <c r="H216" s="9"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+      <c r="R216" s="6"/>
+      <c r="S216" s="6"/>
+      <c r="T216" s="6"/>
+      <c r="U216" s="6"/>
+      <c r="V216" s="6"/>
+      <c r="W216" s="6"/>
+      <c r="X216" s="6"/>
+    </row>
+    <row r="217" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="7"/>
+      <c r="B217" s="9"/>
       <c r="C217" s="8"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
-      <c r="F217" s="13"/>
-      <c r="G217" s="13"/>
-      <c r="H217" s="14"/>
-      <c r="I217" s="12"/>
-      <c r="J217" s="12"/>
-      <c r="K217" s="12"/>
-      <c r="L217" s="12"/>
-      <c r="M217" s="12"/>
-      <c r="N217" s="12"/>
-      <c r="O217" s="12"/>
-      <c r="P217" s="12"/>
-      <c r="Q217" s="12"/>
-      <c r="R217" s="12"/>
-      <c r="S217" s="12"/>
-      <c r="T217" s="12"/>
-      <c r="U217" s="12"/>
-      <c r="V217" s="12"/>
-      <c r="W217" s="12"/>
-      <c r="X217" s="12"/>
-    </row>
-    <row r="218" spans="1:24" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="13"/>
-      <c r="B218" s="14"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="9"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="6"/>
+      <c r="U217" s="6"/>
+      <c r="V217" s="6"/>
+      <c r="W217" s="6"/>
+      <c r="X217" s="6"/>
+    </row>
+    <row r="218" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="7"/>
+      <c r="B218" s="13"/>
       <c r="C218" s="8"/>
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
-      <c r="F218" s="13"/>
-      <c r="G218" s="13"/>
-      <c r="H218" s="14"/>
-      <c r="I218" s="12"/>
-      <c r="J218" s="12"/>
-      <c r="K218" s="12"/>
-      <c r="L218" s="12"/>
-      <c r="M218" s="12"/>
-      <c r="N218" s="12"/>
-      <c r="O218" s="12"/>
-      <c r="P218" s="12"/>
-      <c r="Q218" s="12"/>
-      <c r="R218" s="12"/>
-      <c r="S218" s="12"/>
-      <c r="T218" s="12"/>
-      <c r="U218" s="12"/>
-      <c r="V218" s="12"/>
-      <c r="W218" s="12"/>
-      <c r="X218" s="12"/>
-    </row>
-    <row r="219" spans="1:24" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="13"/>
-      <c r="B219" s="14"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="11"/>
+      <c r="L218" s="11"/>
+      <c r="M218" s="11"/>
+      <c r="N218" s="11"/>
+      <c r="O218" s="11"/>
+      <c r="P218" s="11"/>
+      <c r="Q218" s="11"/>
+      <c r="R218" s="11"/>
+      <c r="S218" s="11"/>
+      <c r="T218" s="11"/>
+      <c r="U218" s="11"/>
+      <c r="V218" s="11"/>
+      <c r="W218" s="11"/>
+      <c r="X218" s="11"/>
+    </row>
+    <row r="219" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="7"/>
+      <c r="B219" s="13"/>
       <c r="C219" s="8"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
-      <c r="F219" s="13"/>
-      <c r="G219" s="13"/>
-      <c r="H219" s="14"/>
-      <c r="I219" s="12"/>
-      <c r="J219" s="12"/>
-      <c r="K219" s="12"/>
-      <c r="L219" s="12"/>
-      <c r="M219" s="12"/>
-      <c r="N219" s="12"/>
-      <c r="O219" s="12"/>
-      <c r="P219" s="12"/>
-      <c r="Q219" s="12"/>
-      <c r="R219" s="12"/>
-      <c r="S219" s="12"/>
-      <c r="T219" s="12"/>
-      <c r="U219" s="12"/>
-      <c r="V219" s="12"/>
-      <c r="W219" s="12"/>
-      <c r="X219" s="12"/>
-    </row>
-    <row r="220" spans="1:24" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="13"/>
-      <c r="B220" s="14"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="13"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="11"/>
+      <c r="L219" s="11"/>
+      <c r="M219" s="11"/>
+      <c r="N219" s="11"/>
+      <c r="O219" s="11"/>
+      <c r="P219" s="11"/>
+      <c r="Q219" s="11"/>
+      <c r="R219" s="11"/>
+      <c r="S219" s="11"/>
+      <c r="T219" s="11"/>
+      <c r="U219" s="11"/>
+      <c r="V219" s="11"/>
+      <c r="W219" s="11"/>
+      <c r="X219" s="11"/>
+    </row>
+    <row r="220" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="7"/>
+      <c r="B220" s="13"/>
       <c r="C220" s="8"/>
-      <c r="D220" s="13"/>
-      <c r="E220" s="13"/>
-      <c r="F220" s="13"/>
-      <c r="G220" s="13"/>
-      <c r="H220" s="14"/>
-      <c r="I220" s="12"/>
-      <c r="J220" s="12"/>
-      <c r="K220" s="12"/>
-      <c r="L220" s="12"/>
-      <c r="M220" s="12"/>
-      <c r="N220" s="12"/>
-      <c r="O220" s="12"/>
-      <c r="P220" s="12"/>
-      <c r="Q220" s="12"/>
-      <c r="R220" s="12"/>
-      <c r="S220" s="12"/>
-      <c r="T220" s="12"/>
-      <c r="U220" s="12"/>
-      <c r="V220" s="12"/>
-      <c r="W220" s="12"/>
-      <c r="X220" s="12"/>
-    </row>
-    <row r="221" spans="1:24" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="13"/>
-      <c r="B221" s="14"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="13"/>
+      <c r="I220" s="11"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
+      <c r="M220" s="11"/>
+      <c r="N220" s="11"/>
+      <c r="O220" s="11"/>
+      <c r="P220" s="11"/>
+      <c r="Q220" s="11"/>
+      <c r="R220" s="11"/>
+      <c r="S220" s="11"/>
+      <c r="T220" s="11"/>
+      <c r="U220" s="11"/>
+      <c r="V220" s="11"/>
+      <c r="W220" s="11"/>
+      <c r="X220" s="11"/>
+    </row>
+    <row r="221" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="7"/>
+      <c r="B221" s="13"/>
       <c r="C221" s="8"/>
-      <c r="D221" s="13"/>
-      <c r="E221" s="13"/>
-      <c r="F221" s="13"/>
-      <c r="G221" s="13"/>
-      <c r="H221" s="14"/>
-      <c r="I221" s="12"/>
-      <c r="J221" s="12"/>
-      <c r="K221" s="12"/>
-      <c r="L221" s="12"/>
-      <c r="M221" s="12"/>
-      <c r="N221" s="12"/>
-      <c r="O221" s="12"/>
-      <c r="P221" s="12"/>
-      <c r="Q221" s="12"/>
-      <c r="R221" s="12"/>
-      <c r="S221" s="12"/>
-      <c r="T221" s="12"/>
-      <c r="U221" s="12"/>
-      <c r="V221" s="12"/>
-      <c r="W221" s="12"/>
-      <c r="X221" s="12"/>
-    </row>
-    <row r="222" spans="1:24" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="13"/>
-      <c r="B222" s="14"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="13"/>
+      <c r="I221" s="11"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="11"/>
+      <c r="L221" s="11"/>
+      <c r="M221" s="11"/>
+      <c r="N221" s="11"/>
+      <c r="O221" s="11"/>
+      <c r="P221" s="11"/>
+      <c r="Q221" s="11"/>
+      <c r="R221" s="11"/>
+      <c r="S221" s="11"/>
+      <c r="T221" s="11"/>
+      <c r="U221" s="11"/>
+      <c r="V221" s="11"/>
+      <c r="W221" s="11"/>
+      <c r="X221" s="11"/>
+    </row>
+    <row r="222" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="7"/>
+      <c r="B222" s="13"/>
       <c r="C222" s="8"/>
-      <c r="D222" s="13"/>
-      <c r="E222" s="13"/>
-      <c r="F222" s="13"/>
-      <c r="G222" s="13"/>
-      <c r="H222" s="14"/>
-      <c r="I222" s="12"/>
-      <c r="J222" s="12"/>
-      <c r="K222" s="12"/>
-      <c r="L222" s="12"/>
-      <c r="M222" s="12"/>
-      <c r="N222" s="12"/>
-      <c r="O222" s="12"/>
-      <c r="P222" s="12"/>
-      <c r="Q222" s="12"/>
-      <c r="R222" s="12"/>
-      <c r="S222" s="12"/>
-      <c r="T222" s="12"/>
-      <c r="U222" s="12"/>
-      <c r="V222" s="12"/>
-      <c r="W222" s="12"/>
-      <c r="X222" s="12"/>
-    </row>
-    <row r="223" spans="1:24" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="13"/>
-      <c r="B223" s="14"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="11"/>
+      <c r="L222" s="11"/>
+      <c r="M222" s="11"/>
+      <c r="N222" s="11"/>
+      <c r="O222" s="11"/>
+      <c r="P222" s="11"/>
+      <c r="Q222" s="11"/>
+      <c r="R222" s="11"/>
+      <c r="S222" s="11"/>
+      <c r="T222" s="11"/>
+      <c r="U222" s="11"/>
+      <c r="V222" s="11"/>
+      <c r="W222" s="11"/>
+      <c r="X222" s="11"/>
+    </row>
+    <row r="223" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="7"/>
+      <c r="B223" s="13"/>
       <c r="C223" s="8"/>
-      <c r="D223" s="13"/>
-      <c r="E223" s="13"/>
-      <c r="F223" s="13"/>
-      <c r="G223" s="13"/>
-      <c r="H223" s="14"/>
-      <c r="I223" s="12"/>
-      <c r="J223" s="12"/>
-      <c r="K223" s="12"/>
-      <c r="L223" s="12"/>
-      <c r="M223" s="12"/>
-      <c r="N223" s="12"/>
-      <c r="O223" s="12"/>
-      <c r="P223" s="12"/>
-      <c r="Q223" s="12"/>
-      <c r="R223" s="12"/>
-      <c r="S223" s="12"/>
-      <c r="T223" s="12"/>
-      <c r="U223" s="12"/>
-      <c r="V223" s="12"/>
-      <c r="W223" s="12"/>
-      <c r="X223" s="12"/>
-    </row>
-    <row r="224" spans="1:24" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="13"/>
-      <c r="B224" s="14"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="13"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="11"/>
+      <c r="L223" s="11"/>
+      <c r="M223" s="11"/>
+      <c r="N223" s="11"/>
+      <c r="O223" s="11"/>
+      <c r="P223" s="11"/>
+      <c r="Q223" s="11"/>
+      <c r="R223" s="11"/>
+      <c r="S223" s="11"/>
+      <c r="T223" s="11"/>
+      <c r="U223" s="11"/>
+      <c r="V223" s="11"/>
+      <c r="W223" s="11"/>
+      <c r="X223" s="11"/>
+    </row>
+    <row r="224" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="7"/>
+      <c r="B224" s="13"/>
       <c r="C224" s="8"/>
-      <c r="D224" s="13"/>
-      <c r="E224" s="13"/>
-      <c r="F224" s="13"/>
-      <c r="G224" s="13"/>
-      <c r="H224" s="14"/>
-      <c r="I224" s="12"/>
-      <c r="J224" s="12"/>
-      <c r="K224" s="12"/>
-      <c r="L224" s="12"/>
-      <c r="M224" s="12"/>
-      <c r="N224" s="12"/>
-      <c r="O224" s="12"/>
-      <c r="P224" s="12"/>
-      <c r="Q224" s="12"/>
-      <c r="R224" s="12"/>
-      <c r="S224" s="12"/>
-      <c r="T224" s="12"/>
-      <c r="U224" s="12"/>
-      <c r="V224" s="12"/>
-      <c r="W224" s="12"/>
-      <c r="X224" s="12"/>
-    </row>
-    <row r="225" spans="1:24" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="13"/>
-      <c r="B225" s="14"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="13"/>
+      <c r="I224" s="11"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="11"/>
+      <c r="L224" s="11"/>
+      <c r="M224" s="11"/>
+      <c r="N224" s="11"/>
+      <c r="O224" s="11"/>
+      <c r="P224" s="11"/>
+      <c r="Q224" s="11"/>
+      <c r="R224" s="11"/>
+      <c r="S224" s="11"/>
+      <c r="T224" s="11"/>
+      <c r="U224" s="11"/>
+      <c r="V224" s="11"/>
+      <c r="W224" s="11"/>
+      <c r="X224" s="11"/>
+    </row>
+    <row r="225" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="7"/>
+      <c r="B225" s="13"/>
       <c r="C225" s="8"/>
-      <c r="D225" s="13"/>
-      <c r="E225" s="13"/>
-      <c r="F225" s="13"/>
-      <c r="G225" s="13"/>
-      <c r="H225" s="14"/>
-      <c r="I225" s="12"/>
-      <c r="J225" s="12"/>
-      <c r="K225" s="12"/>
-      <c r="L225" s="12"/>
-      <c r="M225" s="12"/>
-      <c r="N225" s="12"/>
-      <c r="O225" s="12"/>
-      <c r="P225" s="12"/>
-      <c r="Q225" s="12"/>
-      <c r="R225" s="12"/>
-      <c r="S225" s="12"/>
-      <c r="T225" s="12"/>
-      <c r="U225" s="12"/>
-      <c r="V225" s="12"/>
-      <c r="W225" s="12"/>
-      <c r="X225" s="12"/>
-    </row>
-    <row r="226" spans="1:24" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="13"/>
-      <c r="B226" s="14"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="13"/>
+      <c r="I225" s="11"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="11"/>
+      <c r="L225" s="11"/>
+      <c r="M225" s="11"/>
+      <c r="N225" s="11"/>
+      <c r="O225" s="11"/>
+      <c r="P225" s="11"/>
+      <c r="Q225" s="11"/>
+      <c r="R225" s="11"/>
+      <c r="S225" s="11"/>
+      <c r="T225" s="11"/>
+      <c r="U225" s="11"/>
+      <c r="V225" s="11"/>
+      <c r="W225" s="11"/>
+      <c r="X225" s="11"/>
+    </row>
+    <row r="226" spans="1:24" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="7"/>
+      <c r="B226" s="13"/>
       <c r="C226" s="8"/>
-      <c r="D226" s="13"/>
-      <c r="E226" s="13"/>
-      <c r="F226" s="13"/>
-      <c r="G226" s="13"/>
-      <c r="H226" s="14"/>
-      <c r="I226" s="12"/>
-      <c r="J226" s="12"/>
-      <c r="K226" s="12"/>
-      <c r="L226" s="12"/>
-      <c r="M226" s="12"/>
-      <c r="N226" s="12"/>
-      <c r="O226" s="12"/>
-      <c r="P226" s="12"/>
-      <c r="Q226" s="12"/>
-      <c r="R226" s="12"/>
-      <c r="S226" s="12"/>
-      <c r="T226" s="12"/>
-      <c r="U226" s="12"/>
-      <c r="V226" s="12"/>
-      <c r="W226" s="12"/>
-      <c r="X226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="13"/>
+      <c r="I226" s="11"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="11"/>
+      <c r="M226" s="11"/>
+      <c r="N226" s="11"/>
+      <c r="O226" s="11"/>
+      <c r="P226" s="11"/>
+      <c r="Q226" s="11"/>
+      <c r="R226" s="11"/>
+      <c r="S226" s="11"/>
+      <c r="T226" s="11"/>
+      <c r="U226" s="11"/>
+      <c r="V226" s="11"/>
+      <c r="W226" s="11"/>
+      <c r="X226" s="11"/>
     </row>
     <row r="227" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7"/>
-      <c r="B227" s="9"/>
+      <c r="B227" s="13"/>
       <c r="C227" s="8"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
-      <c r="F227" s="13"/>
-      <c r="G227" s="7"/>
-      <c r="H227" s="9"/>
-      <c r="I227" s="6"/>
-      <c r="J227" s="6"/>
-      <c r="K227" s="6"/>
-      <c r="L227" s="6"/>
-      <c r="M227" s="6"/>
-      <c r="N227" s="6"/>
-      <c r="O227" s="6"/>
-      <c r="P227" s="6"/>
-      <c r="Q227" s="6"/>
-      <c r="R227" s="6"/>
-      <c r="S227" s="6"/>
-      <c r="T227" s="6"/>
-      <c r="U227" s="6"/>
-      <c r="V227" s="6"/>
-      <c r="W227" s="6"/>
-      <c r="X227" s="6"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="13"/>
+      <c r="I227" s="11"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="11"/>
+      <c r="M227" s="11"/>
+      <c r="N227" s="11"/>
+      <c r="O227" s="11"/>
+      <c r="P227" s="11"/>
+      <c r="Q227" s="11"/>
+      <c r="R227" s="11"/>
+      <c r="S227" s="11"/>
+      <c r="T227" s="11"/>
+      <c r="U227" s="11"/>
+      <c r="V227" s="11"/>
+      <c r="W227" s="11"/>
+      <c r="X227" s="11"/>
     </row>
     <row r="228" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7"/>
-      <c r="B228" s="9"/>
+      <c r="B228" s="13"/>
       <c r="C228" s="8"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="13"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="9"/>
-      <c r="I228" s="6"/>
-      <c r="J228" s="6"/>
-      <c r="K228" s="6"/>
-      <c r="L228" s="6"/>
-      <c r="M228" s="6"/>
-      <c r="N228" s="6"/>
-      <c r="O228" s="6"/>
-      <c r="P228" s="6"/>
-      <c r="Q228" s="6"/>
-      <c r="R228" s="6"/>
-      <c r="S228" s="6"/>
-      <c r="T228" s="6"/>
-      <c r="U228" s="6"/>
-      <c r="V228" s="6"/>
-      <c r="W228" s="6"/>
-      <c r="X228" s="6"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="13"/>
+      <c r="I228" s="11"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="11"/>
+      <c r="M228" s="11"/>
+      <c r="N228" s="11"/>
+      <c r="O228" s="11"/>
+      <c r="P228" s="11"/>
+      <c r="Q228" s="11"/>
+      <c r="R228" s="11"/>
+      <c r="S228" s="11"/>
+      <c r="T228" s="11"/>
+      <c r="U228" s="11"/>
+      <c r="V228" s="11"/>
+      <c r="W228" s="11"/>
+      <c r="X228" s="11"/>
     </row>
     <row r="229" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7"/>
@@ -12668,7 +13083,7 @@
       <c r="C229" s="8"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
-      <c r="F229" s="13"/>
+      <c r="F229" s="12"/>
       <c r="G229" s="7"/>
       <c r="H229" s="9"/>
       <c r="I229" s="6"/>
@@ -12694,7 +13109,7 @@
       <c r="C230" s="8"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
-      <c r="F230" s="13"/>
+      <c r="F230" s="12"/>
       <c r="G230" s="7"/>
       <c r="H230" s="9"/>
       <c r="I230" s="6"/>
@@ -12720,7 +13135,7 @@
       <c r="C231" s="8"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
-      <c r="F231" s="13"/>
+      <c r="F231" s="12"/>
       <c r="G231" s="7"/>
       <c r="H231" s="9"/>
       <c r="I231" s="6"/>
@@ -12746,7 +13161,7 @@
       <c r="C232" s="8"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
-      <c r="F232" s="13"/>
+      <c r="F232" s="12"/>
       <c r="G232" s="7"/>
       <c r="H232" s="9"/>
       <c r="I232" s="6"/>
@@ -12772,7 +13187,7 @@
       <c r="C233" s="8"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
-      <c r="F233" s="13"/>
+      <c r="F233" s="12"/>
       <c r="G233" s="7"/>
       <c r="H233" s="9"/>
       <c r="I233" s="6"/>
@@ -12798,7 +13213,7 @@
       <c r="C234" s="8"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
-      <c r="F234" s="13"/>
+      <c r="F234" s="12"/>
       <c r="G234" s="7"/>
       <c r="H234" s="9"/>
       <c r="I234" s="6"/>
@@ -12824,7 +13239,7 @@
       <c r="C235" s="8"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
-      <c r="F235" s="7"/>
+      <c r="F235" s="12"/>
       <c r="G235" s="7"/>
       <c r="H235" s="9"/>
       <c r="I235" s="6"/>
@@ -12850,7 +13265,7 @@
       <c r="C236" s="8"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
+      <c r="F236" s="12"/>
       <c r="G236" s="7"/>
       <c r="H236" s="9"/>
       <c r="I236" s="6"/>
@@ -12985,6 +13400,7 @@
       <c r="H241" s="9"/>
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
       <c r="N241" s="6"/>
@@ -13075,7 +13491,7 @@
       <c r="V244" s="6"/>
       <c r="W244" s="6"/>
       <c r="X244" s="6"/>
-      <c r="Y244" s="16"/>
+      <c r="Y244" s="15"/>
     </row>
     <row r="245" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
@@ -13088,7 +13504,6 @@
       <c r="H245" s="9"/>
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
-      <c r="K245" s="6"/>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
       <c r="N245" s="6"/>
@@ -13218,6 +13633,7 @@
       <c r="H250" s="9"/>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
       <c r="N250" s="6"/>
@@ -13244,6 +13660,7 @@
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
       <c r="M251" s="6"/>
       <c r="N251" s="6"/>
       <c r="O251" s="6"/>
@@ -13268,7 +13685,6 @@
       <c r="H252" s="9"/>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
-      <c r="K252" s="6"/>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
       <c r="N252" s="6"/>
@@ -13295,7 +13711,6 @@
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
-      <c r="L253" s="6"/>
       <c r="M253" s="6"/>
       <c r="N253" s="6"/>
       <c r="O253" s="6"/>
@@ -13373,6 +13788,7 @@
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
       <c r="K256" s="6"/>
+      <c r="L256" s="6"/>
       <c r="M256" s="6"/>
       <c r="N256" s="6"/>
       <c r="O256" s="6"/>
@@ -13398,11 +13814,16 @@
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
       <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
       <c r="M257" s="6"/>
       <c r="N257" s="6"/>
       <c r="O257" s="6"/>
       <c r="P257" s="6"/>
       <c r="Q257" s="6"/>
+      <c r="R257" s="6"/>
+      <c r="S257" s="6"/>
+      <c r="T257" s="6"/>
+      <c r="U257" s="6"/>
       <c r="V257" s="6"/>
       <c r="W257" s="6"/>
       <c r="X257" s="6"/>
@@ -13419,7 +13840,6 @@
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
       <c r="K258" s="6"/>
-      <c r="L258" s="6"/>
       <c r="M258" s="6"/>
       <c r="N258" s="6"/>
       <c r="O258" s="6"/>
@@ -13445,16 +13865,11 @@
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
       <c r="K259" s="6"/>
-      <c r="L259" s="6"/>
       <c r="M259" s="6"/>
       <c r="N259" s="6"/>
       <c r="O259" s="6"/>
       <c r="P259" s="6"/>
       <c r="Q259" s="6"/>
-      <c r="R259" s="6"/>
-      <c r="S259" s="6"/>
-      <c r="T259" s="6"/>
-      <c r="U259" s="6"/>
       <c r="V259" s="6"/>
       <c r="W259" s="6"/>
       <c r="X259" s="6"/>
@@ -13496,6 +13911,7 @@
       <c r="H261" s="9"/>
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
+      <c r="K261" s="6"/>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
       <c r="N261" s="6"/>
@@ -13547,7 +13963,6 @@
       <c r="H263" s="9"/>
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
-      <c r="K263" s="6"/>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
       <c r="N263" s="6"/>
@@ -13651,6 +14066,7 @@
       <c r="H267" s="9"/>
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
+      <c r="K267" s="6"/>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
       <c r="N267" s="6"/>
@@ -13676,6 +14092,7 @@
       <c r="H268" s="9"/>
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
+      <c r="K268" s="6"/>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
       <c r="N268" s="6"/>
@@ -13701,7 +14118,6 @@
       <c r="H269" s="9"/>
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
-      <c r="K269" s="6"/>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
       <c r="N269" s="6"/>
@@ -13727,7 +14143,6 @@
       <c r="H270" s="9"/>
       <c r="I270" s="6"/>
       <c r="J270" s="6"/>
-      <c r="K270" s="6"/>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
       <c r="N270" s="6"/>
@@ -13779,6 +14194,7 @@
       <c r="H272" s="9"/>
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
+      <c r="K272" s="6"/>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
       <c r="N272" s="6"/>
@@ -13830,7 +14246,6 @@
       <c r="H274" s="9"/>
       <c r="I274" s="6"/>
       <c r="J274" s="6"/>
-      <c r="K274" s="6"/>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
       <c r="N274" s="6"/>
@@ -14392,16 +14807,17 @@
       <c r="X295" s="6"/>
     </row>
     <row r="296" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="13"/>
-      <c r="B296" s="14"/>
+      <c r="A296" s="7"/>
+      <c r="B296" s="9"/>
       <c r="C296" s="8"/>
-      <c r="D296" s="13"/>
-      <c r="E296" s="13"/>
-      <c r="F296" s="13"/>
-      <c r="G296" s="13"/>
-      <c r="H296" s="14"/>
+      <c r="D296" s="7"/>
+      <c r="E296" s="7"/>
+      <c r="F296" s="7"/>
+      <c r="G296" s="7"/>
+      <c r="H296" s="9"/>
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
+      <c r="K296" s="6"/>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
       <c r="N296" s="6"/>
@@ -14444,16 +14860,15 @@
     </row>
     <row r="298" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7"/>
-      <c r="B298" s="9"/>
+      <c r="B298" s="13"/>
       <c r="C298" s="8"/>
-      <c r="D298" s="7"/>
-      <c r="E298" s="7"/>
-      <c r="F298" s="7"/>
-      <c r="G298" s="7"/>
-      <c r="H298" s="9"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
+      <c r="F298" s="12"/>
+      <c r="G298" s="12"/>
+      <c r="H298" s="13"/>
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
-      <c r="K298" s="6"/>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
       <c r="N298" s="6"/>
@@ -14477,8 +14892,22 @@
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
       <c r="H299" s="9"/>
-      <c r="I299" s="17"/>
-      <c r="J299" s="17"/>
+      <c r="I299" s="6"/>
+      <c r="J299" s="6"/>
+      <c r="K299" s="6"/>
+      <c r="L299" s="6"/>
+      <c r="M299" s="6"/>
+      <c r="N299" s="6"/>
+      <c r="O299" s="6"/>
+      <c r="P299" s="6"/>
+      <c r="Q299" s="6"/>
+      <c r="R299" s="6"/>
+      <c r="S299" s="6"/>
+      <c r="T299" s="6"/>
+      <c r="U299" s="6"/>
+      <c r="V299" s="6"/>
+      <c r="W299" s="6"/>
+      <c r="X299" s="6"/>
     </row>
     <row r="300" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7"/>
@@ -14507,30 +14936,16 @@
       <c r="X300" s="6"/>
     </row>
     <row r="301" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="18"/>
-      <c r="B301" s="19"/>
-      <c r="C301" s="42"/>
+      <c r="A301" s="7"/>
+      <c r="B301" s="9"/>
+      <c r="C301" s="8"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
-      <c r="H301" s="19"/>
-      <c r="I301" s="6"/>
-      <c r="J301" s="6"/>
-      <c r="K301" s="6"/>
-      <c r="L301" s="6"/>
-      <c r="M301" s="6"/>
-      <c r="N301" s="6"/>
-      <c r="O301" s="6"/>
-      <c r="P301" s="6"/>
-      <c r="Q301" s="6"/>
-      <c r="R301" s="6"/>
-      <c r="S301" s="6"/>
-      <c r="T301" s="6"/>
-      <c r="U301" s="6"/>
-      <c r="V301" s="6"/>
-      <c r="W301" s="6"/>
-      <c r="X301" s="6"/>
+      <c r="H301" s="9"/>
+      <c r="I301" s="16"/>
+      <c r="J301" s="16"/>
     </row>
     <row r="302" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7"/>
@@ -14560,13 +14975,13 @@
     </row>
     <row r="303" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7"/>
-      <c r="B303" s="9"/>
-      <c r="C303" s="8"/>
+      <c r="B303" s="17"/>
+      <c r="C303" s="40"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
       <c r="G303" s="7"/>
-      <c r="H303" s="9"/>
+      <c r="H303" s="17"/>
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
       <c r="K303" s="6"/>
@@ -14671,8 +15086,22 @@
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
       <c r="H307" s="9"/>
-      <c r="I307" s="17"/>
-      <c r="J307" s="17"/>
+      <c r="I307" s="6"/>
+      <c r="J307" s="6"/>
+      <c r="K307" s="6"/>
+      <c r="L307" s="6"/>
+      <c r="M307" s="6"/>
+      <c r="N307" s="6"/>
+      <c r="O307" s="6"/>
+      <c r="P307" s="6"/>
+      <c r="Q307" s="6"/>
+      <c r="R307" s="6"/>
+      <c r="S307" s="6"/>
+      <c r="T307" s="6"/>
+      <c r="U307" s="6"/>
+      <c r="V307" s="6"/>
+      <c r="W307" s="6"/>
+      <c r="X307" s="6"/>
     </row>
     <row r="308" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7"/>
@@ -14709,1261 +15138,1300 @@
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="9"/>
-      <c r="I309" s="6"/>
-      <c r="J309" s="6"/>
-      <c r="K309" s="6"/>
-      <c r="L309" s="6"/>
-      <c r="M309" s="6"/>
-      <c r="N309" s="6"/>
-      <c r="O309" s="6"/>
-      <c r="P309" s="6"/>
-      <c r="Q309" s="6"/>
-      <c r="R309" s="6"/>
-      <c r="S309" s="6"/>
-      <c r="T309" s="6"/>
-      <c r="U309" s="6"/>
-      <c r="V309" s="6"/>
-      <c r="W309" s="6"/>
-      <c r="X309" s="6"/>
+      <c r="I309" s="16"/>
+      <c r="J309" s="16"/>
     </row>
     <row r="310" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="6"/>
-      <c r="B310" s="16"/>
-      <c r="C310" s="16"/>
-      <c r="D310" s="17"/>
-      <c r="E310" s="17"/>
-      <c r="F310" s="17"/>
-      <c r="G310" s="17"/>
-      <c r="H310" s="16"/>
-      <c r="I310" s="17"/>
-      <c r="J310" s="17"/>
+      <c r="A310" s="7"/>
+      <c r="B310" s="9"/>
+      <c r="C310" s="8"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="7"/>
+      <c r="H310" s="9"/>
+      <c r="I310" s="6"/>
+      <c r="J310" s="6"/>
+      <c r="K310" s="6"/>
+      <c r="L310" s="6"/>
+      <c r="M310" s="6"/>
+      <c r="N310" s="6"/>
+      <c r="O310" s="6"/>
+      <c r="P310" s="6"/>
+      <c r="Q310" s="6"/>
+      <c r="R310" s="6"/>
+      <c r="S310" s="6"/>
+      <c r="T310" s="6"/>
+      <c r="U310" s="6"/>
+      <c r="V310" s="6"/>
+      <c r="W310" s="6"/>
+      <c r="X310" s="6"/>
     </row>
     <row r="311" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="6"/>
-      <c r="B311" s="16"/>
-      <c r="C311" s="16"/>
-      <c r="D311" s="17"/>
-      <c r="E311" s="17"/>
-      <c r="F311" s="17"/>
-      <c r="G311" s="17"/>
-      <c r="H311" s="16"/>
-      <c r="I311" s="17"/>
-      <c r="J311" s="17"/>
+      <c r="A311" s="7"/>
+      <c r="B311" s="9"/>
+      <c r="C311" s="8"/>
+      <c r="D311" s="7"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="7"/>
+      <c r="G311" s="7"/>
+      <c r="H311" s="9"/>
+      <c r="I311" s="6"/>
+      <c r="J311" s="6"/>
+      <c r="K311" s="6"/>
+      <c r="L311" s="6"/>
+      <c r="M311" s="6"/>
+      <c r="N311" s="6"/>
+      <c r="O311" s="6"/>
+      <c r="P311" s="6"/>
+      <c r="Q311" s="6"/>
+      <c r="R311" s="6"/>
+      <c r="S311" s="6"/>
+      <c r="T311" s="6"/>
+      <c r="U311" s="6"/>
+      <c r="V311" s="6"/>
+      <c r="W311" s="6"/>
+      <c r="X311" s="6"/>
     </row>
     <row r="312" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6"/>
-      <c r="B312" s="16"/>
-      <c r="C312" s="16"/>
-      <c r="D312" s="17"/>
-      <c r="E312" s="17"/>
-      <c r="F312" s="17"/>
-      <c r="G312" s="17"/>
-      <c r="H312" s="16"/>
-      <c r="I312" s="17"/>
-      <c r="J312" s="17"/>
+      <c r="B312" s="15"/>
+      <c r="C312" s="15"/>
+      <c r="D312" s="16"/>
+      <c r="E312" s="16"/>
+      <c r="F312" s="16"/>
+      <c r="G312" s="16"/>
+      <c r="H312" s="15"/>
+      <c r="I312" s="16"/>
+      <c r="J312" s="16"/>
     </row>
     <row r="313" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6"/>
-      <c r="B313" s="16"/>
-      <c r="C313" s="16"/>
-      <c r="D313" s="17"/>
-      <c r="E313" s="17"/>
-      <c r="F313" s="17"/>
-      <c r="G313" s="17"/>
-      <c r="H313" s="16"/>
-      <c r="I313" s="17"/>
-      <c r="J313" s="17"/>
+      <c r="B313" s="15"/>
+      <c r="C313" s="15"/>
+      <c r="D313" s="16"/>
+      <c r="E313" s="16"/>
+      <c r="F313" s="16"/>
+      <c r="G313" s="16"/>
+      <c r="H313" s="15"/>
+      <c r="I313" s="16"/>
+      <c r="J313" s="16"/>
     </row>
     <row r="314" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6"/>
-      <c r="B314" s="16"/>
-      <c r="C314" s="16"/>
-      <c r="D314" s="17"/>
-      <c r="E314" s="17"/>
-      <c r="F314" s="17"/>
-      <c r="G314" s="17"/>
-      <c r="H314" s="16"/>
-      <c r="I314" s="17"/>
-      <c r="J314" s="17"/>
+      <c r="B314" s="15"/>
+      <c r="C314" s="15"/>
+      <c r="D314" s="16"/>
+      <c r="E314" s="16"/>
+      <c r="F314" s="16"/>
+      <c r="G314" s="16"/>
+      <c r="H314" s="15"/>
+      <c r="I314" s="16"/>
+      <c r="J314" s="16"/>
     </row>
     <row r="315" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6"/>
-      <c r="B315" s="16"/>
-      <c r="C315" s="16"/>
-      <c r="D315" s="17"/>
-      <c r="E315" s="17"/>
-      <c r="F315" s="17"/>
-      <c r="G315" s="17"/>
-      <c r="H315" s="16"/>
-      <c r="I315" s="17"/>
-      <c r="J315" s="17"/>
+      <c r="B315" s="15"/>
+      <c r="C315" s="15"/>
+      <c r="D315" s="16"/>
+      <c r="E315" s="16"/>
+      <c r="F315" s="16"/>
+      <c r="G315" s="16"/>
+      <c r="H315" s="15"/>
+      <c r="I315" s="16"/>
+      <c r="J315" s="16"/>
     </row>
     <row r="316" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6"/>
-      <c r="B316" s="16"/>
-      <c r="C316" s="16"/>
-      <c r="D316" s="17"/>
-      <c r="E316" s="17"/>
-      <c r="F316" s="17"/>
-      <c r="G316" s="17"/>
-      <c r="H316" s="16"/>
-      <c r="I316" s="17"/>
-      <c r="J316" s="17"/>
+      <c r="B316" s="15"/>
+      <c r="C316" s="15"/>
+      <c r="D316" s="16"/>
+      <c r="E316" s="16"/>
+      <c r="F316" s="16"/>
+      <c r="G316" s="16"/>
+      <c r="H316" s="15"/>
+      <c r="I316" s="16"/>
+      <c r="J316" s="16"/>
     </row>
     <row r="317" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6"/>
-      <c r="B317" s="16"/>
-      <c r="C317" s="16"/>
-      <c r="D317" s="17"/>
-      <c r="E317" s="17"/>
-      <c r="F317" s="17"/>
-      <c r="G317" s="17"/>
-      <c r="H317" s="16"/>
-      <c r="I317" s="17"/>
-      <c r="J317" s="17"/>
+      <c r="B317" s="15"/>
+      <c r="C317" s="15"/>
+      <c r="D317" s="16"/>
+      <c r="E317" s="16"/>
+      <c r="F317" s="16"/>
+      <c r="G317" s="16"/>
+      <c r="H317" s="15"/>
+      <c r="I317" s="16"/>
+      <c r="J317" s="16"/>
     </row>
     <row r="318" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6"/>
-      <c r="B318" s="16"/>
-      <c r="C318" s="16"/>
-      <c r="D318" s="17"/>
-      <c r="E318" s="17"/>
-      <c r="F318" s="17"/>
-      <c r="G318" s="17"/>
-      <c r="H318" s="16"/>
-      <c r="I318" s="17"/>
-      <c r="J318" s="17"/>
+      <c r="B318" s="15"/>
+      <c r="C318" s="15"/>
+      <c r="D318" s="16"/>
+      <c r="E318" s="16"/>
+      <c r="F318" s="16"/>
+      <c r="G318" s="16"/>
+      <c r="H318" s="15"/>
+      <c r="I318" s="16"/>
+      <c r="J318" s="16"/>
     </row>
     <row r="319" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6"/>
-      <c r="B319" s="16"/>
-      <c r="C319" s="16"/>
-      <c r="D319" s="17"/>
-      <c r="E319" s="17"/>
-      <c r="F319" s="17"/>
-      <c r="G319" s="17"/>
-      <c r="H319" s="16"/>
-      <c r="I319" s="17"/>
-      <c r="J319" s="17"/>
+      <c r="B319" s="15"/>
+      <c r="C319" s="15"/>
+      <c r="D319" s="16"/>
+      <c r="E319" s="16"/>
+      <c r="F319" s="16"/>
+      <c r="G319" s="16"/>
+      <c r="H319" s="15"/>
+      <c r="I319" s="16"/>
+      <c r="J319" s="16"/>
     </row>
     <row r="320" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="6"/>
-      <c r="B320" s="16"/>
-      <c r="C320" s="16"/>
-      <c r="D320" s="17"/>
-      <c r="E320" s="17"/>
-      <c r="F320" s="17"/>
-      <c r="G320" s="17"/>
-      <c r="H320" s="16"/>
-      <c r="I320" s="17"/>
-      <c r="J320" s="17"/>
+      <c r="B320" s="15"/>
+      <c r="C320" s="15"/>
+      <c r="D320" s="16"/>
+      <c r="E320" s="16"/>
+      <c r="F320" s="16"/>
+      <c r="G320" s="16"/>
+      <c r="H320" s="15"/>
+      <c r="I320" s="16"/>
+      <c r="J320" s="16"/>
     </row>
     <row r="321" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6"/>
-      <c r="B321" s="16"/>
-      <c r="C321" s="16"/>
-      <c r="D321" s="17"/>
-      <c r="E321" s="17"/>
-      <c r="F321" s="17"/>
-      <c r="G321" s="17"/>
-      <c r="H321" s="16"/>
-      <c r="I321" s="17"/>
-      <c r="J321" s="17"/>
+      <c r="B321" s="15"/>
+      <c r="C321" s="15"/>
+      <c r="D321" s="16"/>
+      <c r="E321" s="16"/>
+      <c r="F321" s="16"/>
+      <c r="G321" s="16"/>
+      <c r="H321" s="15"/>
+      <c r="I321" s="16"/>
+      <c r="J321" s="16"/>
     </row>
     <row r="322" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6"/>
-      <c r="B322" s="16"/>
-      <c r="C322" s="16"/>
-      <c r="D322" s="17"/>
-      <c r="E322" s="17"/>
-      <c r="F322" s="17"/>
-      <c r="G322" s="17"/>
-      <c r="H322" s="16"/>
-      <c r="I322" s="17"/>
-      <c r="J322" s="17"/>
+      <c r="B322" s="15"/>
+      <c r="C322" s="15"/>
+      <c r="D322" s="16"/>
+      <c r="E322" s="16"/>
+      <c r="F322" s="16"/>
+      <c r="G322" s="16"/>
+      <c r="H322" s="15"/>
+      <c r="I322" s="16"/>
+      <c r="J322" s="16"/>
     </row>
     <row r="323" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6"/>
-      <c r="B323" s="16"/>
-      <c r="C323" s="16"/>
-      <c r="D323" s="17"/>
-      <c r="E323" s="17"/>
-      <c r="F323" s="17"/>
-      <c r="G323" s="17"/>
-      <c r="H323" s="16"/>
-      <c r="I323" s="17"/>
-      <c r="J323" s="17"/>
+      <c r="B323" s="15"/>
+      <c r="C323" s="15"/>
+      <c r="D323" s="16"/>
+      <c r="E323" s="16"/>
+      <c r="F323" s="16"/>
+      <c r="G323" s="16"/>
+      <c r="H323" s="15"/>
+      <c r="I323" s="16"/>
+      <c r="J323" s="16"/>
     </row>
     <row r="324" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6"/>
-      <c r="B324" s="16"/>
-      <c r="C324" s="16"/>
-      <c r="D324" s="17"/>
-      <c r="E324" s="17"/>
-      <c r="F324" s="17"/>
-      <c r="G324" s="17"/>
-      <c r="H324" s="16"/>
-      <c r="I324" s="17"/>
-      <c r="J324" s="17"/>
+      <c r="B324" s="15"/>
+      <c r="C324" s="15"/>
+      <c r="D324" s="16"/>
+      <c r="E324" s="16"/>
+      <c r="F324" s="16"/>
+      <c r="G324" s="16"/>
+      <c r="H324" s="15"/>
+      <c r="I324" s="16"/>
+      <c r="J324" s="16"/>
     </row>
     <row r="325" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6"/>
-      <c r="B325" s="16"/>
-      <c r="C325" s="16"/>
-      <c r="D325" s="17"/>
-      <c r="E325" s="17"/>
-      <c r="F325" s="17"/>
-      <c r="G325" s="17"/>
-      <c r="H325" s="16"/>
-      <c r="I325" s="17"/>
-      <c r="J325" s="17"/>
+      <c r="B325" s="15"/>
+      <c r="C325" s="15"/>
+      <c r="D325" s="16"/>
+      <c r="E325" s="16"/>
+      <c r="F325" s="16"/>
+      <c r="G325" s="16"/>
+      <c r="H325" s="15"/>
+      <c r="I325" s="16"/>
+      <c r="J325" s="16"/>
     </row>
     <row r="326" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6"/>
-      <c r="B326" s="16"/>
-      <c r="C326" s="16"/>
-      <c r="D326" s="17"/>
-      <c r="E326" s="17"/>
-      <c r="F326" s="17"/>
-      <c r="G326" s="17"/>
-      <c r="H326" s="16"/>
-      <c r="I326" s="17"/>
-      <c r="J326" s="17"/>
+      <c r="B326" s="15"/>
+      <c r="C326" s="15"/>
+      <c r="D326" s="16"/>
+      <c r="E326" s="16"/>
+      <c r="F326" s="16"/>
+      <c r="G326" s="16"/>
+      <c r="H326" s="15"/>
+      <c r="I326" s="16"/>
+      <c r="J326" s="16"/>
     </row>
     <row r="327" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6"/>
-      <c r="B327" s="16"/>
-      <c r="C327" s="16"/>
-      <c r="D327" s="17"/>
-      <c r="E327" s="17"/>
-      <c r="F327" s="17"/>
-      <c r="G327" s="17"/>
-      <c r="H327" s="16"/>
-      <c r="I327" s="17"/>
-      <c r="J327" s="17"/>
+      <c r="B327" s="15"/>
+      <c r="C327" s="15"/>
+      <c r="D327" s="16"/>
+      <c r="E327" s="16"/>
+      <c r="F327" s="16"/>
+      <c r="G327" s="16"/>
+      <c r="H327" s="15"/>
+      <c r="I327" s="16"/>
+      <c r="J327" s="16"/>
     </row>
     <row r="328" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
-      <c r="B328" s="16"/>
-      <c r="C328" s="16"/>
-      <c r="D328" s="17"/>
-      <c r="E328" s="17"/>
-      <c r="F328" s="17"/>
-      <c r="G328" s="17"/>
-      <c r="H328" s="16"/>
-      <c r="I328" s="17"/>
-      <c r="J328" s="17"/>
+      <c r="B328" s="15"/>
+      <c r="C328" s="15"/>
+      <c r="D328" s="16"/>
+      <c r="E328" s="16"/>
+      <c r="F328" s="16"/>
+      <c r="G328" s="16"/>
+      <c r="H328" s="15"/>
+      <c r="I328" s="16"/>
+      <c r="J328" s="16"/>
     </row>
     <row r="329" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6"/>
-      <c r="B329" s="16"/>
-      <c r="C329" s="16"/>
-      <c r="D329" s="17"/>
-      <c r="E329" s="17"/>
-      <c r="F329" s="17"/>
-      <c r="G329" s="17"/>
-      <c r="H329" s="16"/>
-      <c r="I329" s="17"/>
-      <c r="J329" s="17"/>
+      <c r="B329" s="15"/>
+      <c r="C329" s="15"/>
+      <c r="D329" s="16"/>
+      <c r="E329" s="16"/>
+      <c r="F329" s="16"/>
+      <c r="G329" s="16"/>
+      <c r="H329" s="15"/>
+      <c r="I329" s="16"/>
+      <c r="J329" s="16"/>
     </row>
     <row r="330" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6"/>
-      <c r="B330" s="16"/>
-      <c r="C330" s="16"/>
-      <c r="D330" s="17"/>
-      <c r="E330" s="17"/>
-      <c r="F330" s="17"/>
-      <c r="G330" s="17"/>
-      <c r="H330" s="16"/>
-      <c r="I330" s="17"/>
-      <c r="J330" s="17"/>
+      <c r="B330" s="15"/>
+      <c r="C330" s="15"/>
+      <c r="D330" s="16"/>
+      <c r="E330" s="16"/>
+      <c r="F330" s="16"/>
+      <c r="G330" s="16"/>
+      <c r="H330" s="15"/>
+      <c r="I330" s="16"/>
+      <c r="J330" s="16"/>
     </row>
     <row r="331" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6"/>
-      <c r="B331" s="16"/>
-      <c r="C331" s="16"/>
-      <c r="D331" s="17"/>
-      <c r="E331" s="17"/>
-      <c r="F331" s="17"/>
-      <c r="G331" s="17"/>
-      <c r="H331" s="16"/>
-      <c r="I331" s="17"/>
-      <c r="J331" s="17"/>
+      <c r="B331" s="15"/>
+      <c r="C331" s="15"/>
+      <c r="D331" s="16"/>
+      <c r="E331" s="16"/>
+      <c r="F331" s="16"/>
+      <c r="G331" s="16"/>
+      <c r="H331" s="15"/>
+      <c r="I331" s="16"/>
+      <c r="J331" s="16"/>
     </row>
     <row r="332" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6"/>
-      <c r="B332" s="16"/>
-      <c r="C332" s="16"/>
-      <c r="D332" s="17"/>
-      <c r="E332" s="17"/>
-      <c r="F332" s="17"/>
-      <c r="G332" s="17"/>
-      <c r="H332" s="16"/>
-      <c r="I332" s="17"/>
-      <c r="J332" s="17"/>
+      <c r="B332" s="15"/>
+      <c r="C332" s="15"/>
+      <c r="D332" s="16"/>
+      <c r="E332" s="16"/>
+      <c r="F332" s="16"/>
+      <c r="G332" s="16"/>
+      <c r="H332" s="15"/>
+      <c r="I332" s="16"/>
+      <c r="J332" s="16"/>
     </row>
     <row r="333" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6"/>
-      <c r="B333" s="16"/>
-      <c r="C333" s="16"/>
-      <c r="D333" s="17"/>
-      <c r="E333" s="17"/>
-      <c r="F333" s="17"/>
-      <c r="G333" s="17"/>
-      <c r="H333" s="16"/>
-      <c r="I333" s="17"/>
-      <c r="J333" s="17"/>
+      <c r="B333" s="15"/>
+      <c r="C333" s="15"/>
+      <c r="D333" s="16"/>
+      <c r="E333" s="16"/>
+      <c r="F333" s="16"/>
+      <c r="G333" s="16"/>
+      <c r="H333" s="15"/>
+      <c r="I333" s="16"/>
+      <c r="J333" s="16"/>
     </row>
     <row r="334" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6"/>
-      <c r="B334" s="16"/>
-      <c r="C334" s="16"/>
-      <c r="D334" s="17"/>
-      <c r="E334" s="17"/>
-      <c r="F334" s="17"/>
-      <c r="G334" s="17"/>
-      <c r="H334" s="16"/>
-      <c r="I334" s="17"/>
-      <c r="J334" s="17"/>
+      <c r="B334" s="15"/>
+      <c r="C334" s="15"/>
+      <c r="D334" s="16"/>
+      <c r="E334" s="16"/>
+      <c r="F334" s="16"/>
+      <c r="G334" s="16"/>
+      <c r="H334" s="15"/>
+      <c r="I334" s="16"/>
+      <c r="J334" s="16"/>
     </row>
     <row r="335" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6"/>
-      <c r="B335" s="16"/>
-      <c r="C335" s="16"/>
-      <c r="D335" s="17"/>
-      <c r="E335" s="17"/>
-      <c r="F335" s="17"/>
-      <c r="G335" s="17"/>
-      <c r="H335" s="16"/>
-      <c r="I335" s="17"/>
-      <c r="J335" s="17"/>
+      <c r="B335" s="15"/>
+      <c r="C335" s="15"/>
+      <c r="D335" s="16"/>
+      <c r="E335" s="16"/>
+      <c r="F335" s="16"/>
+      <c r="G335" s="16"/>
+      <c r="H335" s="15"/>
+      <c r="I335" s="16"/>
+      <c r="J335" s="16"/>
     </row>
     <row r="336" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6"/>
-      <c r="B336" s="16"/>
-      <c r="C336" s="16"/>
-      <c r="D336" s="17"/>
-      <c r="E336" s="17"/>
-      <c r="F336" s="17"/>
-      <c r="G336" s="17"/>
-      <c r="H336" s="16"/>
-      <c r="I336" s="17"/>
-      <c r="J336" s="17"/>
+      <c r="B336" s="15"/>
+      <c r="C336" s="15"/>
+      <c r="D336" s="16"/>
+      <c r="E336" s="16"/>
+      <c r="F336" s="16"/>
+      <c r="G336" s="16"/>
+      <c r="H336" s="15"/>
+      <c r="I336" s="16"/>
+      <c r="J336" s="16"/>
     </row>
     <row r="337" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6"/>
-      <c r="B337" s="16"/>
-      <c r="C337" s="16"/>
-      <c r="D337" s="17"/>
-      <c r="E337" s="17"/>
-      <c r="F337" s="17"/>
-      <c r="G337" s="17"/>
-      <c r="H337" s="16"/>
-      <c r="I337" s="17"/>
-      <c r="J337" s="17"/>
+      <c r="B337" s="15"/>
+      <c r="C337" s="15"/>
+      <c r="D337" s="16"/>
+      <c r="E337" s="16"/>
+      <c r="F337" s="16"/>
+      <c r="G337" s="16"/>
+      <c r="H337" s="15"/>
+      <c r="I337" s="16"/>
+      <c r="J337" s="16"/>
     </row>
     <row r="338" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6"/>
-      <c r="B338" s="16"/>
-      <c r="C338" s="16"/>
-      <c r="D338" s="17"/>
-      <c r="E338" s="17"/>
-      <c r="F338" s="17"/>
-      <c r="G338" s="17"/>
-      <c r="H338" s="16"/>
-      <c r="I338" s="17"/>
-      <c r="J338" s="17"/>
+      <c r="B338" s="15"/>
+      <c r="C338" s="15"/>
+      <c r="D338" s="16"/>
+      <c r="E338" s="16"/>
+      <c r="F338" s="16"/>
+      <c r="G338" s="16"/>
+      <c r="H338" s="15"/>
+      <c r="I338" s="16"/>
+      <c r="J338" s="16"/>
     </row>
     <row r="339" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6"/>
-      <c r="B339" s="16"/>
-      <c r="C339" s="16"/>
-      <c r="D339" s="17"/>
-      <c r="E339" s="17"/>
-      <c r="F339" s="17"/>
-      <c r="G339" s="17"/>
-      <c r="H339" s="16"/>
-      <c r="I339" s="17"/>
-      <c r="J339" s="17"/>
+      <c r="B339" s="15"/>
+      <c r="C339" s="15"/>
+      <c r="D339" s="16"/>
+      <c r="E339" s="16"/>
+      <c r="F339" s="16"/>
+      <c r="G339" s="16"/>
+      <c r="H339" s="15"/>
+      <c r="I339" s="16"/>
+      <c r="J339" s="16"/>
     </row>
     <row r="340" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6"/>
-      <c r="B340" s="16"/>
-      <c r="C340" s="16"/>
-      <c r="D340" s="17"/>
-      <c r="E340" s="17"/>
-      <c r="F340" s="17"/>
-      <c r="G340" s="17"/>
-      <c r="H340" s="16"/>
-      <c r="I340" s="17"/>
-      <c r="J340" s="17"/>
+      <c r="B340" s="15"/>
+      <c r="C340" s="15"/>
+      <c r="D340" s="16"/>
+      <c r="E340" s="16"/>
+      <c r="F340" s="16"/>
+      <c r="G340" s="16"/>
+      <c r="H340" s="15"/>
+      <c r="I340" s="16"/>
+      <c r="J340" s="16"/>
     </row>
     <row r="341" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="6"/>
-      <c r="B341" s="16"/>
-      <c r="C341" s="16"/>
-      <c r="D341" s="17"/>
-      <c r="E341" s="17"/>
-      <c r="F341" s="17"/>
-      <c r="G341" s="17"/>
-      <c r="H341" s="16"/>
-      <c r="I341" s="17"/>
-      <c r="J341" s="17"/>
+      <c r="B341" s="15"/>
+      <c r="C341" s="15"/>
+      <c r="D341" s="16"/>
+      <c r="E341" s="16"/>
+      <c r="F341" s="16"/>
+      <c r="G341" s="16"/>
+      <c r="H341" s="15"/>
+      <c r="I341" s="16"/>
+      <c r="J341" s="16"/>
     </row>
     <row r="342" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="6"/>
-      <c r="B342" s="16"/>
-      <c r="C342" s="16"/>
-      <c r="D342" s="17"/>
-      <c r="E342" s="17"/>
-      <c r="F342" s="17"/>
-      <c r="G342" s="17"/>
-      <c r="H342" s="16"/>
-      <c r="I342" s="17"/>
-      <c r="J342" s="17"/>
+      <c r="B342" s="15"/>
+      <c r="C342" s="15"/>
+      <c r="D342" s="16"/>
+      <c r="E342" s="16"/>
+      <c r="F342" s="16"/>
+      <c r="G342" s="16"/>
+      <c r="H342" s="15"/>
+      <c r="I342" s="16"/>
+      <c r="J342" s="16"/>
     </row>
     <row r="343" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="6"/>
-      <c r="B343" s="16"/>
-      <c r="C343" s="16"/>
-      <c r="D343" s="17"/>
-      <c r="E343" s="17"/>
-      <c r="F343" s="17"/>
-      <c r="G343" s="17"/>
-      <c r="H343" s="16"/>
-      <c r="I343" s="17"/>
-      <c r="J343" s="17"/>
+      <c r="B343" s="15"/>
+      <c r="C343" s="15"/>
+      <c r="D343" s="16"/>
+      <c r="E343" s="16"/>
+      <c r="F343" s="16"/>
+      <c r="G343" s="16"/>
+      <c r="H343" s="15"/>
+      <c r="I343" s="16"/>
+      <c r="J343" s="16"/>
     </row>
     <row r="344" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="6"/>
-      <c r="B344" s="16"/>
-      <c r="C344" s="16"/>
-      <c r="D344" s="17"/>
-      <c r="E344" s="17"/>
-      <c r="F344" s="17"/>
-      <c r="G344" s="17"/>
-      <c r="H344" s="16"/>
-      <c r="I344" s="17"/>
-      <c r="J344" s="17"/>
+      <c r="B344" s="15"/>
+      <c r="C344" s="15"/>
+      <c r="D344" s="16"/>
+      <c r="E344" s="16"/>
+      <c r="F344" s="16"/>
+      <c r="G344" s="16"/>
+      <c r="H344" s="15"/>
+      <c r="I344" s="16"/>
+      <c r="J344" s="16"/>
     </row>
     <row r="345" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="6"/>
-      <c r="B345" s="16"/>
-      <c r="C345" s="16"/>
-      <c r="D345" s="17"/>
-      <c r="E345" s="17"/>
-      <c r="F345" s="17"/>
-      <c r="G345" s="17"/>
-      <c r="H345" s="16"/>
-      <c r="I345" s="17"/>
-      <c r="J345" s="17"/>
+      <c r="B345" s="15"/>
+      <c r="C345" s="15"/>
+      <c r="D345" s="16"/>
+      <c r="E345" s="16"/>
+      <c r="F345" s="16"/>
+      <c r="G345" s="16"/>
+      <c r="H345" s="15"/>
+      <c r="I345" s="16"/>
+      <c r="J345" s="16"/>
     </row>
     <row r="346" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="6"/>
-      <c r="B346" s="16"/>
-      <c r="C346" s="16"/>
-      <c r="D346" s="17"/>
-      <c r="E346" s="17"/>
-      <c r="F346" s="17"/>
-      <c r="G346" s="17"/>
-      <c r="H346" s="16"/>
-      <c r="I346" s="17"/>
-      <c r="J346" s="17"/>
+      <c r="B346" s="15"/>
+      <c r="C346" s="15"/>
+      <c r="D346" s="16"/>
+      <c r="E346" s="16"/>
+      <c r="F346" s="16"/>
+      <c r="G346" s="16"/>
+      <c r="H346" s="15"/>
+      <c r="I346" s="16"/>
+      <c r="J346" s="16"/>
     </row>
     <row r="347" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="6"/>
-      <c r="B347" s="16"/>
-      <c r="C347" s="16"/>
-      <c r="D347" s="17"/>
-      <c r="E347" s="17"/>
-      <c r="F347" s="17"/>
-      <c r="G347" s="17"/>
-      <c r="H347" s="16"/>
-      <c r="I347" s="17"/>
-      <c r="J347" s="17"/>
+      <c r="B347" s="15"/>
+      <c r="C347" s="15"/>
+      <c r="D347" s="16"/>
+      <c r="E347" s="16"/>
+      <c r="F347" s="16"/>
+      <c r="G347" s="16"/>
+      <c r="H347" s="15"/>
+      <c r="I347" s="16"/>
+      <c r="J347" s="16"/>
     </row>
     <row r="348" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="6"/>
-      <c r="B348" s="16"/>
-      <c r="C348" s="16"/>
-      <c r="D348" s="17"/>
-      <c r="E348" s="17"/>
-      <c r="F348" s="17"/>
-      <c r="G348" s="17"/>
-      <c r="H348" s="16"/>
-      <c r="I348" s="17"/>
-      <c r="J348" s="17"/>
+      <c r="B348" s="15"/>
+      <c r="C348" s="15"/>
+      <c r="D348" s="16"/>
+      <c r="E348" s="16"/>
+      <c r="F348" s="16"/>
+      <c r="G348" s="16"/>
+      <c r="H348" s="15"/>
+      <c r="I348" s="16"/>
+      <c r="J348" s="16"/>
     </row>
     <row r="349" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="6"/>
-      <c r="B349" s="16"/>
-      <c r="C349" s="16"/>
-      <c r="D349" s="17"/>
-      <c r="E349" s="17"/>
-      <c r="F349" s="17"/>
-      <c r="G349" s="17"/>
-      <c r="H349" s="16"/>
-      <c r="I349" s="17"/>
-      <c r="J349" s="17"/>
+      <c r="B349" s="15"/>
+      <c r="C349" s="15"/>
+      <c r="D349" s="16"/>
+      <c r="E349" s="16"/>
+      <c r="F349" s="16"/>
+      <c r="G349" s="16"/>
+      <c r="H349" s="15"/>
+      <c r="I349" s="16"/>
+      <c r="J349" s="16"/>
     </row>
     <row r="350" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="6"/>
-      <c r="B350" s="16"/>
-      <c r="C350" s="16"/>
-      <c r="D350" s="17"/>
-      <c r="E350" s="17"/>
-      <c r="F350" s="17"/>
-      <c r="G350" s="17"/>
-      <c r="H350" s="16"/>
-      <c r="I350" s="17"/>
-      <c r="J350" s="17"/>
+      <c r="B350" s="15"/>
+      <c r="C350" s="15"/>
+      <c r="D350" s="16"/>
+      <c r="E350" s="16"/>
+      <c r="F350" s="16"/>
+      <c r="G350" s="16"/>
+      <c r="H350" s="15"/>
+      <c r="I350" s="16"/>
+      <c r="J350" s="16"/>
     </row>
     <row r="351" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6"/>
-      <c r="B351" s="16"/>
-      <c r="C351" s="16"/>
-      <c r="D351" s="17"/>
-      <c r="E351" s="17"/>
-      <c r="F351" s="17"/>
-      <c r="G351" s="17"/>
-      <c r="H351" s="16"/>
-      <c r="I351" s="17"/>
-      <c r="J351" s="17"/>
+      <c r="B351" s="15"/>
+      <c r="C351" s="15"/>
+      <c r="D351" s="16"/>
+      <c r="E351" s="16"/>
+      <c r="F351" s="16"/>
+      <c r="G351" s="16"/>
+      <c r="H351" s="15"/>
+      <c r="I351" s="16"/>
+      <c r="J351" s="16"/>
     </row>
     <row r="352" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6"/>
-      <c r="B352" s="16"/>
-      <c r="C352" s="16"/>
-      <c r="D352" s="17"/>
-      <c r="E352" s="17"/>
-      <c r="F352" s="17"/>
-      <c r="G352" s="17"/>
-      <c r="H352" s="16"/>
-      <c r="I352" s="17"/>
-      <c r="J352" s="17"/>
+      <c r="B352" s="15"/>
+      <c r="C352" s="15"/>
+      <c r="D352" s="16"/>
+      <c r="E352" s="16"/>
+      <c r="F352" s="16"/>
+      <c r="G352" s="16"/>
+      <c r="H352" s="15"/>
+      <c r="I352" s="16"/>
+      <c r="J352" s="16"/>
     </row>
     <row r="353" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="6"/>
-      <c r="B353" s="16"/>
-      <c r="C353" s="16"/>
-      <c r="D353" s="17"/>
-      <c r="E353" s="17"/>
-      <c r="F353" s="17"/>
-      <c r="G353" s="17"/>
-      <c r="H353" s="16"/>
-      <c r="I353" s="17"/>
-      <c r="J353" s="17"/>
+      <c r="B353" s="15"/>
+      <c r="C353" s="15"/>
+      <c r="D353" s="16"/>
+      <c r="E353" s="16"/>
+      <c r="F353" s="16"/>
+      <c r="G353" s="16"/>
+      <c r="H353" s="15"/>
+      <c r="I353" s="16"/>
+      <c r="J353" s="16"/>
     </row>
     <row r="354" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="6"/>
-      <c r="B354" s="16"/>
-      <c r="C354" s="16"/>
-      <c r="D354" s="17"/>
-      <c r="E354" s="17"/>
-      <c r="F354" s="17"/>
-      <c r="G354" s="17"/>
-      <c r="H354" s="16"/>
-      <c r="I354" s="17"/>
-      <c r="J354" s="17"/>
+      <c r="B354" s="15"/>
+      <c r="C354" s="15"/>
+      <c r="D354" s="16"/>
+      <c r="E354" s="16"/>
+      <c r="F354" s="16"/>
+      <c r="G354" s="16"/>
+      <c r="H354" s="15"/>
+      <c r="I354" s="16"/>
+      <c r="J354" s="16"/>
     </row>
     <row r="355" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6"/>
-      <c r="B355" s="16"/>
-      <c r="C355" s="16"/>
-      <c r="D355" s="17"/>
-      <c r="E355" s="17"/>
-      <c r="F355" s="17"/>
-      <c r="G355" s="17"/>
-      <c r="H355" s="16"/>
-      <c r="I355" s="17"/>
-      <c r="J355" s="17"/>
+      <c r="B355" s="15"/>
+      <c r="C355" s="15"/>
+      <c r="D355" s="16"/>
+      <c r="E355" s="16"/>
+      <c r="F355" s="16"/>
+      <c r="G355" s="16"/>
+      <c r="H355" s="15"/>
+      <c r="I355" s="16"/>
+      <c r="J355" s="16"/>
     </row>
     <row r="356" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6"/>
-      <c r="B356" s="16"/>
-      <c r="C356" s="16"/>
-      <c r="D356" s="17"/>
-      <c r="E356" s="17"/>
-      <c r="F356" s="17"/>
-      <c r="G356" s="17"/>
-      <c r="H356" s="16"/>
-      <c r="I356" s="17"/>
-      <c r="J356" s="17"/>
+      <c r="B356" s="15"/>
+      <c r="C356" s="15"/>
+      <c r="D356" s="16"/>
+      <c r="E356" s="16"/>
+      <c r="F356" s="16"/>
+      <c r="G356" s="16"/>
+      <c r="H356" s="15"/>
+      <c r="I356" s="16"/>
+      <c r="J356" s="16"/>
     </row>
     <row r="357" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="6"/>
-      <c r="B357" s="16"/>
-      <c r="C357" s="16"/>
-      <c r="D357" s="17"/>
-      <c r="E357" s="17"/>
-      <c r="F357" s="17"/>
-      <c r="G357" s="17"/>
-      <c r="H357" s="16"/>
-      <c r="I357" s="17"/>
-      <c r="J357" s="17"/>
+      <c r="B357" s="15"/>
+      <c r="C357" s="15"/>
+      <c r="D357" s="16"/>
+      <c r="E357" s="16"/>
+      <c r="F357" s="16"/>
+      <c r="G357" s="16"/>
+      <c r="H357" s="15"/>
+      <c r="I357" s="16"/>
+      <c r="J357" s="16"/>
     </row>
     <row r="358" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="6"/>
-      <c r="B358" s="16"/>
-      <c r="C358" s="16"/>
-      <c r="D358" s="17"/>
-      <c r="E358" s="17"/>
-      <c r="F358" s="17"/>
-      <c r="G358" s="17"/>
-      <c r="H358" s="16"/>
-      <c r="I358" s="17"/>
-      <c r="J358" s="17"/>
+      <c r="B358" s="15"/>
+      <c r="C358" s="15"/>
+      <c r="D358" s="16"/>
+      <c r="E358" s="16"/>
+      <c r="F358" s="16"/>
+      <c r="G358" s="16"/>
+      <c r="H358" s="15"/>
+      <c r="I358" s="16"/>
+      <c r="J358" s="16"/>
     </row>
     <row r="359" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="6"/>
-      <c r="B359" s="16"/>
-      <c r="C359" s="16"/>
-      <c r="D359" s="17"/>
-      <c r="E359" s="17"/>
-      <c r="F359" s="17"/>
-      <c r="G359" s="17"/>
-      <c r="H359" s="16"/>
-      <c r="I359" s="17"/>
-      <c r="J359" s="17"/>
+      <c r="B359" s="15"/>
+      <c r="C359" s="15"/>
+      <c r="D359" s="16"/>
+      <c r="E359" s="16"/>
+      <c r="F359" s="16"/>
+      <c r="G359" s="16"/>
+      <c r="H359" s="15"/>
+      <c r="I359" s="16"/>
+      <c r="J359" s="16"/>
     </row>
     <row r="360" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="6"/>
-      <c r="B360" s="16"/>
-      <c r="C360" s="16"/>
-      <c r="D360" s="17"/>
-      <c r="E360" s="17"/>
-      <c r="F360" s="17"/>
-      <c r="G360" s="17"/>
-      <c r="H360" s="16"/>
-      <c r="I360" s="17"/>
-      <c r="J360" s="17"/>
+      <c r="B360" s="15"/>
+      <c r="C360" s="15"/>
+      <c r="D360" s="16"/>
+      <c r="E360" s="16"/>
+      <c r="F360" s="16"/>
+      <c r="G360" s="16"/>
+      <c r="H360" s="15"/>
+      <c r="I360" s="16"/>
+      <c r="J360" s="16"/>
     </row>
     <row r="361" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="6"/>
-      <c r="B361" s="16"/>
-      <c r="C361" s="16"/>
-      <c r="D361" s="17"/>
-      <c r="E361" s="17"/>
-      <c r="F361" s="17"/>
-      <c r="G361" s="17"/>
-      <c r="H361" s="16"/>
-      <c r="I361" s="17"/>
-      <c r="J361" s="17"/>
+      <c r="B361" s="15"/>
+      <c r="C361" s="15"/>
+      <c r="D361" s="16"/>
+      <c r="E361" s="16"/>
+      <c r="F361" s="16"/>
+      <c r="G361" s="16"/>
+      <c r="H361" s="15"/>
+      <c r="I361" s="16"/>
+      <c r="J361" s="16"/>
     </row>
     <row r="362" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="6"/>
-      <c r="B362" s="16"/>
-      <c r="C362" s="16"/>
-      <c r="D362" s="17"/>
-      <c r="E362" s="17"/>
-      <c r="F362" s="17"/>
-      <c r="G362" s="17"/>
-      <c r="H362" s="16"/>
-      <c r="I362" s="17"/>
-      <c r="J362" s="17"/>
+      <c r="B362" s="15"/>
+      <c r="C362" s="15"/>
+      <c r="D362" s="16"/>
+      <c r="E362" s="16"/>
+      <c r="F362" s="16"/>
+      <c r="G362" s="16"/>
+      <c r="H362" s="15"/>
+      <c r="I362" s="16"/>
+      <c r="J362" s="16"/>
     </row>
     <row r="363" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="6"/>
-      <c r="B363" s="16"/>
-      <c r="C363" s="16"/>
-      <c r="D363" s="17"/>
-      <c r="E363" s="17"/>
-      <c r="F363" s="17"/>
-      <c r="G363" s="17"/>
-      <c r="H363" s="16"/>
-      <c r="I363" s="17"/>
-      <c r="J363" s="17"/>
+      <c r="B363" s="15"/>
+      <c r="C363" s="15"/>
+      <c r="D363" s="16"/>
+      <c r="E363" s="16"/>
+      <c r="F363" s="16"/>
+      <c r="G363" s="16"/>
+      <c r="H363" s="15"/>
+      <c r="I363" s="16"/>
+      <c r="J363" s="16"/>
     </row>
     <row r="364" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="6"/>
-      <c r="B364" s="16"/>
-      <c r="C364" s="16"/>
-      <c r="D364" s="17"/>
-      <c r="E364" s="17"/>
-      <c r="F364" s="17"/>
-      <c r="G364" s="17"/>
-      <c r="H364" s="16"/>
-      <c r="I364" s="17"/>
-      <c r="J364" s="17"/>
+      <c r="B364" s="15"/>
+      <c r="C364" s="15"/>
+      <c r="D364" s="16"/>
+      <c r="E364" s="16"/>
+      <c r="F364" s="16"/>
+      <c r="G364" s="16"/>
+      <c r="H364" s="15"/>
+      <c r="I364" s="16"/>
+      <c r="J364" s="16"/>
     </row>
     <row r="365" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="6"/>
-      <c r="B365" s="16"/>
-      <c r="C365" s="16"/>
-      <c r="D365" s="17"/>
-      <c r="E365" s="17"/>
-      <c r="F365" s="17"/>
-      <c r="G365" s="17"/>
-      <c r="H365" s="16"/>
-      <c r="I365" s="17"/>
-      <c r="J365" s="17"/>
+      <c r="B365" s="15"/>
+      <c r="C365" s="15"/>
+      <c r="D365" s="16"/>
+      <c r="E365" s="16"/>
+      <c r="F365" s="16"/>
+      <c r="G365" s="16"/>
+      <c r="H365" s="15"/>
+      <c r="I365" s="16"/>
+      <c r="J365" s="16"/>
     </row>
     <row r="366" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="6"/>
-      <c r="B366" s="16"/>
-      <c r="C366" s="16"/>
-      <c r="D366" s="17"/>
-      <c r="E366" s="17"/>
-      <c r="F366" s="17"/>
-      <c r="G366" s="17"/>
-      <c r="H366" s="16"/>
-      <c r="I366" s="17"/>
-      <c r="J366" s="17"/>
+      <c r="B366" s="15"/>
+      <c r="C366" s="15"/>
+      <c r="D366" s="16"/>
+      <c r="E366" s="16"/>
+      <c r="F366" s="16"/>
+      <c r="G366" s="16"/>
+      <c r="H366" s="15"/>
+      <c r="I366" s="16"/>
+      <c r="J366" s="16"/>
     </row>
     <row r="367" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="6"/>
-      <c r="B367" s="16"/>
-      <c r="C367" s="16"/>
-      <c r="D367" s="17"/>
-      <c r="E367" s="17"/>
-      <c r="F367" s="17"/>
-      <c r="G367" s="17"/>
-      <c r="H367" s="16"/>
-      <c r="I367" s="17"/>
-      <c r="J367" s="17"/>
+      <c r="B367" s="15"/>
+      <c r="C367" s="15"/>
+      <c r="D367" s="16"/>
+      <c r="E367" s="16"/>
+      <c r="F367" s="16"/>
+      <c r="G367" s="16"/>
+      <c r="H367" s="15"/>
+      <c r="I367" s="16"/>
+      <c r="J367" s="16"/>
     </row>
     <row r="368" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="6"/>
-      <c r="B368" s="16"/>
-      <c r="C368" s="16"/>
-      <c r="D368" s="17"/>
-      <c r="E368" s="17"/>
-      <c r="F368" s="17"/>
-      <c r="G368" s="17"/>
-      <c r="H368" s="16"/>
-      <c r="I368" s="17"/>
-      <c r="J368" s="17"/>
+      <c r="B368" s="15"/>
+      <c r="C368" s="15"/>
+      <c r="D368" s="16"/>
+      <c r="E368" s="16"/>
+      <c r="F368" s="16"/>
+      <c r="G368" s="16"/>
+      <c r="H368" s="15"/>
+      <c r="I368" s="16"/>
+      <c r="J368" s="16"/>
     </row>
     <row r="369" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="6"/>
-      <c r="B369" s="16"/>
-      <c r="C369" s="16"/>
-      <c r="D369" s="17"/>
-      <c r="E369" s="17"/>
-      <c r="F369" s="17"/>
-      <c r="G369" s="17"/>
-      <c r="H369" s="16"/>
-      <c r="I369" s="17"/>
-      <c r="J369" s="17"/>
+      <c r="B369" s="15"/>
+      <c r="C369" s="15"/>
+      <c r="D369" s="16"/>
+      <c r="E369" s="16"/>
+      <c r="F369" s="16"/>
+      <c r="G369" s="16"/>
+      <c r="H369" s="15"/>
+      <c r="I369" s="16"/>
+      <c r="J369" s="16"/>
     </row>
     <row r="370" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="6"/>
-      <c r="B370" s="16"/>
-      <c r="C370" s="16"/>
-      <c r="D370" s="17"/>
-      <c r="E370" s="17"/>
-      <c r="F370" s="17"/>
-      <c r="G370" s="17"/>
-      <c r="H370" s="16"/>
-      <c r="I370" s="17"/>
-      <c r="J370" s="17"/>
+      <c r="B370" s="15"/>
+      <c r="C370" s="15"/>
+      <c r="D370" s="16"/>
+      <c r="E370" s="16"/>
+      <c r="F370" s="16"/>
+      <c r="G370" s="16"/>
+      <c r="H370" s="15"/>
+      <c r="I370" s="16"/>
+      <c r="J370" s="16"/>
     </row>
     <row r="371" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="6"/>
-      <c r="B371" s="16"/>
-      <c r="C371" s="16"/>
-      <c r="D371" s="17"/>
-      <c r="E371" s="17"/>
-      <c r="F371" s="17"/>
-      <c r="G371" s="17"/>
-      <c r="H371" s="16"/>
-      <c r="I371" s="17"/>
-      <c r="J371" s="17"/>
+      <c r="B371" s="15"/>
+      <c r="C371" s="15"/>
+      <c r="D371" s="16"/>
+      <c r="E371" s="16"/>
+      <c r="F371" s="16"/>
+      <c r="G371" s="16"/>
+      <c r="H371" s="15"/>
+      <c r="I371" s="16"/>
+      <c r="J371" s="16"/>
     </row>
     <row r="372" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="6"/>
-      <c r="B372" s="16"/>
-      <c r="C372" s="16"/>
-      <c r="D372" s="17"/>
-      <c r="E372" s="17"/>
-      <c r="F372" s="17"/>
-      <c r="G372" s="17"/>
-      <c r="H372" s="16"/>
-      <c r="I372" s="17"/>
-      <c r="J372" s="17"/>
+      <c r="B372" s="15"/>
+      <c r="C372" s="15"/>
+      <c r="D372" s="16"/>
+      <c r="E372" s="16"/>
+      <c r="F372" s="16"/>
+      <c r="G372" s="16"/>
+      <c r="H372" s="15"/>
+      <c r="I372" s="16"/>
+      <c r="J372" s="16"/>
     </row>
     <row r="373" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="6"/>
-      <c r="B373" s="16"/>
-      <c r="C373" s="16"/>
-      <c r="D373" s="17"/>
-      <c r="E373" s="17"/>
-      <c r="F373" s="17"/>
-      <c r="G373" s="17"/>
-      <c r="H373" s="16"/>
-      <c r="I373" s="17"/>
-      <c r="J373" s="17"/>
+      <c r="B373" s="15"/>
+      <c r="C373" s="15"/>
+      <c r="D373" s="16"/>
+      <c r="E373" s="16"/>
+      <c r="F373" s="16"/>
+      <c r="G373" s="16"/>
+      <c r="H373" s="15"/>
+      <c r="I373" s="16"/>
+      <c r="J373" s="16"/>
     </row>
     <row r="374" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="6"/>
-      <c r="B374" s="16"/>
-      <c r="C374" s="16"/>
-      <c r="D374" s="17"/>
-      <c r="E374" s="17"/>
-      <c r="F374" s="17"/>
-      <c r="G374" s="17"/>
-      <c r="H374" s="16"/>
-      <c r="I374" s="17"/>
-      <c r="J374" s="17"/>
+      <c r="B374" s="15"/>
+      <c r="C374" s="15"/>
+      <c r="D374" s="16"/>
+      <c r="E374" s="16"/>
+      <c r="F374" s="16"/>
+      <c r="G374" s="16"/>
+      <c r="H374" s="15"/>
+      <c r="I374" s="16"/>
+      <c r="J374" s="16"/>
     </row>
     <row r="375" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="6"/>
-      <c r="B375" s="16"/>
-      <c r="C375" s="16"/>
-      <c r="D375" s="17"/>
-      <c r="E375" s="17"/>
-      <c r="F375" s="17"/>
-      <c r="G375" s="17"/>
-      <c r="H375" s="16"/>
-      <c r="I375" s="17"/>
-      <c r="J375" s="17"/>
+      <c r="B375" s="15"/>
+      <c r="C375" s="15"/>
+      <c r="D375" s="16"/>
+      <c r="E375" s="16"/>
+      <c r="F375" s="16"/>
+      <c r="G375" s="16"/>
+      <c r="H375" s="15"/>
+      <c r="I375" s="16"/>
+      <c r="J375" s="16"/>
     </row>
     <row r="376" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="6"/>
-      <c r="B376" s="16"/>
-      <c r="C376" s="16"/>
-      <c r="D376" s="17"/>
-      <c r="E376" s="17"/>
-      <c r="F376" s="17"/>
-      <c r="G376" s="17"/>
-      <c r="H376" s="16"/>
-      <c r="I376" s="17"/>
-      <c r="J376" s="17"/>
+      <c r="B376" s="15"/>
+      <c r="C376" s="15"/>
+      <c r="D376" s="16"/>
+      <c r="E376" s="16"/>
+      <c r="F376" s="16"/>
+      <c r="G376" s="16"/>
+      <c r="H376" s="15"/>
+      <c r="I376" s="16"/>
+      <c r="J376" s="16"/>
     </row>
     <row r="377" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="6"/>
-      <c r="B377" s="16"/>
-      <c r="C377" s="16"/>
-      <c r="D377" s="17"/>
-      <c r="E377" s="17"/>
-      <c r="F377" s="17"/>
-      <c r="G377" s="17"/>
-      <c r="H377" s="16"/>
-      <c r="I377" s="17"/>
-      <c r="J377" s="17"/>
+      <c r="B377" s="15"/>
+      <c r="C377" s="15"/>
+      <c r="D377" s="16"/>
+      <c r="E377" s="16"/>
+      <c r="F377" s="16"/>
+      <c r="G377" s="16"/>
+      <c r="H377" s="15"/>
+      <c r="I377" s="16"/>
+      <c r="J377" s="16"/>
     </row>
     <row r="378" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="6"/>
-      <c r="B378" s="16"/>
-      <c r="C378" s="16"/>
-      <c r="D378" s="17"/>
-      <c r="E378" s="17"/>
-      <c r="F378" s="17"/>
-      <c r="G378" s="17"/>
-      <c r="H378" s="16"/>
-      <c r="I378" s="17"/>
-      <c r="J378" s="17"/>
+      <c r="B378" s="15"/>
+      <c r="C378" s="15"/>
+      <c r="D378" s="16"/>
+      <c r="E378" s="16"/>
+      <c r="F378" s="16"/>
+      <c r="G378" s="16"/>
+      <c r="H378" s="15"/>
+      <c r="I378" s="16"/>
+      <c r="J378" s="16"/>
     </row>
     <row r="379" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="6"/>
-      <c r="B379" s="16"/>
-      <c r="C379" s="16"/>
-      <c r="D379" s="17"/>
-      <c r="E379" s="17"/>
-      <c r="F379" s="17"/>
-      <c r="G379" s="17"/>
-      <c r="H379" s="16"/>
-      <c r="I379" s="17"/>
-      <c r="J379" s="17"/>
+      <c r="B379" s="15"/>
+      <c r="C379" s="15"/>
+      <c r="D379" s="16"/>
+      <c r="E379" s="16"/>
+      <c r="F379" s="16"/>
+      <c r="G379" s="16"/>
+      <c r="H379" s="15"/>
+      <c r="I379" s="16"/>
+      <c r="J379" s="16"/>
     </row>
     <row r="380" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="6"/>
-      <c r="B380" s="16"/>
-      <c r="C380" s="16"/>
-      <c r="D380" s="17"/>
-      <c r="E380" s="17"/>
-      <c r="F380" s="17"/>
-      <c r="G380" s="17"/>
-      <c r="H380" s="16"/>
-      <c r="I380" s="17"/>
-      <c r="J380" s="17"/>
+      <c r="B380" s="15"/>
+      <c r="C380" s="15"/>
+      <c r="D380" s="16"/>
+      <c r="E380" s="16"/>
+      <c r="F380" s="16"/>
+      <c r="G380" s="16"/>
+      <c r="H380" s="15"/>
+      <c r="I380" s="16"/>
+      <c r="J380" s="16"/>
     </row>
     <row r="381" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B381" s="17"/>
-      <c r="C381" s="17"/>
-      <c r="D381" s="17"/>
-      <c r="E381" s="17"/>
-      <c r="F381" s="17"/>
-      <c r="G381" s="17"/>
-      <c r="H381" s="17"/>
-      <c r="I381" s="17"/>
-      <c r="J381" s="17"/>
+      <c r="A381" s="6"/>
+      <c r="B381" s="15"/>
+      <c r="C381" s="15"/>
+      <c r="D381" s="16"/>
+      <c r="E381" s="16"/>
+      <c r="F381" s="16"/>
+      <c r="G381" s="16"/>
+      <c r="H381" s="15"/>
+      <c r="I381" s="16"/>
+      <c r="J381" s="16"/>
     </row>
     <row r="382" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B382" s="17"/>
-      <c r="C382" s="17"/>
-      <c r="D382" s="17"/>
-      <c r="E382" s="17"/>
-      <c r="F382" s="17"/>
-      <c r="G382" s="17"/>
-      <c r="H382" s="17"/>
-      <c r="I382" s="17"/>
-      <c r="J382" s="17"/>
+      <c r="A382" s="6"/>
+      <c r="B382" s="15"/>
+      <c r="C382" s="15"/>
+      <c r="D382" s="16"/>
+      <c r="E382" s="16"/>
+      <c r="F382" s="16"/>
+      <c r="G382" s="16"/>
+      <c r="H382" s="15"/>
+      <c r="I382" s="16"/>
+      <c r="J382" s="16"/>
     </row>
     <row r="383" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B383" s="17"/>
-      <c r="C383" s="17"/>
-      <c r="D383" s="17"/>
-      <c r="E383" s="17"/>
-      <c r="F383" s="17"/>
-      <c r="G383" s="17"/>
-      <c r="H383" s="17"/>
-      <c r="I383" s="17"/>
-      <c r="J383" s="17"/>
+      <c r="B383" s="16"/>
+      <c r="C383" s="16"/>
+      <c r="D383" s="16"/>
+      <c r="E383" s="16"/>
+      <c r="F383" s="16"/>
+      <c r="G383" s="16"/>
+      <c r="H383" s="16"/>
+      <c r="I383" s="16"/>
+      <c r="J383" s="16"/>
     </row>
     <row r="384" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B384" s="17"/>
-      <c r="C384" s="17"/>
-      <c r="D384" s="17"/>
-      <c r="E384" s="17"/>
-      <c r="F384" s="17"/>
-      <c r="G384" s="17"/>
-      <c r="H384" s="17"/>
-      <c r="I384" s="17"/>
-      <c r="J384" s="17"/>
+      <c r="B384" s="16"/>
+      <c r="C384" s="16"/>
+      <c r="D384" s="16"/>
+      <c r="E384" s="16"/>
+      <c r="F384" s="16"/>
+      <c r="G384" s="16"/>
+      <c r="H384" s="16"/>
+      <c r="I384" s="16"/>
+      <c r="J384" s="16"/>
     </row>
     <row r="385" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B385" s="17"/>
-      <c r="C385" s="17"/>
-      <c r="D385" s="17"/>
-      <c r="E385" s="17"/>
-      <c r="F385" s="17"/>
-      <c r="G385" s="17"/>
-      <c r="H385" s="17"/>
-      <c r="I385" s="17"/>
-      <c r="J385" s="17"/>
+      <c r="B385" s="16"/>
+      <c r="C385" s="16"/>
+      <c r="D385" s="16"/>
+      <c r="E385" s="16"/>
+      <c r="F385" s="16"/>
+      <c r="G385" s="16"/>
+      <c r="H385" s="16"/>
+      <c r="I385" s="16"/>
+      <c r="J385" s="16"/>
     </row>
     <row r="386" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B386" s="17"/>
-      <c r="C386" s="17"/>
-      <c r="D386" s="17"/>
-      <c r="E386" s="17"/>
-      <c r="F386" s="17"/>
-      <c r="G386" s="17"/>
-      <c r="H386" s="17"/>
-      <c r="I386" s="17"/>
-      <c r="J386" s="17"/>
+      <c r="B386" s="16"/>
+      <c r="C386" s="16"/>
+      <c r="D386" s="16"/>
+      <c r="E386" s="16"/>
+      <c r="F386" s="16"/>
+      <c r="G386" s="16"/>
+      <c r="H386" s="16"/>
+      <c r="I386" s="16"/>
+      <c r="J386" s="16"/>
     </row>
     <row r="387" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B387" s="17"/>
-      <c r="C387" s="17"/>
-      <c r="D387" s="17"/>
-      <c r="E387" s="17"/>
-      <c r="F387" s="17"/>
-      <c r="G387" s="17"/>
-      <c r="H387" s="17"/>
-      <c r="I387" s="17"/>
-      <c r="J387" s="17"/>
+      <c r="B387" s="16"/>
+      <c r="C387" s="16"/>
+      <c r="D387" s="16"/>
+      <c r="E387" s="16"/>
+      <c r="F387" s="16"/>
+      <c r="G387" s="16"/>
+      <c r="H387" s="16"/>
+      <c r="I387" s="16"/>
+      <c r="J387" s="16"/>
     </row>
     <row r="388" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B388" s="17"/>
-      <c r="C388" s="17"/>
-      <c r="D388" s="17"/>
-      <c r="E388" s="17"/>
-      <c r="F388" s="17"/>
-      <c r="G388" s="17"/>
-      <c r="H388" s="17"/>
-      <c r="I388" s="17"/>
-      <c r="J388" s="17"/>
+      <c r="B388" s="16"/>
+      <c r="C388" s="16"/>
+      <c r="D388" s="16"/>
+      <c r="E388" s="16"/>
+      <c r="F388" s="16"/>
+      <c r="G388" s="16"/>
+      <c r="H388" s="16"/>
+      <c r="I388" s="16"/>
+      <c r="J388" s="16"/>
     </row>
     <row r="389" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B389" s="17"/>
-      <c r="C389" s="17"/>
-      <c r="D389" s="17"/>
-      <c r="E389" s="17"/>
-      <c r="F389" s="17"/>
-      <c r="G389" s="17"/>
-      <c r="H389" s="17"/>
-      <c r="I389" s="17"/>
-      <c r="J389" s="17"/>
+      <c r="B389" s="16"/>
+      <c r="C389" s="16"/>
+      <c r="D389" s="16"/>
+      <c r="E389" s="16"/>
+      <c r="F389" s="16"/>
+      <c r="G389" s="16"/>
+      <c r="H389" s="16"/>
+      <c r="I389" s="16"/>
+      <c r="J389" s="16"/>
     </row>
     <row r="390" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B390" s="17"/>
-      <c r="C390" s="17"/>
-      <c r="D390" s="17"/>
-      <c r="E390" s="17"/>
-      <c r="F390" s="17"/>
-      <c r="G390" s="17"/>
-      <c r="H390" s="17"/>
-      <c r="I390" s="17"/>
-      <c r="J390" s="17"/>
+      <c r="B390" s="16"/>
+      <c r="C390" s="16"/>
+      <c r="D390" s="16"/>
+      <c r="E390" s="16"/>
+      <c r="F390" s="16"/>
+      <c r="G390" s="16"/>
+      <c r="H390" s="16"/>
+      <c r="I390" s="16"/>
+      <c r="J390" s="16"/>
     </row>
     <row r="391" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B391" s="17"/>
-      <c r="C391" s="17"/>
-      <c r="D391" s="17"/>
-      <c r="E391" s="17"/>
-      <c r="F391" s="17"/>
-      <c r="G391" s="17"/>
-      <c r="H391" s="17"/>
-      <c r="I391" s="17"/>
-      <c r="J391" s="17"/>
+      <c r="B391" s="16"/>
+      <c r="C391" s="16"/>
+      <c r="D391" s="16"/>
+      <c r="E391" s="16"/>
+      <c r="F391" s="16"/>
+      <c r="G391" s="16"/>
+      <c r="H391" s="16"/>
+      <c r="I391" s="16"/>
+      <c r="J391" s="16"/>
     </row>
     <row r="392" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="17"/>
-      <c r="C392" s="17"/>
-      <c r="D392" s="17"/>
-      <c r="E392" s="17"/>
-      <c r="F392" s="17"/>
-      <c r="G392" s="17"/>
-      <c r="H392" s="17"/>
-      <c r="I392" s="17"/>
-      <c r="J392" s="17"/>
+      <c r="B392" s="16"/>
+      <c r="C392" s="16"/>
+      <c r="D392" s="16"/>
+      <c r="E392" s="16"/>
+      <c r="F392" s="16"/>
+      <c r="G392" s="16"/>
+      <c r="H392" s="16"/>
+      <c r="I392" s="16"/>
+      <c r="J392" s="16"/>
     </row>
     <row r="393" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B393" s="17"/>
-      <c r="C393" s="17"/>
-      <c r="D393" s="17"/>
-      <c r="E393" s="17"/>
-      <c r="F393" s="17"/>
-      <c r="G393" s="17"/>
-      <c r="H393" s="17"/>
-      <c r="I393" s="17"/>
-      <c r="J393" s="17"/>
+      <c r="B393" s="16"/>
+      <c r="C393" s="16"/>
+      <c r="D393" s="16"/>
+      <c r="E393" s="16"/>
+      <c r="F393" s="16"/>
+      <c r="G393" s="16"/>
+      <c r="H393" s="16"/>
+      <c r="I393" s="16"/>
+      <c r="J393" s="16"/>
     </row>
     <row r="394" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="17"/>
-      <c r="C394" s="17"/>
-      <c r="D394" s="17"/>
-      <c r="E394" s="17"/>
-      <c r="F394" s="17"/>
-      <c r="G394" s="17"/>
-      <c r="H394" s="17"/>
-      <c r="I394" s="17"/>
-      <c r="J394" s="17"/>
+      <c r="B394" s="16"/>
+      <c r="C394" s="16"/>
+      <c r="D394" s="16"/>
+      <c r="E394" s="16"/>
+      <c r="F394" s="16"/>
+      <c r="G394" s="16"/>
+      <c r="H394" s="16"/>
+      <c r="I394" s="16"/>
+      <c r="J394" s="16"/>
     </row>
     <row r="395" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B395" s="17"/>
-      <c r="C395" s="17"/>
-      <c r="D395" s="17"/>
-      <c r="E395" s="17"/>
-      <c r="F395" s="17"/>
-      <c r="G395" s="17"/>
-      <c r="H395" s="17"/>
-      <c r="I395" s="17"/>
-      <c r="J395" s="17"/>
+      <c r="B395" s="16"/>
+      <c r="C395" s="16"/>
+      <c r="D395" s="16"/>
+      <c r="E395" s="16"/>
+      <c r="F395" s="16"/>
+      <c r="G395" s="16"/>
+      <c r="H395" s="16"/>
+      <c r="I395" s="16"/>
+      <c r="J395" s="16"/>
     </row>
     <row r="396" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="17"/>
-      <c r="C396" s="17"/>
-      <c r="D396" s="17"/>
-      <c r="E396" s="17"/>
-      <c r="F396" s="17"/>
-      <c r="G396" s="17"/>
-      <c r="H396" s="17"/>
-      <c r="I396" s="17"/>
-      <c r="J396" s="17"/>
+      <c r="B396" s="16"/>
+      <c r="C396" s="16"/>
+      <c r="D396" s="16"/>
+      <c r="E396" s="16"/>
+      <c r="F396" s="16"/>
+      <c r="G396" s="16"/>
+      <c r="H396" s="16"/>
+      <c r="I396" s="16"/>
+      <c r="J396" s="16"/>
     </row>
     <row r="397" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="17"/>
-      <c r="C397" s="17"/>
-      <c r="D397" s="17"/>
-      <c r="E397" s="17"/>
-      <c r="F397" s="17"/>
-      <c r="G397" s="17"/>
-      <c r="H397" s="17"/>
-      <c r="I397" s="17"/>
-      <c r="J397" s="17"/>
+      <c r="B397" s="16"/>
+      <c r="C397" s="16"/>
+      <c r="D397" s="16"/>
+      <c r="E397" s="16"/>
+      <c r="F397" s="16"/>
+      <c r="G397" s="16"/>
+      <c r="H397" s="16"/>
+      <c r="I397" s="16"/>
+      <c r="J397" s="16"/>
     </row>
     <row r="398" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="17"/>
-      <c r="C398" s="17"/>
-      <c r="D398" s="17"/>
-      <c r="E398" s="17"/>
-      <c r="F398" s="17"/>
-      <c r="G398" s="17"/>
-      <c r="H398" s="17"/>
-      <c r="I398" s="17"/>
-      <c r="J398" s="17"/>
+      <c r="B398" s="16"/>
+      <c r="C398" s="16"/>
+      <c r="D398" s="16"/>
+      <c r="E398" s="16"/>
+      <c r="F398" s="16"/>
+      <c r="G398" s="16"/>
+      <c r="H398" s="16"/>
+      <c r="I398" s="16"/>
+      <c r="J398" s="16"/>
     </row>
     <row r="399" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="17"/>
-      <c r="C399" s="17"/>
-      <c r="D399" s="17"/>
-      <c r="E399" s="17"/>
-      <c r="F399" s="17"/>
-      <c r="G399" s="17"/>
-      <c r="H399" s="17"/>
-      <c r="I399" s="17"/>
-      <c r="J399" s="17"/>
+      <c r="B399" s="16"/>
+      <c r="C399" s="16"/>
+      <c r="D399" s="16"/>
+      <c r="E399" s="16"/>
+      <c r="F399" s="16"/>
+      <c r="G399" s="16"/>
+      <c r="H399" s="16"/>
+      <c r="I399" s="16"/>
+      <c r="J399" s="16"/>
     </row>
     <row r="400" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B400" s="17"/>
-      <c r="C400" s="17"/>
-      <c r="D400" s="17"/>
-      <c r="E400" s="17"/>
-      <c r="F400" s="17"/>
-      <c r="G400" s="17"/>
-      <c r="H400" s="17"/>
-      <c r="I400" s="17"/>
-      <c r="J400" s="17"/>
+      <c r="B400" s="16"/>
+      <c r="C400" s="16"/>
+      <c r="D400" s="16"/>
+      <c r="E400" s="16"/>
+      <c r="F400" s="16"/>
+      <c r="G400" s="16"/>
+      <c r="H400" s="16"/>
+      <c r="I400" s="16"/>
+      <c r="J400" s="16"/>
     </row>
     <row r="401" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="17"/>
-      <c r="C401" s="17"/>
-      <c r="D401" s="17"/>
-      <c r="E401" s="17"/>
-      <c r="F401" s="17"/>
-      <c r="G401" s="17"/>
-      <c r="H401" s="17"/>
-      <c r="I401" s="17"/>
-      <c r="J401" s="17"/>
+      <c r="B401" s="16"/>
+      <c r="C401" s="16"/>
+      <c r="D401" s="16"/>
+      <c r="E401" s="16"/>
+      <c r="F401" s="16"/>
+      <c r="G401" s="16"/>
+      <c r="H401" s="16"/>
+      <c r="I401" s="16"/>
+      <c r="J401" s="16"/>
     </row>
     <row r="402" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
-      <c r="D402" s="17"/>
-      <c r="E402" s="17"/>
-      <c r="F402" s="17"/>
-      <c r="G402" s="17"/>
-      <c r="H402" s="17"/>
-      <c r="I402" s="17"/>
-      <c r="J402" s="17"/>
+      <c r="B402" s="16"/>
+      <c r="C402" s="16"/>
+      <c r="D402" s="16"/>
+      <c r="E402" s="16"/>
+      <c r="F402" s="16"/>
+      <c r="G402" s="16"/>
+      <c r="H402" s="16"/>
+      <c r="I402" s="16"/>
+      <c r="J402" s="16"/>
     </row>
     <row r="403" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B403" s="17"/>
-      <c r="C403" s="17"/>
-      <c r="D403" s="17"/>
-      <c r="E403" s="17"/>
-      <c r="F403" s="17"/>
-      <c r="G403" s="17"/>
-      <c r="H403" s="17"/>
-      <c r="I403" s="17"/>
-      <c r="J403" s="17"/>
+      <c r="B403" s="16"/>
+      <c r="C403" s="16"/>
+      <c r="D403" s="16"/>
+      <c r="E403" s="16"/>
+      <c r="F403" s="16"/>
+      <c r="G403" s="16"/>
+      <c r="H403" s="16"/>
+      <c r="I403" s="16"/>
+      <c r="J403" s="16"/>
     </row>
     <row r="404" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B404" s="17"/>
-      <c r="C404" s="17"/>
-      <c r="D404" s="17"/>
-      <c r="E404" s="17"/>
-      <c r="F404" s="17"/>
-      <c r="G404" s="17"/>
-      <c r="H404" s="17"/>
-      <c r="I404" s="17"/>
-      <c r="J404" s="17"/>
+      <c r="B404" s="16"/>
+      <c r="C404" s="16"/>
+      <c r="D404" s="16"/>
+      <c r="E404" s="16"/>
+      <c r="F404" s="16"/>
+      <c r="G404" s="16"/>
+      <c r="H404" s="16"/>
+      <c r="I404" s="16"/>
+      <c r="J404" s="16"/>
     </row>
     <row r="405" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B405" s="17"/>
-      <c r="C405" s="17"/>
-      <c r="D405" s="17"/>
-      <c r="E405" s="17"/>
-      <c r="F405" s="17"/>
-      <c r="G405" s="17"/>
-      <c r="H405" s="17"/>
-      <c r="I405" s="17"/>
-      <c r="J405" s="17"/>
+      <c r="B405" s="16"/>
+      <c r="C405" s="16"/>
+      <c r="D405" s="16"/>
+      <c r="E405" s="16"/>
+      <c r="F405" s="16"/>
+      <c r="G405" s="16"/>
+      <c r="H405" s="16"/>
+      <c r="I405" s="16"/>
+      <c r="J405" s="16"/>
     </row>
     <row r="406" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="17"/>
-      <c r="C406" s="17"/>
-      <c r="D406" s="17"/>
-      <c r="E406" s="17"/>
-      <c r="F406" s="17"/>
-      <c r="G406" s="17"/>
-      <c r="H406" s="17"/>
-      <c r="I406" s="17"/>
-      <c r="J406" s="17"/>
+      <c r="B406" s="16"/>
+      <c r="C406" s="16"/>
+      <c r="D406" s="16"/>
+      <c r="E406" s="16"/>
+      <c r="F406" s="16"/>
+      <c r="G406" s="16"/>
+      <c r="H406" s="16"/>
+      <c r="I406" s="16"/>
+      <c r="J406" s="16"/>
     </row>
     <row r="407" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B407" s="17"/>
-      <c r="C407" s="17"/>
-      <c r="D407" s="17"/>
-      <c r="E407" s="17"/>
-      <c r="F407" s="17"/>
-      <c r="G407" s="17"/>
-      <c r="H407" s="17"/>
-      <c r="I407" s="17"/>
-      <c r="J407" s="17"/>
+      <c r="B407" s="16"/>
+      <c r="C407" s="16"/>
+      <c r="D407" s="16"/>
+      <c r="E407" s="16"/>
+      <c r="F407" s="16"/>
+      <c r="G407" s="16"/>
+      <c r="H407" s="16"/>
+      <c r="I407" s="16"/>
+      <c r="J407" s="16"/>
     </row>
     <row r="408" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="17"/>
-      <c r="C408" s="17"/>
-      <c r="D408" s="17"/>
-      <c r="E408" s="17"/>
-      <c r="F408" s="17"/>
-      <c r="G408" s="17"/>
-      <c r="H408" s="17"/>
-      <c r="I408" s="17"/>
-      <c r="J408" s="17"/>
+      <c r="B408" s="16"/>
+      <c r="C408" s="16"/>
+      <c r="D408" s="16"/>
+      <c r="E408" s="16"/>
+      <c r="F408" s="16"/>
+      <c r="G408" s="16"/>
+      <c r="H408" s="16"/>
+      <c r="I408" s="16"/>
+      <c r="J408" s="16"/>
     </row>
     <row r="409" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="17"/>
-      <c r="C409" s="17"/>
-      <c r="D409" s="17"/>
-      <c r="E409" s="17"/>
-      <c r="F409" s="17"/>
-      <c r="G409" s="17"/>
-      <c r="H409" s="17"/>
-      <c r="I409" s="17"/>
-      <c r="J409" s="17"/>
+      <c r="B409" s="16"/>
+      <c r="C409" s="16"/>
+      <c r="D409" s="16"/>
+      <c r="E409" s="16"/>
+      <c r="F409" s="16"/>
+      <c r="G409" s="16"/>
+      <c r="H409" s="16"/>
+      <c r="I409" s="16"/>
+      <c r="J409" s="16"/>
     </row>
     <row r="410" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B410" s="17"/>
-      <c r="C410" s="17"/>
-      <c r="D410" s="17"/>
-      <c r="E410" s="17"/>
-      <c r="F410" s="17"/>
-      <c r="G410" s="17"/>
-      <c r="H410" s="17"/>
-      <c r="I410" s="17"/>
-      <c r="J410" s="17"/>
+      <c r="B410" s="16"/>
+      <c r="C410" s="16"/>
+      <c r="D410" s="16"/>
+      <c r="E410" s="16"/>
+      <c r="F410" s="16"/>
+      <c r="G410" s="16"/>
+      <c r="H410" s="16"/>
+      <c r="I410" s="16"/>
+      <c r="J410" s="16"/>
     </row>
     <row r="411" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B411" s="17"/>
-      <c r="C411" s="17"/>
-      <c r="D411" s="17"/>
-      <c r="E411" s="17"/>
-      <c r="F411" s="17"/>
-      <c r="G411" s="17"/>
-      <c r="H411" s="17"/>
-      <c r="I411" s="17"/>
-      <c r="J411" s="17"/>
+      <c r="B411" s="16"/>
+      <c r="C411" s="16"/>
+      <c r="D411" s="16"/>
+      <c r="E411" s="16"/>
+      <c r="F411" s="16"/>
+      <c r="G411" s="16"/>
+      <c r="H411" s="16"/>
+      <c r="I411" s="16"/>
+      <c r="J411" s="16"/>
     </row>
     <row r="412" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B412" s="17"/>
-      <c r="C412" s="17"/>
-      <c r="D412" s="17"/>
-      <c r="E412" s="17"/>
-      <c r="F412" s="17"/>
-      <c r="G412" s="17"/>
-      <c r="H412" s="17"/>
-      <c r="I412" s="17"/>
-      <c r="J412" s="17"/>
+      <c r="B412" s="16"/>
+      <c r="C412" s="16"/>
+      <c r="D412" s="16"/>
+      <c r="E412" s="16"/>
+      <c r="F412" s="16"/>
+      <c r="G412" s="16"/>
+      <c r="H412" s="16"/>
+      <c r="I412" s="16"/>
+      <c r="J412" s="16"/>
     </row>
     <row r="413" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B413" s="17"/>
-      <c r="C413" s="17"/>
-      <c r="D413" s="17"/>
-      <c r="E413" s="17"/>
-      <c r="F413" s="17"/>
-      <c r="G413" s="17"/>
-      <c r="H413" s="17"/>
-      <c r="I413" s="17"/>
-      <c r="J413" s="17"/>
+      <c r="B413" s="16"/>
+      <c r="C413" s="16"/>
+      <c r="D413" s="16"/>
+      <c r="E413" s="16"/>
+      <c r="F413" s="16"/>
+      <c r="G413" s="16"/>
+      <c r="H413" s="16"/>
+      <c r="I413" s="16"/>
+      <c r="J413" s="16"/>
     </row>
     <row r="414" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B414" s="17"/>
-      <c r="C414" s="17"/>
-      <c r="D414" s="17"/>
-      <c r="E414" s="17"/>
-      <c r="F414" s="17"/>
-      <c r="G414" s="17"/>
-      <c r="H414" s="17"/>
-      <c r="I414" s="17"/>
-      <c r="J414" s="17"/>
+      <c r="B414" s="16"/>
+      <c r="C414" s="16"/>
+      <c r="D414" s="16"/>
+      <c r="E414" s="16"/>
+      <c r="F414" s="16"/>
+      <c r="G414" s="16"/>
+      <c r="H414" s="16"/>
+      <c r="I414" s="16"/>
+      <c r="J414" s="16"/>
     </row>
     <row r="415" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B415" s="17"/>
-      <c r="C415" s="17"/>
-      <c r="D415" s="17"/>
-      <c r="E415" s="17"/>
-      <c r="F415" s="17"/>
-      <c r="G415" s="17"/>
-      <c r="H415" s="17"/>
-      <c r="I415" s="17"/>
-      <c r="J415" s="17"/>
+      <c r="B415" s="16"/>
+      <c r="C415" s="16"/>
+      <c r="D415" s="16"/>
+      <c r="E415" s="16"/>
+      <c r="F415" s="16"/>
+      <c r="G415" s="16"/>
+      <c r="H415" s="16"/>
+      <c r="I415" s="16"/>
+      <c r="J415" s="16"/>
+    </row>
+    <row r="416" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B416" s="16"/>
+      <c r="C416" s="16"/>
+      <c r="D416" s="16"/>
+      <c r="E416" s="16"/>
+      <c r="F416" s="16"/>
+      <c r="G416" s="16"/>
+      <c r="H416" s="16"/>
+      <c r="I416" s="16"/>
+      <c r="J416" s="16"/>
+    </row>
+    <row r="417" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B417" s="16"/>
+      <c r="C417" s="16"/>
+      <c r="D417" s="16"/>
+      <c r="E417" s="16"/>
+      <c r="F417" s="16"/>
+      <c r="G417" s="16"/>
+      <c r="H417" s="16"/>
+      <c r="I417" s="16"/>
+      <c r="J417" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.43350000000000005" right="0.23620000000000002" top="0.98390000000000022" bottom="0.82720000000000016" header="0.59020000000000006" footer="0.43350000000000005"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -15989,36 +16457,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>26</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>162</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -16030,19 +16498,19 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>26</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>166</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -16054,19 +16522,19 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>27</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>170</v>
       </c>
       <c r="I4" s="3">
@@ -16075,211 +16543,211 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>26</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>27</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>27</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>23</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>23</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>22</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>20</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>18</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>17</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="27">
         <f>SUM(C2:C14)</f>
         <v>302</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
+      <c r="A20" s="32">
         <v>1</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>205</v>
       </c>
     </row>
@@ -16300,11 +16768,11 @@
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="37" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="35" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="7.875" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="35" customWidth="1"/>
     <col min="8" max="1024" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16315,7 +16783,7 @@
       <c r="B1" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>157</v>
       </c>
       <c r="E1" t="s">
@@ -16329,16 +16797,16 @@
       <c r="B2" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="35">
         <v>5000000</v>
       </c>
       <c r="E2">
         <v>302</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="35">
         <v>800000</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="35">
         <f>F2*E2</f>
         <v>241600000</v>
       </c>
@@ -16350,16 +16818,16 @@
       <c r="B3" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="35">
         <v>5000000</v>
       </c>
       <c r="E3">
         <v>302</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="35">
         <v>25000</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="35">
         <f>F3*E3</f>
         <v>7550000</v>
       </c>
@@ -16374,24 +16842,24 @@
       <c r="D4" t="s">
         <v>211</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="35">
         <f>G2-G3</f>
         <v>234050000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="38" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="38">
+    <row r="5" spans="1:7" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -16400,7 +16868,7 @@
       <c r="B6" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="35">
         <f>(800000*105)-C2-C3</f>
         <v>74000000</v>
       </c>
@@ -16412,7 +16880,7 @@
       <c r="B7" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="35">
         <f>75*800000</f>
         <v>60000000</v>
       </c>
@@ -16424,7 +16892,7 @@
       <c r="B8" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="35">
         <f>122*800000</f>
         <v>97600000</v>
       </c>
@@ -16433,22 +16901,22 @@
       <c r="B10" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="35">
         <f>SUM(C2:C9)</f>
         <v>241600000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <f>G2-C10</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="37">
+      <c r="C13" s="35">
         <f>C11/800000</f>
         <v>0</v>
       </c>
@@ -16468,10 +16936,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="16" customWidth="1"/>
     <col min="2" max="2" width="39.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="16" customWidth="1"/>
     <col min="5" max="1024" width="10.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20691,523 +21159,523 @@
     </row>
     <row r="302" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6"/>
-      <c r="B302" s="16"/>
-      <c r="C302" s="16"/>
+      <c r="B302" s="15"/>
+      <c r="C302" s="15"/>
     </row>
     <row r="303" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6"/>
-      <c r="B303" s="16"/>
-      <c r="C303" s="16"/>
+      <c r="B303" s="15"/>
+      <c r="C303" s="15"/>
     </row>
     <row r="304" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6"/>
-      <c r="B304" s="16"/>
-      <c r="C304" s="16"/>
+      <c r="B304" s="15"/>
+      <c r="C304" s="15"/>
     </row>
     <row r="305" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6"/>
-      <c r="B305" s="16"/>
-      <c r="C305" s="16"/>
+      <c r="B305" s="15"/>
+      <c r="C305" s="15"/>
     </row>
     <row r="306" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6"/>
-      <c r="B306" s="16"/>
-      <c r="C306" s="16"/>
+      <c r="B306" s="15"/>
+      <c r="C306" s="15"/>
     </row>
     <row r="307" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6"/>
-      <c r="B307" s="16"/>
-      <c r="C307" s="16"/>
+      <c r="B307" s="15"/>
+      <c r="C307" s="15"/>
     </row>
     <row r="308" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6"/>
-      <c r="B308" s="16"/>
-      <c r="C308" s="16"/>
+      <c r="B308" s="15"/>
+      <c r="C308" s="15"/>
     </row>
     <row r="309" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6"/>
-      <c r="B309" s="16"/>
-      <c r="C309" s="16"/>
+      <c r="B309" s="15"/>
+      <c r="C309" s="15"/>
     </row>
     <row r="310" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6"/>
-      <c r="B310" s="16"/>
-      <c r="C310" s="16"/>
+      <c r="B310" s="15"/>
+      <c r="C310" s="15"/>
     </row>
     <row r="311" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6"/>
-      <c r="B311" s="16"/>
-      <c r="C311" s="16"/>
+      <c r="B311" s="15"/>
+      <c r="C311" s="15"/>
     </row>
     <row r="312" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6"/>
-      <c r="B312" s="16"/>
-      <c r="C312" s="16"/>
+      <c r="B312" s="15"/>
+      <c r="C312" s="15"/>
     </row>
     <row r="313" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6"/>
-      <c r="B313" s="16"/>
-      <c r="C313" s="16"/>
+      <c r="B313" s="15"/>
+      <c r="C313" s="15"/>
     </row>
     <row r="314" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6"/>
-      <c r="B314" s="16"/>
-      <c r="C314" s="16"/>
+      <c r="B314" s="15"/>
+      <c r="C314" s="15"/>
     </row>
     <row r="315" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6"/>
-      <c r="B315" s="16"/>
-      <c r="C315" s="16"/>
+      <c r="B315" s="15"/>
+      <c r="C315" s="15"/>
     </row>
     <row r="316" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6"/>
-      <c r="B316" s="16"/>
-      <c r="C316" s="16"/>
+      <c r="B316" s="15"/>
+      <c r="C316" s="15"/>
     </row>
     <row r="317" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6"/>
-      <c r="B317" s="16"/>
-      <c r="C317" s="16"/>
+      <c r="B317" s="15"/>
+      <c r="C317" s="15"/>
     </row>
     <row r="318" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6"/>
-      <c r="B318" s="16"/>
-      <c r="C318" s="16"/>
+      <c r="B318" s="15"/>
+      <c r="C318" s="15"/>
     </row>
     <row r="319" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6"/>
-      <c r="B319" s="16"/>
-      <c r="C319" s="16"/>
+      <c r="B319" s="15"/>
+      <c r="C319" s="15"/>
     </row>
     <row r="320" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="6"/>
-      <c r="B320" s="16"/>
-      <c r="C320" s="16"/>
+      <c r="B320" s="15"/>
+      <c r="C320" s="15"/>
     </row>
     <row r="321" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6"/>
-      <c r="B321" s="16"/>
-      <c r="C321" s="16"/>
+      <c r="B321" s="15"/>
+      <c r="C321" s="15"/>
     </row>
     <row r="322" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6"/>
-      <c r="B322" s="16"/>
-      <c r="C322" s="16"/>
+      <c r="B322" s="15"/>
+      <c r="C322" s="15"/>
     </row>
     <row r="323" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6"/>
-      <c r="B323" s="16"/>
-      <c r="C323" s="16"/>
+      <c r="B323" s="15"/>
+      <c r="C323" s="15"/>
     </row>
     <row r="324" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6"/>
-      <c r="B324" s="16"/>
-      <c r="C324" s="16"/>
+      <c r="B324" s="15"/>
+      <c r="C324" s="15"/>
     </row>
     <row r="325" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6"/>
-      <c r="B325" s="16"/>
-      <c r="C325" s="16"/>
+      <c r="B325" s="15"/>
+      <c r="C325" s="15"/>
     </row>
     <row r="326" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6"/>
-      <c r="B326" s="16"/>
-      <c r="C326" s="16"/>
+      <c r="B326" s="15"/>
+      <c r="C326" s="15"/>
     </row>
     <row r="327" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6"/>
-      <c r="B327" s="16"/>
-      <c r="C327" s="16"/>
+      <c r="B327" s="15"/>
+      <c r="C327" s="15"/>
     </row>
     <row r="328" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
-      <c r="B328" s="16"/>
-      <c r="C328" s="16"/>
+      <c r="B328" s="15"/>
+      <c r="C328" s="15"/>
     </row>
     <row r="329" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6"/>
-      <c r="B329" s="16"/>
-      <c r="C329" s="16"/>
+      <c r="B329" s="15"/>
+      <c r="C329" s="15"/>
     </row>
     <row r="330" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6"/>
-      <c r="B330" s="16"/>
-      <c r="C330" s="16"/>
+      <c r="B330" s="15"/>
+      <c r="C330" s="15"/>
     </row>
     <row r="331" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6"/>
-      <c r="B331" s="16"/>
-      <c r="C331" s="16"/>
+      <c r="B331" s="15"/>
+      <c r="C331" s="15"/>
     </row>
     <row r="332" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6"/>
-      <c r="B332" s="16"/>
-      <c r="C332" s="16"/>
+      <c r="B332" s="15"/>
+      <c r="C332" s="15"/>
     </row>
     <row r="333" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6"/>
-      <c r="B333" s="16"/>
-      <c r="C333" s="16"/>
+      <c r="B333" s="15"/>
+      <c r="C333" s="15"/>
     </row>
     <row r="334" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6"/>
-      <c r="B334" s="16"/>
-      <c r="C334" s="16"/>
+      <c r="B334" s="15"/>
+      <c r="C334" s="15"/>
     </row>
     <row r="335" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6"/>
-      <c r="B335" s="16"/>
-      <c r="C335" s="16"/>
+      <c r="B335" s="15"/>
+      <c r="C335" s="15"/>
     </row>
     <row r="336" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6"/>
-      <c r="B336" s="16"/>
-      <c r="C336" s="16"/>
+      <c r="B336" s="15"/>
+      <c r="C336" s="15"/>
     </row>
     <row r="337" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6"/>
-      <c r="B337" s="16"/>
-      <c r="C337" s="16"/>
+      <c r="B337" s="15"/>
+      <c r="C337" s="15"/>
     </row>
     <row r="338" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6"/>
-      <c r="B338" s="16"/>
-      <c r="C338" s="16"/>
+      <c r="B338" s="15"/>
+      <c r="C338" s="15"/>
     </row>
     <row r="339" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6"/>
-      <c r="B339" s="16"/>
-      <c r="C339" s="16"/>
+      <c r="B339" s="15"/>
+      <c r="C339" s="15"/>
     </row>
     <row r="340" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6"/>
-      <c r="B340" s="16"/>
-      <c r="C340" s="16"/>
+      <c r="B340" s="15"/>
+      <c r="C340" s="15"/>
     </row>
     <row r="341" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="6"/>
-      <c r="B341" s="16"/>
-      <c r="C341" s="16"/>
+      <c r="B341" s="15"/>
+      <c r="C341" s="15"/>
     </row>
     <row r="342" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="6"/>
-      <c r="B342" s="16"/>
-      <c r="C342" s="16"/>
+      <c r="B342" s="15"/>
+      <c r="C342" s="15"/>
     </row>
     <row r="343" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="6"/>
-      <c r="B343" s="16"/>
-      <c r="C343" s="16"/>
+      <c r="B343" s="15"/>
+      <c r="C343" s="15"/>
     </row>
     <row r="344" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="6"/>
-      <c r="B344" s="16"/>
-      <c r="C344" s="16"/>
+      <c r="B344" s="15"/>
+      <c r="C344" s="15"/>
     </row>
     <row r="345" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="6"/>
-      <c r="B345" s="16"/>
-      <c r="C345" s="16"/>
+      <c r="B345" s="15"/>
+      <c r="C345" s="15"/>
     </row>
     <row r="346" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="6"/>
-      <c r="B346" s="16"/>
-      <c r="C346" s="16"/>
+      <c r="B346" s="15"/>
+      <c r="C346" s="15"/>
     </row>
     <row r="347" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="6"/>
-      <c r="B347" s="16"/>
-      <c r="C347" s="16"/>
+      <c r="B347" s="15"/>
+      <c r="C347" s="15"/>
     </row>
     <row r="348" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="6"/>
-      <c r="B348" s="16"/>
-      <c r="C348" s="16"/>
+      <c r="B348" s="15"/>
+      <c r="C348" s="15"/>
     </row>
     <row r="349" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="6"/>
-      <c r="B349" s="16"/>
-      <c r="C349" s="16"/>
+      <c r="B349" s="15"/>
+      <c r="C349" s="15"/>
     </row>
     <row r="350" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="6"/>
-      <c r="B350" s="16"/>
-      <c r="C350" s="16"/>
+      <c r="B350" s="15"/>
+      <c r="C350" s="15"/>
     </row>
     <row r="351" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6"/>
-      <c r="B351" s="16"/>
-      <c r="C351" s="16"/>
+      <c r="B351" s="15"/>
+      <c r="C351" s="15"/>
     </row>
     <row r="352" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6"/>
-      <c r="B352" s="16"/>
-      <c r="C352" s="16"/>
+      <c r="B352" s="15"/>
+      <c r="C352" s="15"/>
     </row>
     <row r="353" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="6"/>
-      <c r="B353" s="16"/>
-      <c r="C353" s="16"/>
+      <c r="B353" s="15"/>
+      <c r="C353" s="15"/>
     </row>
     <row r="354" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="6"/>
-      <c r="B354" s="16"/>
-      <c r="C354" s="16"/>
+      <c r="B354" s="15"/>
+      <c r="C354" s="15"/>
     </row>
     <row r="355" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6"/>
-      <c r="B355" s="16"/>
-      <c r="C355" s="16"/>
+      <c r="B355" s="15"/>
+      <c r="C355" s="15"/>
     </row>
     <row r="356" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6"/>
-      <c r="B356" s="16"/>
-      <c r="C356" s="16"/>
+      <c r="B356" s="15"/>
+      <c r="C356" s="15"/>
     </row>
     <row r="357" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="6"/>
-      <c r="B357" s="16"/>
-      <c r="C357" s="16"/>
+      <c r="B357" s="15"/>
+      <c r="C357" s="15"/>
     </row>
     <row r="358" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="6"/>
-      <c r="B358" s="16"/>
-      <c r="C358" s="16"/>
+      <c r="B358" s="15"/>
+      <c r="C358" s="15"/>
     </row>
     <row r="359" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="6"/>
-      <c r="B359" s="16"/>
-      <c r="C359" s="16"/>
+      <c r="B359" s="15"/>
+      <c r="C359" s="15"/>
     </row>
     <row r="360" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="6"/>
-      <c r="B360" s="16"/>
-      <c r="C360" s="16"/>
+      <c r="B360" s="15"/>
+      <c r="C360" s="15"/>
     </row>
     <row r="361" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="6"/>
-      <c r="B361" s="16"/>
-      <c r="C361" s="16"/>
+      <c r="B361" s="15"/>
+      <c r="C361" s="15"/>
     </row>
     <row r="362" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="6"/>
-      <c r="B362" s="16"/>
-      <c r="C362" s="16"/>
+      <c r="B362" s="15"/>
+      <c r="C362" s="15"/>
     </row>
     <row r="363" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="6"/>
-      <c r="B363" s="16"/>
-      <c r="C363" s="16"/>
+      <c r="B363" s="15"/>
+      <c r="C363" s="15"/>
     </row>
     <row r="364" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="6"/>
-      <c r="B364" s="16"/>
-      <c r="C364" s="16"/>
+      <c r="B364" s="15"/>
+      <c r="C364" s="15"/>
     </row>
     <row r="365" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="6"/>
-      <c r="B365" s="16"/>
-      <c r="C365" s="16"/>
+      <c r="B365" s="15"/>
+      <c r="C365" s="15"/>
     </row>
     <row r="366" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="6"/>
-      <c r="B366" s="16"/>
-      <c r="C366" s="16"/>
+      <c r="B366" s="15"/>
+      <c r="C366" s="15"/>
     </row>
     <row r="367" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="6"/>
-      <c r="B367" s="16"/>
-      <c r="C367" s="16"/>
+      <c r="B367" s="15"/>
+      <c r="C367" s="15"/>
     </row>
     <row r="368" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="6"/>
-      <c r="B368" s="16"/>
-      <c r="C368" s="16"/>
+      <c r="B368" s="15"/>
+      <c r="C368" s="15"/>
     </row>
     <row r="369" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="6"/>
-      <c r="B369" s="16"/>
-      <c r="C369" s="16"/>
+      <c r="B369" s="15"/>
+      <c r="C369" s="15"/>
     </row>
     <row r="370" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="6"/>
-      <c r="B370" s="16"/>
-      <c r="C370" s="16"/>
+      <c r="B370" s="15"/>
+      <c r="C370" s="15"/>
     </row>
     <row r="371" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="6"/>
-      <c r="B371" s="17"/>
-      <c r="C371" s="17"/>
+      <c r="B371" s="16"/>
+      <c r="C371" s="16"/>
     </row>
     <row r="372" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="6"/>
-      <c r="B372" s="17"/>
-      <c r="C372" s="17"/>
+      <c r="B372" s="16"/>
+      <c r="C372" s="16"/>
     </row>
     <row r="373" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="6"/>
-      <c r="B373" s="17"/>
-      <c r="C373" s="17"/>
+      <c r="B373" s="16"/>
+      <c r="C373" s="16"/>
     </row>
     <row r="374" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="6"/>
-      <c r="B374" s="17"/>
-      <c r="C374" s="17"/>
+      <c r="B374" s="16"/>
+      <c r="C374" s="16"/>
     </row>
     <row r="375" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="6"/>
-      <c r="B375" s="17"/>
-      <c r="C375" s="17"/>
+      <c r="B375" s="16"/>
+      <c r="C375" s="16"/>
     </row>
     <row r="376" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="6"/>
-      <c r="B376" s="17"/>
-      <c r="C376" s="17"/>
+      <c r="B376" s="16"/>
+      <c r="C376" s="16"/>
     </row>
     <row r="377" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="6"/>
-      <c r="B377" s="17"/>
-      <c r="C377" s="17"/>
+      <c r="B377" s="16"/>
+      <c r="C377" s="16"/>
     </row>
     <row r="378" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="6"/>
-      <c r="B378" s="17"/>
-      <c r="C378" s="17"/>
+      <c r="B378" s="16"/>
+      <c r="C378" s="16"/>
     </row>
     <row r="379" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="6"/>
-      <c r="B379" s="17"/>
-      <c r="C379" s="17"/>
+      <c r="B379" s="16"/>
+      <c r="C379" s="16"/>
     </row>
     <row r="380" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="6"/>
-      <c r="B380" s="17"/>
-      <c r="C380" s="17"/>
+      <c r="B380" s="16"/>
+      <c r="C380" s="16"/>
     </row>
     <row r="381" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="6"/>
-      <c r="B381" s="17"/>
-      <c r="C381" s="17"/>
+      <c r="B381" s="16"/>
+      <c r="C381" s="16"/>
     </row>
     <row r="382" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="6"/>
-      <c r="B382" s="17"/>
-      <c r="C382" s="17"/>
+      <c r="B382" s="16"/>
+      <c r="C382" s="16"/>
     </row>
     <row r="383" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="6"/>
-      <c r="B383" s="17"/>
-      <c r="C383" s="17"/>
+      <c r="B383" s="16"/>
+      <c r="C383" s="16"/>
     </row>
     <row r="384" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="6"/>
-      <c r="B384" s="17"/>
-      <c r="C384" s="17"/>
+      <c r="B384" s="16"/>
+      <c r="C384" s="16"/>
     </row>
     <row r="385" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="6"/>
-      <c r="B385" s="17"/>
-      <c r="C385" s="17"/>
+      <c r="B385" s="16"/>
+      <c r="C385" s="16"/>
     </row>
     <row r="386" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="6"/>
-      <c r="B386" s="17"/>
-      <c r="C386" s="17"/>
+      <c r="B386" s="16"/>
+      <c r="C386" s="16"/>
     </row>
     <row r="387" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6"/>
-      <c r="B387" s="17"/>
-      <c r="C387" s="17"/>
+      <c r="B387" s="16"/>
+      <c r="C387" s="16"/>
     </row>
     <row r="388" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="6"/>
-      <c r="B388" s="17"/>
-      <c r="C388" s="17"/>
+      <c r="B388" s="16"/>
+      <c r="C388" s="16"/>
     </row>
     <row r="389" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="6"/>
-      <c r="B389" s="17"/>
-      <c r="C389" s="17"/>
+      <c r="B389" s="16"/>
+      <c r="C389" s="16"/>
     </row>
     <row r="390" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="6"/>
-      <c r="B390" s="17"/>
-      <c r="C390" s="17"/>
+      <c r="B390" s="16"/>
+      <c r="C390" s="16"/>
     </row>
     <row r="391" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="6"/>
-      <c r="B391" s="17"/>
-      <c r="C391" s="17"/>
+      <c r="B391" s="16"/>
+      <c r="C391" s="16"/>
     </row>
     <row r="392" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="6"/>
-      <c r="B392" s="17"/>
-      <c r="C392" s="17"/>
+      <c r="B392" s="16"/>
+      <c r="C392" s="16"/>
     </row>
     <row r="393" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="6"/>
-      <c r="B393" s="17"/>
-      <c r="C393" s="17"/>
+      <c r="B393" s="16"/>
+      <c r="C393" s="16"/>
     </row>
     <row r="394" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="6"/>
-      <c r="B394" s="17"/>
-      <c r="C394" s="17"/>
+      <c r="B394" s="16"/>
+      <c r="C394" s="16"/>
     </row>
     <row r="395" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="6"/>
-      <c r="B395" s="17"/>
-      <c r="C395" s="17"/>
+      <c r="B395" s="16"/>
+      <c r="C395" s="16"/>
     </row>
     <row r="396" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="6"/>
-      <c r="B396" s="17"/>
-      <c r="C396" s="17"/>
+      <c r="B396" s="16"/>
+      <c r="C396" s="16"/>
     </row>
     <row r="397" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="6"/>
-      <c r="B397" s="17"/>
-      <c r="C397" s="17"/>
+      <c r="B397" s="16"/>
+      <c r="C397" s="16"/>
     </row>
     <row r="398" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="6"/>
-      <c r="B398" s="17"/>
-      <c r="C398" s="17"/>
+      <c r="B398" s="16"/>
+      <c r="C398" s="16"/>
     </row>
     <row r="399" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="6"/>
-      <c r="B399" s="17"/>
-      <c r="C399" s="17"/>
+      <c r="B399" s="16"/>
+      <c r="C399" s="16"/>
     </row>
     <row r="400" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="6"/>
-      <c r="B400" s="17"/>
-      <c r="C400" s="17"/>
+      <c r="B400" s="16"/>
+      <c r="C400" s="16"/>
     </row>
     <row r="401" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="6"/>
-      <c r="B401" s="17"/>
-      <c r="C401" s="17"/>
+      <c r="B401" s="16"/>
+      <c r="C401" s="16"/>
     </row>
     <row r="402" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="6"/>
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
+      <c r="B402" s="16"/>
+      <c r="C402" s="16"/>
     </row>
     <row r="403" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="6"/>
-      <c r="B403" s="17"/>
-      <c r="C403" s="17"/>
+      <c r="B403" s="16"/>
+      <c r="C403" s="16"/>
     </row>
     <row r="404" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="6"/>
-      <c r="B404" s="17"/>
-      <c r="C404" s="17"/>
+      <c r="B404" s="16"/>
+      <c r="C404" s="16"/>
     </row>
     <row r="405" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="6"/>
-      <c r="B405" s="17"/>
-      <c r="C405" s="17"/>
+      <c r="B405" s="16"/>
+      <c r="C405" s="16"/>
     </row>
     <row r="406" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="6"/>

--- a/40. SENAVBAH 2021 BAH(K_1) NAV(K_2)/UKURAN.xlsx
+++ b/40. SENAVBAH 2021 BAH(K_1) NAV(K_2)/UKURAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\40. SENAVBAH 2021 BAH(K_1) NAV(K_2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF530763-3750-4380-BDC0-5DA0D0325CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF5C894-A50F-4B23-971F-A866CAD53879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKURAN" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">'PESAN NAMA'!$A$2:$C$301</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">UKURAN!$A$1:$X$311</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="904">
   <si>
     <t>NO</t>
   </si>
@@ -2736,9 +2736,6 @@
   </si>
   <si>
     <t>V42</t>
-  </si>
-  <si>
-    <t>BLM CETAK NAMA</t>
   </si>
   <si>
     <t>ATHALLAH EKA P.</t>
@@ -3639,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="T69" sqref="T69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4846,7 +4843,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
@@ -4920,7 +4917,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -4994,7 +4991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>66</v>
       </c>
@@ -5142,7 +5139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>68</v>
       </c>
@@ -5216,7 +5213,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>70</v>
       </c>
@@ -5290,7 +5287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
@@ -5364,7 +5361,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>74</v>
       </c>
@@ -5438,7 +5435,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
@@ -5512,7 +5509,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>78</v>
       </c>
@@ -5586,7 +5583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>80</v>
       </c>
@@ -5660,7 +5657,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>82</v>
       </c>
@@ -5734,13 +5731,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>27</v>
@@ -5806,17 +5803,14 @@
       <c r="Y29" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>27</v>
@@ -5882,11 +5876,8 @@
       <c r="Y30" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="Z30" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>84</v>
       </c>
@@ -5960,7 +5951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>88</v>
       </c>
@@ -7221,7 +7212,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>123</v>
       </c>
@@ -7295,7 +7286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>125</v>
       </c>
@@ -7369,7 +7360,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>127</v>
       </c>
@@ -7443,7 +7434,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
@@ -7517,7 +7508,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>131</v>
       </c>
@@ -7591,7 +7582,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>133</v>
       </c>
@@ -7663,7 +7654,7 @@
       </c>
       <c r="X54" s="6"/>
     </row>
-    <row r="55" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>135</v>
       </c>
@@ -7737,7 +7728,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>137</v>
       </c>
@@ -7811,7 +7802,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>139</v>
       </c>
@@ -7885,7 +7876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>141</v>
       </c>
@@ -7959,7 +7950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>143</v>
       </c>
@@ -8033,7 +8024,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>145</v>
       </c>
@@ -8107,7 +8098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>147</v>
       </c>
@@ -8181,7 +8172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>149</v>
       </c>
@@ -8255,7 +8246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>151</v>
       </c>
@@ -8329,7 +8320,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>153</v>
       </c>
@@ -8402,11 +8393,8 @@
       <c r="X64" s="6">
         <v>99</v>
       </c>
-      <c r="Z64" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>155</v>
       </c>
@@ -8479,11 +8467,8 @@
       <c r="X65" s="6">
         <v>98</v>
       </c>
-      <c r="Z65" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>885</v>
       </c>
@@ -8555,11 +8540,8 @@
       <c r="Y66" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>887</v>
       </c>
@@ -8631,11 +8613,8 @@
       <c r="Y67" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="Z67" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>895</v>
       </c>
@@ -8707,11 +8686,8 @@
       <c r="Y68" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="Z68" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>896</v>
       </c>
@@ -8783,11 +8759,8 @@
       <c r="Y69" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="Z69" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>897</v>
       </c>
@@ -8859,11 +8832,8 @@
       <c r="Y70" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="Z70" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>898</v>
       </c>
@@ -8935,11 +8905,8 @@
       <c r="Y71" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="Z71" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>899</v>
       </c>
@@ -9011,11 +8978,8 @@
       <c r="Y72" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -9041,7 +9005,7 @@
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
     </row>
-    <row r="74" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -9067,7 +9031,7 @@
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
     </row>
-    <row r="75" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -9093,7 +9057,7 @@
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
     </row>
-    <row r="76" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -9119,7 +9083,7 @@
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
     </row>
-    <row r="77" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -9145,7 +9109,7 @@
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
     </row>
-    <row r="78" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -9171,7 +9135,7 @@
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
     </row>
-    <row r="79" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9197,7 +9161,7 @@
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
     </row>
-    <row r="80" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>

--- a/40. SENAVBAH 2021 BAH(K_1) NAV(K_2)/UKURAN.xlsx
+++ b/40. SENAVBAH 2021 BAH(K_1) NAV(K_2)/UKURAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\40. SENAVBAH 2021 BAH(K_1) NAV(K_2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF5C894-A50F-4B23-971F-A866CAD53879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AE7437-6ADA-4B84-AF9A-A8116D70C06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>NAMA BORDIR</t>
-  </si>
-  <si>
     <t>PANGKAT</t>
   </si>
   <si>
@@ -2748,6 +2745,9 @@
   </si>
   <si>
     <t>U29</t>
+  </si>
+  <si>
+    <t>NAMA1</t>
   </si>
 </sst>
 </file>
@@ -3298,8 +3298,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:X311" totalsRowShown="0">
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAMA"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NAMA BORDIR"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAMA1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NAMA"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PANGKAT"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="KORPS"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NRP"/>
@@ -3636,15 +3636,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="T69" sqref="T69"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="34.25" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="37.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
     <col min="5" max="6" width="8.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="3" customWidth="1"/>
@@ -3663,102 +3663,102 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F2" s="4">
         <v>133480</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I2" s="6">
         <v>44</v>
@@ -3811,28 +3811,28 @@
     </row>
     <row r="3" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="4">
         <v>133475</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I3" s="6">
         <v>39</v>
@@ -3885,28 +3885,28 @@
     </row>
     <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="4">
         <v>133487</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I4" s="6">
         <v>43</v>
@@ -3959,28 +3959,28 @@
     </row>
     <row r="5" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="4">
         <v>133490</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I5" s="6">
         <v>43</v>
@@ -4033,28 +4033,28 @@
     </row>
     <row r="6" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F6" s="4">
         <v>133473</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I6" s="6">
         <v>45</v>
@@ -4107,28 +4107,28 @@
     </row>
     <row r="7" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F7" s="4">
         <v>133494</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I7" s="6">
         <v>43</v>
@@ -4181,28 +4181,28 @@
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="4">
         <v>133474</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I8" s="6">
         <v>44</v>
@@ -4255,28 +4255,28 @@
     </row>
     <row r="9" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F9" s="4">
         <v>134104</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="6">
         <v>41</v>
@@ -4329,28 +4329,28 @@
     </row>
     <row r="10" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F10" s="4">
         <v>133482</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I10" s="6">
         <v>44</v>
@@ -4403,28 +4403,28 @@
     </row>
     <row r="11" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="C11" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F11" s="4">
         <v>133492</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I11" s="6">
         <v>44</v>
@@ -4477,28 +4477,28 @@
     </row>
     <row r="12" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F12" s="4">
         <v>133481</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I12" s="6">
         <v>43</v>
@@ -4551,28 +4551,28 @@
     </row>
     <row r="13" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F13" s="4">
         <v>133479</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I13" s="6">
         <v>46</v>
@@ -4625,28 +4625,28 @@
     </row>
     <row r="14" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="C14" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F14" s="4">
         <v>133489</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I14" s="6">
         <v>47</v>
@@ -4699,28 +4699,28 @@
     </row>
     <row r="15" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="C15" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F15" s="4">
         <v>134108</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="6">
         <v>44</v>
@@ -4771,28 +4771,28 @@
     </row>
     <row r="16" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F16" s="4">
         <v>133486</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I16" s="6">
         <v>45</v>
@@ -4845,28 +4845,28 @@
     </row>
     <row r="17" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="C17" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F17" s="4">
         <v>133495</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I17" s="6">
         <v>47</v>
@@ -4919,28 +4919,28 @@
     </row>
     <row r="18" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="C18" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F18" s="4">
         <v>133496</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I18" s="6">
         <v>46</v>
@@ -4993,28 +4993,28 @@
     </row>
     <row r="19" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="C19" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F19" s="4">
         <v>133485</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I19" s="6">
         <v>47</v>
@@ -5067,28 +5067,28 @@
     </row>
     <row r="20" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="C20" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F20" s="4">
         <v>133488</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I20" s="6">
         <v>44</v>
@@ -5141,28 +5141,28 @@
     </row>
     <row r="21" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="C21" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F21" s="4">
         <v>134106</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="6">
         <v>42</v>
@@ -5215,28 +5215,28 @@
     </row>
     <row r="22" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="C22" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F22" s="4">
         <v>134107</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="6">
         <v>43</v>
@@ -5289,28 +5289,28 @@
     </row>
     <row r="23" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="C23" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F23" s="4">
         <v>134105</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="6">
         <v>45</v>
@@ -5363,28 +5363,28 @@
     </row>
     <row r="24" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C24" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F24" s="4">
         <v>133484</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I24" s="6">
         <v>45</v>
@@ -5437,28 +5437,28 @@
     </row>
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F25" s="4">
         <v>133493</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I25" s="6">
         <v>45</v>
@@ -5511,28 +5511,28 @@
     </row>
     <row r="26" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="C26" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F26" s="4">
         <v>133476</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I26" s="6">
         <v>46</v>
@@ -5585,28 +5585,28 @@
     </row>
     <row r="27" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="C27" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F27" s="4">
         <v>133483</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I27" s="6">
         <v>45</v>
@@ -5659,28 +5659,28 @@
     </row>
     <row r="28" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="C28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F28" s="4">
         <v>133491</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I28" s="6">
         <v>43</v>
@@ -5733,24 +5733,24 @@
     </row>
     <row r="29" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I29" s="6">
         <v>47</v>
@@ -5801,29 +5801,29 @@
         <v>101</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I30" s="6">
         <v>47</v>
@@ -5874,33 +5874,33 @@
         <v>101</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="F31" s="4">
         <v>133465</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I31" s="6">
         <v>43</v>
@@ -5953,28 +5953,28 @@
     </row>
     <row r="32" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="C32" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" s="4">
         <v>133455</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I32" s="6">
         <v>42</v>
@@ -6027,28 +6027,28 @@
     </row>
     <row r="33" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="C33" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" s="4">
         <v>133458</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I33" s="6">
         <v>42</v>
@@ -6101,28 +6101,28 @@
     </row>
     <row r="34" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="C34" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" s="4">
         <v>133457</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I34" s="6">
         <v>45</v>
@@ -6175,28 +6175,28 @@
     </row>
     <row r="35" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="C35" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" s="4">
         <v>133463</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I35" s="6">
         <v>43</v>
@@ -6252,28 +6252,28 @@
     </row>
     <row r="36" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="C36" s="8" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4">
         <v>133467</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I36" s="6">
         <v>41</v>
@@ -6326,28 +6326,28 @@
     </row>
     <row r="37" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="C37" s="8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="4">
         <v>133472</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I37" s="6">
         <v>44</v>
@@ -6400,28 +6400,28 @@
     </row>
     <row r="38" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="C38" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F38" s="4">
         <v>134098</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I38" s="6">
         <v>40</v>
@@ -6474,28 +6474,28 @@
     </row>
     <row r="39" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="C39" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="4">
         <v>133451</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I39" s="6">
         <v>41</v>
@@ -6548,28 +6548,28 @@
     </row>
     <row r="40" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="C40" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" s="4">
         <v>133439</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I40" s="6">
         <v>43</v>
@@ -6622,28 +6622,28 @@
     </row>
     <row r="41" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="C41" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="4">
         <v>133447</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I41" s="6">
         <v>43</v>
@@ -6696,28 +6696,28 @@
     </row>
     <row r="42" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="C42" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="4">
         <v>133462</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I42" s="6">
         <v>46</v>
@@ -6770,28 +6770,28 @@
     </row>
     <row r="43" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="C43" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" s="4">
         <v>133445</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I43" s="6">
         <v>44</v>
@@ -6844,28 +6844,28 @@
     </row>
     <row r="44" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="C44" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="4">
         <v>133449</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I44" s="6">
         <v>45</v>
@@ -6918,28 +6918,28 @@
     </row>
     <row r="45" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="C45" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="4">
         <v>133454</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I45" s="6">
         <v>42</v>
@@ -6992,28 +6992,28 @@
     </row>
     <row r="46" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="C46" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F46" s="4">
         <v>133466</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I46" s="6">
         <v>46</v>
@@ -7066,28 +7066,28 @@
     </row>
     <row r="47" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="C47" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F47" s="3">
         <v>133456</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I47" s="6">
         <v>47</v>
@@ -7140,28 +7140,28 @@
     </row>
     <row r="48" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="C48" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F48" s="4">
         <v>133496</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I48" s="6">
         <v>45</v>
@@ -7214,28 +7214,28 @@
     </row>
     <row r="49" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="C49" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" s="4">
         <v>133469</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I49" s="6">
         <v>46</v>
@@ -7288,28 +7288,28 @@
     </row>
     <row r="50" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="C50" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F50" s="7">
         <v>133444</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I50" s="6">
         <v>45</v>
@@ -7362,28 +7362,28 @@
     </row>
     <row r="51" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="C51" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" s="7">
         <v>134101</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I51" s="6">
         <v>43</v>
@@ -7436,28 +7436,28 @@
     </row>
     <row r="52" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="C52" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" s="7">
         <v>133452</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I52" s="6">
         <v>45</v>
@@ -7510,28 +7510,28 @@
     </row>
     <row r="53" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="C53" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" s="7">
         <v>133464</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I53" s="6">
         <v>46</v>
@@ -7584,28 +7584,28 @@
     </row>
     <row r="54" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="C54" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F54" s="7">
         <v>133438</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I54" s="6">
         <v>45</v>
@@ -7656,28 +7656,28 @@
     </row>
     <row r="55" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="C55" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F55" s="7">
         <v>133450</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I55" s="6">
         <v>47</v>
@@ -7730,28 +7730,28 @@
     </row>
     <row r="56" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="C56" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F56" s="7">
         <v>133443</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I56" s="6">
         <v>45</v>
@@ -7804,28 +7804,28 @@
     </row>
     <row r="57" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="C57" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F57" s="7">
         <v>133448</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I57" s="6">
         <v>46</v>
@@ -7878,28 +7878,28 @@
     </row>
     <row r="58" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="C58" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F58" s="7">
         <v>133440</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I58" s="6">
         <v>46</v>
@@ -7952,28 +7952,28 @@
     </row>
     <row r="59" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="C59" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F59" s="7">
         <v>134099</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I59" s="6">
         <v>42</v>
@@ -8026,28 +8026,28 @@
     </row>
     <row r="60" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="C60" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F60" s="7">
         <v>133471</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I60" s="6">
         <v>47</v>
@@ -8100,28 +8100,28 @@
     </row>
     <row r="61" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="C61" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F61" s="7">
         <v>134103</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I61" s="6">
         <v>44</v>
@@ -8174,28 +8174,28 @@
     </row>
     <row r="62" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="C62" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F62" s="7">
         <v>134100</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I62" s="6">
         <v>42</v>
@@ -8248,28 +8248,28 @@
     </row>
     <row r="63" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="C63" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F63" s="7">
         <v>133470</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I63" s="6">
         <v>49</v>
@@ -8322,28 +8322,28 @@
     </row>
     <row r="64" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="C64" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F64" s="7">
         <v>134097</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I64" s="6">
         <v>38</v>
@@ -8396,28 +8396,28 @@
     </row>
     <row r="65" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="C65" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F65" s="7">
         <v>134102</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I65" s="6">
         <v>42</v>
@@ -8470,24 +8470,24 @@
     </row>
     <row r="66" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I66" s="6">
         <v>45</v>
@@ -8538,29 +8538,29 @@
         <v>102</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I67" s="6">
         <v>46</v>
@@ -8611,29 +8611,29 @@
         <v>100</v>
       </c>
       <c r="Y67" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I68" s="6">
         <v>46</v>
@@ -8684,29 +8684,29 @@
         <v>98</v>
       </c>
       <c r="Y68" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I69" s="6">
         <v>47</v>
@@ -8757,29 +8757,29 @@
         <v>101</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I70" s="6">
         <v>49</v>
@@ -8830,29 +8830,29 @@
         <v>104</v>
       </c>
       <c r="Y70" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="71" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I71" s="6">
         <v>48</v>
@@ -8903,29 +8903,29 @@
         <v>102</v>
       </c>
       <c r="Y71" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="72" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I72" s="6">
         <v>46</v>
@@ -8976,7 +8976,7 @@
         <v>102</v>
       </c>
       <c r="Y72" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="73" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16396,7 +16396,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.43350000000000005" right="0.23620000000000002" top="0.98390000000000022" bottom="0.82720000000000016" header="0.59020000000000006" footer="0.43350000000000005"/>
+  <pageMargins left="0.43350000000000005" right="0.23620000000000002" top="0.77" bottom="0.56000000000000005" header="0.59020000000000006" footer="0.43350000000000005"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
@@ -16425,16 +16425,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -16442,19 +16442,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="22">
         <v>26</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="H2" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I2" s="3">
         <f>SUM(C2:C10)</f>
@@ -16466,19 +16466,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="22">
         <v>26</v>
       </c>
       <c r="D3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="I3" s="3">
         <f>SUM(C11:C14)</f>
@@ -16490,16 +16490,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="22">
         <v>27</v>
       </c>
       <c r="D4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="I4" s="3">
         <f>SUM(I2:I3)</f>
@@ -16511,16 +16511,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="22">
         <v>26</v>
       </c>
       <c r="D5" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16528,16 +16528,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="22">
         <v>27</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16545,16 +16545,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="22">
         <v>27</v>
       </c>
       <c r="D7" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16562,16 +16562,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="22">
         <v>23</v>
       </c>
       <c r="D8" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16579,16 +16579,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="22">
         <v>23</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16596,16 +16596,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="22">
         <v>22</v>
       </c>
       <c r="D10" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16613,16 +16613,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="22">
         <v>20</v>
       </c>
       <c r="D11" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16630,16 +16630,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="22">
         <v>20</v>
       </c>
       <c r="D12" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16647,16 +16647,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="22">
         <v>18</v>
       </c>
       <c r="D13" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16664,22 +16664,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="22">
         <v>17</v>
       </c>
       <c r="D14" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="27">
         <f>SUM(C2:C14)</f>
@@ -16690,7 +16690,7 @@
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16698,10 +16698,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16709,10 +16709,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>204</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -16745,13 +16745,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -16759,7 +16759,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="35">
         <v>5000000</v>
@@ -16780,7 +16780,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="35">
         <v>5000000</v>
@@ -16801,10 +16801,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
         <v>210</v>
-      </c>
-      <c r="D4" t="s">
-        <v>211</v>
       </c>
       <c r="G4" s="35">
         <f>G2-G3</f>
@@ -16816,11 +16816,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
@@ -16830,7 +16830,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="35">
         <f>(800000*105)-C2-C3</f>
@@ -16842,7 +16842,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="35">
         <f>75*800000</f>
@@ -16854,7 +16854,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="35">
         <f>122*800000</f>
@@ -16863,7 +16863,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="35">
         <f>SUM(C2:C9)</f>
@@ -16872,7 +16872,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="39">
         <f>G2-C10</f>
@@ -16912,27 +16912,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16940,13 +16940,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16954,13 +16954,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16968,13 +16968,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16982,13 +16982,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16996,13 +16996,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17010,13 +17010,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17024,13 +17024,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17038,13 +17038,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17052,13 +17052,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17066,13 +17066,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17080,13 +17080,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17094,13 +17094,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17108,13 +17108,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17122,13 +17122,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17136,13 +17136,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17150,13 +17150,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17164,13 +17164,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17178,13 +17178,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17192,13 +17192,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17206,13 +17206,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17220,13 +17220,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17234,13 +17234,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17248,13 +17248,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17262,13 +17262,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17276,13 +17276,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17290,13 +17290,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17304,13 +17304,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17318,13 +17318,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17332,13 +17332,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17346,13 +17346,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17360,13 +17360,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17374,13 +17374,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17388,13 +17388,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17402,13 +17402,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17416,13 +17416,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17430,13 +17430,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17444,13 +17444,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17458,13 +17458,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17472,13 +17472,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17486,13 +17486,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17500,13 +17500,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17514,13 +17514,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17528,13 +17528,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17542,13 +17542,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17556,13 +17556,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17570,13 +17570,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17584,13 +17584,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17598,13 +17598,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17612,13 +17612,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17626,13 +17626,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17640,13 +17640,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17654,13 +17654,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17668,13 +17668,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17682,13 +17682,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17696,13 +17696,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17710,13 +17710,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17724,13 +17724,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17738,13 +17738,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17752,13 +17752,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17766,13 +17766,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17780,13 +17780,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17794,13 +17794,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17808,13 +17808,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17822,13 +17822,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17836,13 +17836,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17850,13 +17850,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17864,13 +17864,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17878,13 +17878,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17892,13 +17892,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17906,13 +17906,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17920,13 +17920,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17934,13 +17934,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17948,13 +17948,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17962,13 +17962,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17976,13 +17976,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17990,13 +17990,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18004,13 +18004,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18018,13 +18018,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18032,13 +18032,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18046,13 +18046,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18060,13 +18060,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18074,13 +18074,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18088,13 +18088,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18102,13 +18102,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18116,13 +18116,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18130,13 +18130,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18144,13 +18144,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18158,13 +18158,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18172,13 +18172,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18186,13 +18186,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18200,13 +18200,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18214,13 +18214,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18228,13 +18228,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18242,13 +18242,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18256,13 +18256,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18270,13 +18270,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18284,13 +18284,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18298,13 +18298,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18312,13 +18312,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18326,13 +18326,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18340,13 +18340,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18354,13 +18354,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18368,13 +18368,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18382,13 +18382,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18396,13 +18396,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18410,13 +18410,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18424,13 +18424,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18438,13 +18438,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18452,13 +18452,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18466,13 +18466,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18480,13 +18480,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18494,13 +18494,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18508,13 +18508,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18522,13 +18522,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18536,13 +18536,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18550,13 +18550,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18564,13 +18564,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18578,13 +18578,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18592,13 +18592,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18606,13 +18606,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18620,13 +18620,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18634,13 +18634,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18648,13 +18648,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18662,13 +18662,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18676,13 +18676,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18690,13 +18690,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18704,13 +18704,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18718,13 +18718,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18732,13 +18732,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18746,13 +18746,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18760,13 +18760,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18774,13 +18774,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18788,13 +18788,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D135" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="136" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18802,13 +18802,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18816,13 +18816,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18830,13 +18830,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D138" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18844,13 +18844,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18858,13 +18858,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18872,13 +18872,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18886,13 +18886,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18900,13 +18900,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D143" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18914,13 +18914,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D144" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18928,13 +18928,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D145" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18942,13 +18942,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18956,13 +18956,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D147" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18970,13 +18970,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18984,13 +18984,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18998,13 +18998,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D150" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19012,13 +19012,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19026,13 +19026,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D152" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19040,13 +19040,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D153" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19054,13 +19054,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D154" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19068,13 +19068,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D155" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19082,13 +19082,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19096,13 +19096,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D157" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19110,13 +19110,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D158" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19124,13 +19124,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D159" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19138,13 +19138,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D160" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19152,13 +19152,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D161" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19166,13 +19166,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19180,13 +19180,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D163" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19194,13 +19194,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D164" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19208,13 +19208,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D165" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19222,13 +19222,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D166" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19236,13 +19236,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D167" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19250,13 +19250,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D168" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19264,13 +19264,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D169" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19278,13 +19278,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D170" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19292,13 +19292,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D171" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19306,13 +19306,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D172" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19320,13 +19320,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19334,13 +19334,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D174" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19348,13 +19348,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D175" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19362,13 +19362,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D176" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19376,13 +19376,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19390,13 +19390,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19404,13 +19404,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D179" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19418,13 +19418,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D180" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19432,13 +19432,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19446,13 +19446,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19460,13 +19460,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D183" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19474,13 +19474,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D184" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19488,13 +19488,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D185" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19502,13 +19502,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D186" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19516,13 +19516,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D187" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19530,13 +19530,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D188" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19544,13 +19544,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D189" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19558,13 +19558,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D190" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19572,13 +19572,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D191" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19586,13 +19586,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D192" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19600,13 +19600,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D193" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19614,13 +19614,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D194" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19628,13 +19628,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D195" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19642,13 +19642,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D196" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19656,13 +19656,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D197" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D197" s="7" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19670,13 +19670,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D198" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19684,13 +19684,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D199" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19698,13 +19698,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D200" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19712,13 +19712,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D201" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19726,13 +19726,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D202" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19740,13 +19740,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19754,13 +19754,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D204" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19768,13 +19768,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D205" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19782,13 +19782,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D206" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19796,13 +19796,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D207" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19810,13 +19810,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D208" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="209" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19824,13 +19824,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D209" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19838,13 +19838,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D210" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19852,13 +19852,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D211" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19866,13 +19866,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D212" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="213" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19880,13 +19880,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D213" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="214" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19894,13 +19894,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19908,13 +19908,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D215" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="216" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19922,13 +19922,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D216" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19936,13 +19936,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D217" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D217" s="7" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19950,13 +19950,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D218" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D218" s="7" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19964,13 +19964,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D219" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19978,13 +19978,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D220" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D220" s="7" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19992,13 +19992,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D221" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20006,13 +20006,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D222" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20020,13 +20020,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D223" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="224" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20034,13 +20034,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D224" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="225" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20048,13 +20048,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D225" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="226" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20062,13 +20062,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D226" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="227" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20076,13 +20076,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D227" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="228" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20090,13 +20090,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D228" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="229" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20104,13 +20104,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D229" s="7" t="s">
         <v>685</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D229" s="7" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="230" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20118,13 +20118,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="231" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20132,13 +20132,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D231" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D231" s="7" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="232" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20146,13 +20146,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D232" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20160,13 +20160,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D233" s="7" t="s">
         <v>692</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20174,13 +20174,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D234" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20188,13 +20188,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="236" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20202,13 +20202,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D236" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="C236" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D236" s="7" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="237" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20216,13 +20216,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D237" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="238" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20230,13 +20230,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D238" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D238" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="239" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20244,13 +20244,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D239" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D239" s="7" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="240" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20258,13 +20258,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D240" s="7" t="s">
         <v>705</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="241" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20272,13 +20272,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D241" s="7" t="s">
         <v>707</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="242" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20286,13 +20286,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D242" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="C242" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="243" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20300,13 +20300,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D243" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="244" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20314,13 +20314,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D244" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D244" s="7" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="245" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20328,13 +20328,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D245" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="246" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20342,13 +20342,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D246" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D246" s="7" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="247" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20356,13 +20356,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D247" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D247" s="7" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="248" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20370,13 +20370,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D248" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D248" s="7" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20384,13 +20384,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D249" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D249" s="7" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="250" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20398,13 +20398,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D250" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D250" s="7" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20412,13 +20412,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D251" s="7" t="s">
         <v>727</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D251" s="7" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="252" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20426,13 +20426,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D252" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="C252" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D252" s="7" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="253" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20440,13 +20440,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D253" s="7" t="s">
         <v>731</v>
-      </c>
-      <c r="C253" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D253" s="7" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="254" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20454,13 +20454,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D254" s="7" t="s">
         <v>733</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D254" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="255" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20468,13 +20468,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D255" s="7" t="s">
         <v>735</v>
-      </c>
-      <c r="C255" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D255" s="7" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="256" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20482,13 +20482,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D256" s="7" t="s">
         <v>737</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D256" s="7" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="257" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20496,13 +20496,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D257" s="7" t="s">
         <v>739</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D257" s="7" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="258" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20510,13 +20510,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D258" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D258" s="7" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="259" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20524,13 +20524,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D259" s="7" t="s">
         <v>743</v>
-      </c>
-      <c r="C259" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D259" s="7" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="260" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20538,13 +20538,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D260" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D260" s="7" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="261" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20552,13 +20552,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D261" s="7" t="s">
         <v>747</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D261" s="7" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="262" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20566,13 +20566,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D262" s="7" t="s">
         <v>749</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D262" s="7" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="263" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20580,13 +20580,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D263" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D263" s="7" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="264" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20594,13 +20594,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D264" s="7" t="s">
         <v>753</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D264" s="7" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20608,13 +20608,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D265" s="7" t="s">
         <v>755</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D265" s="7" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="266" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20622,13 +20622,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D266" s="7" t="s">
         <v>757</v>
-      </c>
-      <c r="C266" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D266" s="7" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="267" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20636,13 +20636,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D267" s="7" t="s">
         <v>759</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D267" s="7" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="268" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20650,13 +20650,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D268" s="7" t="s">
         <v>761</v>
-      </c>
-      <c r="C268" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D268" s="7" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="269" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20664,13 +20664,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D269" s="7" t="s">
         <v>763</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D269" s="7" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="270" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20678,13 +20678,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D270" s="7" t="s">
         <v>765</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20692,13 +20692,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D271" s="7" t="s">
         <v>767</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D271" s="7" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="272" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20706,13 +20706,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D272" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="C272" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D272" s="7" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="273" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20720,13 +20720,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D273" s="7" t="s">
         <v>771</v>
-      </c>
-      <c r="C273" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D273" s="7" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="274" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20734,13 +20734,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D274" s="7" t="s">
         <v>773</v>
-      </c>
-      <c r="C274" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D274" s="7" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="275" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20748,13 +20748,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D275" s="7" t="s">
         <v>775</v>
-      </c>
-      <c r="C275" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D275" s="7" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="276" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20762,13 +20762,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D276" s="7" t="s">
         <v>777</v>
-      </c>
-      <c r="C276" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D276" s="7" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="277" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20776,13 +20776,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D277" s="7" t="s">
         <v>779</v>
-      </c>
-      <c r="C277" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D277" s="7" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="278" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20790,13 +20790,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D278" s="7" t="s">
         <v>781</v>
-      </c>
-      <c r="C278" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D278" s="7" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="279" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20804,13 +20804,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D279" s="7" t="s">
         <v>783</v>
-      </c>
-      <c r="C279" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D279" s="7" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="280" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20818,13 +20818,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D280" s="7" t="s">
         <v>785</v>
-      </c>
-      <c r="C280" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D280" s="7" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="281" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20832,13 +20832,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D281" s="7" t="s">
         <v>787</v>
-      </c>
-      <c r="C281" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D281" s="7" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="282" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20846,13 +20846,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D282" s="7" t="s">
         <v>789</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D282" s="7" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="283" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20860,13 +20860,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D283" s="7" t="s">
         <v>791</v>
-      </c>
-      <c r="C283" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D283" s="7" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="284" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20874,13 +20874,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D284" s="7" t="s">
         <v>793</v>
-      </c>
-      <c r="C284" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D284" s="7" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="285" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20888,13 +20888,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D285" s="7" t="s">
         <v>795</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D285" s="7" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="286" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20902,13 +20902,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D286" s="7" t="s">
         <v>797</v>
-      </c>
-      <c r="C286" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D286" s="7" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="287" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20916,13 +20916,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D287" s="7" t="s">
         <v>799</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D287" s="7" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="288" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20930,13 +20930,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D288" s="7" t="s">
         <v>801</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D288" s="7" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="289" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20944,13 +20944,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D289" s="7" t="s">
         <v>803</v>
-      </c>
-      <c r="C289" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D289" s="7" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="290" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20958,13 +20958,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D290" s="7" t="s">
         <v>805</v>
-      </c>
-      <c r="C290" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D290" s="7" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="291" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20972,13 +20972,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D291" s="7" t="s">
         <v>807</v>
-      </c>
-      <c r="C291" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D291" s="7" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="292" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20986,13 +20986,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D292" s="7" t="s">
         <v>809</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D292" s="7" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="293" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21000,13 +21000,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D293" s="7" t="s">
         <v>811</v>
-      </c>
-      <c r="C293" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D293" s="7" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="294" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21014,13 +21014,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D294" s="7" t="s">
         <v>813</v>
-      </c>
-      <c r="C294" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D294" s="7" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="295" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21028,13 +21028,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D295" s="7" t="s">
         <v>815</v>
-      </c>
-      <c r="C295" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D295" s="7" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21042,13 +21042,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D296" s="7" t="s">
         <v>817</v>
-      </c>
-      <c r="C296" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D296" s="7" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="297" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21056,13 +21056,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D297" s="7" t="s">
         <v>819</v>
-      </c>
-      <c r="C297" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D297" s="7" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="298" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21070,13 +21070,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D298" s="7" t="s">
         <v>821</v>
-      </c>
-      <c r="C298" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D298" s="7" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="299" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21084,13 +21084,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D299" s="7" t="s">
         <v>823</v>
-      </c>
-      <c r="C299" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D299" s="7" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="300" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21098,13 +21098,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D300" s="7" t="s">
         <v>825</v>
-      </c>
-      <c r="C300" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D300" s="7" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="301" spans="1:4" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21112,13 +21112,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D301" s="7" t="s">
         <v>827</v>
-      </c>
-      <c r="C301" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D301" s="7" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
